--- a/outputs-HGR-r202-archive/o__Bacteroidales.xlsx
+++ b/outputs-HGR-r202-archive/o__Bacteroidales.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R205"/>
+  <dimension ref="A1:R212"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5923,301 +5923,301 @@
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT41097.fa</t>
+          <t>even_MAG-GUT41378.fa</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>0.966533807301465</v>
+        <v>0.01019484499215102</v>
       </c>
       <c r="C89" t="n">
-        <v>1.15831738740093e-05</v>
+        <v>0.003604540848927414</v>
       </c>
       <c r="D89" t="n">
-        <v>0.001327740367450222</v>
+        <v>1.88471213063117e-05</v>
       </c>
       <c r="E89" t="n">
-        <v>2.993683332616821e-06</v>
+        <v>1.619872232880877e-07</v>
       </c>
       <c r="F89" t="n">
-        <v>2.130875902954488e-11</v>
+        <v>5.606747875086682e-09</v>
       </c>
       <c r="G89" t="n">
-        <v>0.001569510896868747</v>
+        <v>2.212363191683361e-05</v>
       </c>
       <c r="H89" t="n">
-        <v>0.01273257850174379</v>
+        <v>0.9843211099666299</v>
       </c>
       <c r="I89" t="n">
-        <v>2.220558845092532e-14</v>
+        <v>2.220209059619867e-14</v>
       </c>
       <c r="J89" t="n">
-        <v>1.807804694980712e-05</v>
+        <v>3.494998639415602e-08</v>
       </c>
       <c r="K89" t="n">
-        <v>9.726916350370457e-09</v>
+        <v>1.652843798958769e-08</v>
       </c>
       <c r="L89" t="n">
-        <v>0.001384327588780673</v>
+        <v>0.001824398548066674</v>
       </c>
       <c r="M89" t="n">
-        <v>0.01627470790049006</v>
+        <v>8.430864917856829e-06</v>
       </c>
       <c r="N89" t="n">
-        <v>3.691906436502716e-13</v>
+        <v>2.220209059619867e-14</v>
       </c>
       <c r="O89" t="n">
-        <v>0.0001446627904287704</v>
+        <v>5.484953644051395e-06</v>
       </c>
       <c r="P89" t="n">
-        <v>0.966533807301465</v>
+        <v>0.9843211099666299</v>
       </c>
       <c r="Q89" t="inlineStr">
         <is>
-          <t>f__Bacteroidaceae</t>
+          <t>f__Muribaculaceae</t>
         </is>
       </c>
       <c r="R89" t="inlineStr">
         <is>
-          <t>f__Bacteroidaceae</t>
+          <t>f__Muribaculaceae</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT41378.fa</t>
+          <t>even_MAG-GUT41860.fa</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>0.01019484499215102</v>
+        <v>0.08399317331639961</v>
       </c>
       <c r="C90" t="n">
-        <v>0.003604540848927414</v>
+        <v>0.1336121494087445</v>
       </c>
       <c r="D90" t="n">
-        <v>1.88471213063117e-05</v>
+        <v>0.07803352281696975</v>
       </c>
       <c r="E90" t="n">
-        <v>1.619872232880877e-07</v>
+        <v>0.1089645050542527</v>
       </c>
       <c r="F90" t="n">
-        <v>5.606747875086682e-09</v>
+        <v>2.756157430554118e-09</v>
       </c>
       <c r="G90" t="n">
-        <v>2.212363191683361e-05</v>
+        <v>0.1293372036881728</v>
       </c>
       <c r="H90" t="n">
-        <v>0.9843211099666299</v>
+        <v>0.06552571220254395</v>
       </c>
       <c r="I90" t="n">
-        <v>2.220209059619867e-14</v>
+        <v>2.495271988655125e-12</v>
       </c>
       <c r="J90" t="n">
-        <v>3.494998639415602e-08</v>
+        <v>0.02061791536196216</v>
       </c>
       <c r="K90" t="n">
-        <v>1.652843798958769e-08</v>
+        <v>6.318063743887668e-05</v>
       </c>
       <c r="L90" t="n">
-        <v>0.001824398548066674</v>
+        <v>0.03157583888001651</v>
       </c>
       <c r="M90" t="n">
-        <v>8.430864917856829e-06</v>
+        <v>0.131289628146109</v>
       </c>
       <c r="N90" t="n">
-        <v>2.220209059619867e-14</v>
+        <v>0.08684005400452842</v>
       </c>
       <c r="O90" t="n">
-        <v>5.484953644051395e-06</v>
+        <v>0.1301471137242089</v>
       </c>
       <c r="P90" t="n">
-        <v>0.9843211099666299</v>
+        <v>0.1336121494087445</v>
       </c>
       <c r="Q90" t="inlineStr">
         <is>
-          <t>f__Muribaculaceae</t>
+          <t>f__Barnesiellaceae</t>
         </is>
       </c>
       <c r="R90" t="inlineStr">
         <is>
-          <t>f__Muribaculaceae</t>
+          <t>f__Barnesiellaceae(reject)</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT41860.fa</t>
+          <t>even_MAG-GUT42780.fa</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>0.08399317331639961</v>
+        <v>0.02605169682814188</v>
       </c>
       <c r="C91" t="n">
-        <v>0.1336121494087445</v>
+        <v>0.150845170905909</v>
       </c>
       <c r="D91" t="n">
-        <v>0.07803352281696975</v>
+        <v>0.01424696671300803</v>
       </c>
       <c r="E91" t="n">
-        <v>0.1089645050542527</v>
+        <v>0.007919701567855424</v>
       </c>
       <c r="F91" t="n">
-        <v>2.756157430554118e-09</v>
+        <v>2.001707459647317e-09</v>
       </c>
       <c r="G91" t="n">
-        <v>0.1293372036881728</v>
+        <v>0.2744327870859961</v>
       </c>
       <c r="H91" t="n">
-        <v>0.06552571220254395</v>
+        <v>0.003179664468114883</v>
       </c>
       <c r="I91" t="n">
-        <v>2.495271988655125e-12</v>
+        <v>5.003269845730642e-13</v>
       </c>
       <c r="J91" t="n">
-        <v>0.02061791536196216</v>
+        <v>0.008319207953856302</v>
       </c>
       <c r="K91" t="n">
-        <v>6.318063743887668e-05</v>
+        <v>0.0001698046397535337</v>
       </c>
       <c r="L91" t="n">
-        <v>0.03157583888001651</v>
+        <v>0.06241769430385619</v>
       </c>
       <c r="M91" t="n">
-        <v>0.131289628146109</v>
+        <v>0.1001487248982011</v>
       </c>
       <c r="N91" t="n">
-        <v>0.08684005400452842</v>
+        <v>0.3012442870330049</v>
       </c>
       <c r="O91" t="n">
-        <v>0.1301471137242089</v>
+        <v>0.05102429160009476</v>
       </c>
       <c r="P91" t="n">
-        <v>0.1336121494087445</v>
+        <v>0.3012442870330049</v>
       </c>
       <c r="Q91" t="inlineStr">
         <is>
-          <t>f__Barnesiellaceae</t>
+          <t>f__UBA11471</t>
         </is>
       </c>
       <c r="R91" t="inlineStr">
         <is>
-          <t>f__Barnesiellaceae(reject)</t>
+          <t>f__UBA11471(reject)</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT42780.fa</t>
+          <t>even_MAG-GUT42852.fa</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>0.02605169682814188</v>
+        <v>0.9902726852275165</v>
       </c>
       <c r="C92" t="n">
-        <v>0.150845170905909</v>
+        <v>4.198083620076345e-05</v>
       </c>
       <c r="D92" t="n">
-        <v>0.01424696671300803</v>
+        <v>0.0002488392782028137</v>
       </c>
       <c r="E92" t="n">
-        <v>0.007919701567855424</v>
+        <v>9.623867429840967e-08</v>
       </c>
       <c r="F92" t="n">
-        <v>2.001707459647317e-09</v>
+        <v>1.78177664033458e-11</v>
       </c>
       <c r="G92" t="n">
-        <v>0.2744327870859961</v>
+        <v>3.325194933490265e-05</v>
       </c>
       <c r="H92" t="n">
-        <v>0.003179664468114883</v>
+        <v>0.0008692717136785464</v>
       </c>
       <c r="I92" t="n">
-        <v>5.003269845730642e-13</v>
+        <v>2.220188253245186e-14</v>
       </c>
       <c r="J92" t="n">
-        <v>0.008319207953856302</v>
+        <v>7.727298977130057e-05</v>
       </c>
       <c r="K92" t="n">
-        <v>0.0001698046397535337</v>
+        <v>3.271499608052234e-07</v>
       </c>
       <c r="L92" t="n">
-        <v>0.06241769430385619</v>
+        <v>0.007527815669882604</v>
       </c>
       <c r="M92" t="n">
-        <v>0.1001487248982011</v>
+        <v>0.0009225048907015051</v>
       </c>
       <c r="N92" t="n">
-        <v>0.3012442870330049</v>
+        <v>2.220188253245186e-14</v>
       </c>
       <c r="O92" t="n">
-        <v>0.05102429160009476</v>
+        <v>5.954038213777202e-06</v>
       </c>
       <c r="P92" t="n">
-        <v>0.3012442870330049</v>
+        <v>0.9902726852275165</v>
       </c>
       <c r="Q92" t="inlineStr">
         <is>
-          <t>f__UBA11471</t>
+          <t>f__Bacteroidaceae</t>
         </is>
       </c>
       <c r="R92" t="inlineStr">
         <is>
-          <t>f__UBA11471(reject)</t>
+          <t>f__Bacteroidaceae</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT42852.fa</t>
+          <t>even_MAG-GUT42865.fa</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>0.9902726852275165</v>
+        <v>0.9858971950262391</v>
       </c>
       <c r="C93" t="n">
-        <v>4.198083620076345e-05</v>
+        <v>0.0001365552069302748</v>
       </c>
       <c r="D93" t="n">
-        <v>0.0002488392782028137</v>
+        <v>0.008418220705836131</v>
       </c>
       <c r="E93" t="n">
-        <v>9.623867429840967e-08</v>
+        <v>1.10317174660551e-05</v>
       </c>
       <c r="F93" t="n">
-        <v>1.78177664033458e-11</v>
+        <v>2.024707294198875e-09</v>
       </c>
       <c r="G93" t="n">
-        <v>3.325194933490265e-05</v>
+        <v>5.452761363801142e-05</v>
       </c>
       <c r="H93" t="n">
-        <v>0.0008692717136785464</v>
+        <v>0.00298345824063734</v>
       </c>
       <c r="I93" t="n">
-        <v>2.220188253245186e-14</v>
+        <v>2.825486552628694e-14</v>
       </c>
       <c r="J93" t="n">
-        <v>7.727298977130057e-05</v>
+        <v>0.0007383456490891975</v>
       </c>
       <c r="K93" t="n">
-        <v>3.271499608052234e-07</v>
+        <v>4.161771928797841e-07</v>
       </c>
       <c r="L93" t="n">
-        <v>0.007527815669882604</v>
+        <v>0.000325523360476419</v>
       </c>
       <c r="M93" t="n">
-        <v>0.0009225048907015051</v>
+        <v>0.0009097050086798199</v>
       </c>
       <c r="N93" t="n">
-        <v>2.220188253245186e-14</v>
+        <v>2.825486552628693e-14</v>
       </c>
       <c r="O93" t="n">
-        <v>5.954038213777202e-06</v>
+        <v>0.00052501926905115</v>
       </c>
       <c r="P93" t="n">
-        <v>0.9902726852275165</v>
+        <v>0.9858971950262391</v>
       </c>
       <c r="Q93" t="inlineStr">
         <is>
@@ -6233,239 +6233,239 @@
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT42865.fa</t>
+          <t>even_MAG-GUT43110.fa</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>0.9858971950262391</v>
+        <v>0.1119879228415822</v>
       </c>
       <c r="C94" t="n">
-        <v>0.0001365552069302748</v>
+        <v>0.1238831634260218</v>
       </c>
       <c r="D94" t="n">
-        <v>0.008418220705836131</v>
+        <v>0.09369550458924392</v>
       </c>
       <c r="E94" t="n">
-        <v>1.10317174660551e-05</v>
+        <v>0.1271097134523798</v>
       </c>
       <c r="F94" t="n">
-        <v>2.024707294198875e-09</v>
+        <v>5.475007935423026e-09</v>
       </c>
       <c r="G94" t="n">
-        <v>5.452761363801142e-05</v>
+        <v>0.09551123599345215</v>
       </c>
       <c r="H94" t="n">
-        <v>0.00298345824063734</v>
+        <v>0.02914325698352412</v>
       </c>
       <c r="I94" t="n">
-        <v>2.825486552628694e-14</v>
+        <v>3.23432366684816e-12</v>
       </c>
       <c r="J94" t="n">
-        <v>0.0007383456490891975</v>
+        <v>0.1144375026788308</v>
       </c>
       <c r="K94" t="n">
-        <v>4.161771928797841e-07</v>
+        <v>0.0009687615647320953</v>
       </c>
       <c r="L94" t="n">
-        <v>0.000325523360476419</v>
+        <v>0.04022467129334281</v>
       </c>
       <c r="M94" t="n">
-        <v>0.0009097050086798199</v>
+        <v>0.07272972541196691</v>
       </c>
       <c r="N94" t="n">
-        <v>2.825486552628693e-14</v>
+        <v>0.08860294068213771</v>
       </c>
       <c r="O94" t="n">
-        <v>0.00052501926905115</v>
+        <v>0.1017055956045434</v>
       </c>
       <c r="P94" t="n">
-        <v>0.9858971950262391</v>
+        <v>0.1271097134523798</v>
       </c>
       <c r="Q94" t="inlineStr">
         <is>
-          <t>f__Bacteroidaceae</t>
+          <t>f__Dysgonomonadaceae</t>
         </is>
       </c>
       <c r="R94" t="inlineStr">
         <is>
-          <t>f__Bacteroidaceae</t>
+          <t>f__Dysgonomonadaceae(reject)</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT43110.fa</t>
+          <t>even_MAG-GUT43251.fa</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>0.1119879228415822</v>
+        <v>0.00023167045241028</v>
       </c>
       <c r="C95" t="n">
-        <v>0.1238831634260218</v>
+        <v>0.1011389505772308</v>
       </c>
       <c r="D95" t="n">
-        <v>0.09369550458924392</v>
+        <v>0.0004220171400519193</v>
       </c>
       <c r="E95" t="n">
-        <v>0.1271097134523798</v>
+        <v>5.076179507169781e-05</v>
       </c>
       <c r="F95" t="n">
-        <v>5.475007935423026e-09</v>
+        <v>7.077785147866659e-11</v>
       </c>
       <c r="G95" t="n">
-        <v>0.09551123599345215</v>
+        <v>0.04678141095205061</v>
       </c>
       <c r="H95" t="n">
-        <v>0.02914325698352412</v>
+        <v>0.0003039992395366468</v>
       </c>
       <c r="I95" t="n">
-        <v>3.23432366684816e-12</v>
+        <v>2.224731792305942e-14</v>
       </c>
       <c r="J95" t="n">
-        <v>0.1144375026788308</v>
+        <v>1.279363205640192e-05</v>
       </c>
       <c r="K95" t="n">
-        <v>0.0009687615647320953</v>
+        <v>4.225260327955064e-06</v>
       </c>
       <c r="L95" t="n">
-        <v>0.04022467129334281</v>
+        <v>0.001009853149062698</v>
       </c>
       <c r="M95" t="n">
-        <v>0.07272972541196691</v>
+        <v>0.01967807126453333</v>
       </c>
       <c r="N95" t="n">
-        <v>0.08860294068213771</v>
+        <v>0.8300327842383315</v>
       </c>
       <c r="O95" t="n">
-        <v>0.1017055956045434</v>
+        <v>0.0003334622285361554</v>
       </c>
       <c r="P95" t="n">
-        <v>0.1271097134523798</v>
+        <v>0.8300327842383315</v>
       </c>
       <c r="Q95" t="inlineStr">
         <is>
-          <t>f__Dysgonomonadaceae</t>
+          <t>f__UBA11471</t>
         </is>
       </c>
       <c r="R95" t="inlineStr">
         <is>
-          <t>f__Dysgonomonadaceae(reject)</t>
+          <t>f__UBA11471</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT43251.fa</t>
+          <t>even_MAG-GUT43377.fa</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>0.00023167045241028</v>
+        <v>0.5149348627130806</v>
       </c>
       <c r="C96" t="n">
-        <v>0.1011389505772308</v>
+        <v>3.246087741956081e-05</v>
       </c>
       <c r="D96" t="n">
-        <v>0.0004220171400519193</v>
+        <v>0.0008350262786671937</v>
       </c>
       <c r="E96" t="n">
-        <v>5.076179507169781e-05</v>
+        <v>0.0001414372163710579</v>
       </c>
       <c r="F96" t="n">
-        <v>7.077785147866659e-11</v>
+        <v>3.709449930368957e-06</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04678141095205061</v>
+        <v>0.0008452368494080298</v>
       </c>
       <c r="H96" t="n">
-        <v>0.0003039992395366468</v>
+        <v>0.3582193555856568</v>
       </c>
       <c r="I96" t="n">
-        <v>2.224731792305942e-14</v>
+        <v>2.038722694817783e-13</v>
       </c>
       <c r="J96" t="n">
-        <v>1.279363205640192e-05</v>
+        <v>2.311937243443366e-07</v>
       </c>
       <c r="K96" t="n">
-        <v>4.225260327955064e-06</v>
+        <v>6.036114678737226e-10</v>
       </c>
       <c r="L96" t="n">
-        <v>0.001009853149062698</v>
+        <v>0.001370423528125316</v>
       </c>
       <c r="M96" t="n">
-        <v>0.01967807126453333</v>
+        <v>0.09846999968313611</v>
       </c>
       <c r="N96" t="n">
-        <v>0.8300327842383315</v>
+        <v>2.038722694817845e-13</v>
       </c>
       <c r="O96" t="n">
-        <v>0.0003334622285361554</v>
+        <v>0.02514725602046147</v>
       </c>
       <c r="P96" t="n">
-        <v>0.8300327842383315</v>
+        <v>0.5149348627130806</v>
       </c>
       <c r="Q96" t="inlineStr">
         <is>
-          <t>f__UBA11471</t>
+          <t>f__Bacteroidaceae</t>
         </is>
       </c>
       <c r="R96" t="inlineStr">
         <is>
-          <t>f__UBA11471</t>
+          <t>f__Bacteroidaceae(reject)</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT43377.fa</t>
+          <t>even_MAG-GUT43378.fa</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>0.5149348627130806</v>
+        <v>0.9936335476405438</v>
       </c>
       <c r="C97" t="n">
-        <v>3.246087741956081e-05</v>
+        <v>0.0002388043222996524</v>
       </c>
       <c r="D97" t="n">
-        <v>0.0008350262786671937</v>
+        <v>0.004226804153387014</v>
       </c>
       <c r="E97" t="n">
-        <v>0.0001414372163710579</v>
+        <v>8.977287683352803e-06</v>
       </c>
       <c r="F97" t="n">
-        <v>3.709449930368957e-06</v>
+        <v>2.588994986344524e-11</v>
       </c>
       <c r="G97" t="n">
-        <v>0.0008452368494080298</v>
+        <v>4.189208507492802e-05</v>
       </c>
       <c r="H97" t="n">
-        <v>0.3582193555856568</v>
+        <v>9.704012338769273e-05</v>
       </c>
       <c r="I97" t="n">
-        <v>2.038722694817783e-13</v>
+        <v>2.220171047523257e-14</v>
       </c>
       <c r="J97" t="n">
-        <v>2.311937243443366e-07</v>
+        <v>0.0009030750855043518</v>
       </c>
       <c r="K97" t="n">
-        <v>6.036114678737226e-10</v>
+        <v>6.647143078579105e-07</v>
       </c>
       <c r="L97" t="n">
-        <v>0.001370423528125316</v>
+        <v>0.0001215731634193625</v>
       </c>
       <c r="M97" t="n">
-        <v>0.09846999968313611</v>
+        <v>0.0007070767288705677</v>
       </c>
       <c r="N97" t="n">
-        <v>2.038722694817845e-13</v>
+        <v>2.220171047523257e-14</v>
       </c>
       <c r="O97" t="n">
-        <v>0.02514725602046147</v>
+        <v>2.054466958708487e-05</v>
       </c>
       <c r="P97" t="n">
-        <v>0.5149348627130806</v>
+        <v>0.9936335476405438</v>
       </c>
       <c r="Q97" t="inlineStr">
         <is>
@@ -6474,494 +6474,494 @@
       </c>
       <c r="R97" t="inlineStr">
         <is>
-          <t>f__Bacteroidaceae(reject)</t>
+          <t>f__Bacteroidaceae</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT43378.fa</t>
+          <t>even_MAG-GUT43648.fa</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>0.9936335476405438</v>
+        <v>0.0005613857269673029</v>
       </c>
       <c r="C98" t="n">
-        <v>0.0002388043222996524</v>
+        <v>0.0424400270696098</v>
       </c>
       <c r="D98" t="n">
-        <v>0.004226804153387014</v>
+        <v>0.000685226863165259</v>
       </c>
       <c r="E98" t="n">
-        <v>8.977287683352803e-06</v>
+        <v>0.0006082136302149499</v>
       </c>
       <c r="F98" t="n">
-        <v>2.588994986344524e-11</v>
+        <v>5.076723799700441e-11</v>
       </c>
       <c r="G98" t="n">
-        <v>4.189208507492802e-05</v>
+        <v>0.04573653427212989</v>
       </c>
       <c r="H98" t="n">
-        <v>9.704012338769273e-05</v>
+        <v>0.001786790830198701</v>
       </c>
       <c r="I98" t="n">
-        <v>2.220171047523257e-14</v>
+        <v>3.278876631356291e-14</v>
       </c>
       <c r="J98" t="n">
-        <v>0.0009030750855043518</v>
+        <v>0.001114203734880173</v>
       </c>
       <c r="K98" t="n">
-        <v>6.647143078579105e-07</v>
+        <v>0.0001823508962944277</v>
       </c>
       <c r="L98" t="n">
-        <v>0.0001215731634193625</v>
+        <v>0.004427945744907241</v>
       </c>
       <c r="M98" t="n">
-        <v>0.0007070767288705677</v>
+        <v>0.0130925885949863</v>
       </c>
       <c r="N98" t="n">
-        <v>2.220171047523257e-14</v>
+        <v>0.8882040658434291</v>
       </c>
       <c r="O98" t="n">
-        <v>2.054466958708487e-05</v>
+        <v>0.001160666742416737</v>
       </c>
       <c r="P98" t="n">
-        <v>0.9936335476405438</v>
+        <v>0.8882040658434291</v>
       </c>
       <c r="Q98" t="inlineStr">
         <is>
-          <t>f__Bacteroidaceae</t>
+          <t>f__UBA11471</t>
         </is>
       </c>
       <c r="R98" t="inlineStr">
         <is>
-          <t>f__Bacteroidaceae</t>
+          <t>f__UBA11471</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT43648.fa</t>
+          <t>even_MAG-GUT43957.fa</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>0.0005613857269673029</v>
+        <v>0.001061335472596385</v>
       </c>
       <c r="C99" t="n">
-        <v>0.0424400270696098</v>
+        <v>0.289441895427631</v>
       </c>
       <c r="D99" t="n">
-        <v>0.000685226863165259</v>
+        <v>0.01167112892845748</v>
       </c>
       <c r="E99" t="n">
-        <v>0.0006082136302149499</v>
+        <v>0.002466937826891572</v>
       </c>
       <c r="F99" t="n">
-        <v>5.076723799700441e-11</v>
+        <v>8.09786646260677e-11</v>
       </c>
       <c r="G99" t="n">
-        <v>0.04573653427212989</v>
+        <v>0.2216328621295255</v>
       </c>
       <c r="H99" t="n">
-        <v>0.001786790830198701</v>
+        <v>0.02154379575637511</v>
       </c>
       <c r="I99" t="n">
-        <v>3.278876631356291e-14</v>
+        <v>3.765153796054263e-13</v>
       </c>
       <c r="J99" t="n">
-        <v>0.001114203734880173</v>
+        <v>0.003877431865810308</v>
       </c>
       <c r="K99" t="n">
-        <v>0.0001823508962944277</v>
+        <v>0.001752223596480693</v>
       </c>
       <c r="L99" t="n">
-        <v>0.004427945744907241</v>
+        <v>0.07290803626437133</v>
       </c>
       <c r="M99" t="n">
-        <v>0.0130925885949863</v>
+        <v>0.09915788472756343</v>
       </c>
       <c r="N99" t="n">
-        <v>0.8882040658434291</v>
+        <v>0.2515539070820121</v>
       </c>
       <c r="O99" t="n">
-        <v>0.001160666742416737</v>
+        <v>0.02293256084092997</v>
       </c>
       <c r="P99" t="n">
-        <v>0.8882040658434291</v>
+        <v>0.289441895427631</v>
       </c>
       <c r="Q99" t="inlineStr">
         <is>
-          <t>f__UBA11471</t>
+          <t>f__Barnesiellaceae</t>
         </is>
       </c>
       <c r="R99" t="inlineStr">
         <is>
-          <t>f__UBA11471</t>
+          <t>f__Barnesiellaceae(reject)</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT43957.fa</t>
+          <t>even_MAG-GUT44774.fa</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>0.001061335472596385</v>
+        <v>0.005021932354078554</v>
       </c>
       <c r="C100" t="n">
-        <v>0.289441895427631</v>
+        <v>0.1699880271339249</v>
       </c>
       <c r="D100" t="n">
-        <v>0.01167112892845748</v>
+        <v>0.01867654245257997</v>
       </c>
       <c r="E100" t="n">
-        <v>0.002466937826891572</v>
+        <v>0.05890865117558735</v>
       </c>
       <c r="F100" t="n">
-        <v>8.09786646260677e-11</v>
+        <v>1.795262578890833e-09</v>
       </c>
       <c r="G100" t="n">
-        <v>0.2216328621295255</v>
+        <v>0.1122607551569614</v>
       </c>
       <c r="H100" t="n">
-        <v>0.02154379575637511</v>
+        <v>0.002726386897824405</v>
       </c>
       <c r="I100" t="n">
-        <v>3.765153796054263e-13</v>
+        <v>1.907928672382737e-13</v>
       </c>
       <c r="J100" t="n">
-        <v>0.003877431865810308</v>
+        <v>0.005868428021059038</v>
       </c>
       <c r="K100" t="n">
-        <v>0.001752223596480693</v>
+        <v>0.0001132619484289728</v>
       </c>
       <c r="L100" t="n">
-        <v>0.07290803626437133</v>
+        <v>0.004926501785072862</v>
       </c>
       <c r="M100" t="n">
-        <v>0.09915788472756343</v>
+        <v>0.009399537429359837</v>
       </c>
       <c r="N100" t="n">
-        <v>0.2515539070820121</v>
+        <v>0.5788079515899045</v>
       </c>
       <c r="O100" t="n">
-        <v>0.02293256084092997</v>
+        <v>0.0333020222597648</v>
       </c>
       <c r="P100" t="n">
-        <v>0.289441895427631</v>
+        <v>0.5788079515899045</v>
       </c>
       <c r="Q100" t="inlineStr">
         <is>
-          <t>f__Barnesiellaceae</t>
+          <t>f__UBA11471</t>
         </is>
       </c>
       <c r="R100" t="inlineStr">
         <is>
-          <t>f__Barnesiellaceae(reject)</t>
+          <t>f__UBA11471</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT44774.fa</t>
+          <t>even_MAG-GUT44944.fa</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>0.005021932354078554</v>
+        <v>0.08169667756883313</v>
       </c>
       <c r="C101" t="n">
-        <v>0.1699880271339249</v>
+        <v>0.1439120444340203</v>
       </c>
       <c r="D101" t="n">
-        <v>0.01867654245257997</v>
+        <v>0.09898570470287303</v>
       </c>
       <c r="E101" t="n">
-        <v>0.05890865117558735</v>
+        <v>0.07480503910846115</v>
       </c>
       <c r="F101" t="n">
-        <v>1.795262578890833e-09</v>
+        <v>8.729919798061723e-09</v>
       </c>
       <c r="G101" t="n">
-        <v>0.1122607551569614</v>
+        <v>0.1276939543504598</v>
       </c>
       <c r="H101" t="n">
-        <v>0.002726386897824405</v>
+        <v>0.07780078873897767</v>
       </c>
       <c r="I101" t="n">
-        <v>1.907928672382737e-13</v>
+        <v>3.017470372005639e-12</v>
       </c>
       <c r="J101" t="n">
-        <v>0.005868428021059038</v>
+        <v>0.03663561382592725</v>
       </c>
       <c r="K101" t="n">
-        <v>0.0001132619484289728</v>
+        <v>0.0002564828835336704</v>
       </c>
       <c r="L101" t="n">
-        <v>0.004926501785072862</v>
+        <v>0.07009553456193364</v>
       </c>
       <c r="M101" t="n">
-        <v>0.009399537429359837</v>
+        <v>0.1259675816506221</v>
       </c>
       <c r="N101" t="n">
-        <v>0.5788079515899045</v>
+        <v>0.05815346255428949</v>
       </c>
       <c r="O101" t="n">
-        <v>0.0333020222597648</v>
+        <v>0.1039971068871315</v>
       </c>
       <c r="P101" t="n">
-        <v>0.5788079515899045</v>
+        <v>0.1439120444340203</v>
       </c>
       <c r="Q101" t="inlineStr">
         <is>
-          <t>f__UBA11471</t>
+          <t>f__Barnesiellaceae</t>
         </is>
       </c>
       <c r="R101" t="inlineStr">
         <is>
-          <t>f__UBA11471</t>
+          <t>f__Barnesiellaceae(reject)</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT44944.fa</t>
+          <t>even_MAG-GUT45122.fa</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>0.08169667756883313</v>
+        <v>0.01156637139725487</v>
       </c>
       <c r="C102" t="n">
-        <v>0.1439120444340203</v>
+        <v>0.2246440152391498</v>
       </c>
       <c r="D102" t="n">
-        <v>0.09898570470287303</v>
+        <v>0.03240793453181907</v>
       </c>
       <c r="E102" t="n">
-        <v>0.07480503910846115</v>
+        <v>0.01976962104226093</v>
       </c>
       <c r="F102" t="n">
-        <v>8.729919798061723e-09</v>
+        <v>4.413070566955342e-09</v>
       </c>
       <c r="G102" t="n">
-        <v>0.1276939543504598</v>
+        <v>0.2423824833145024</v>
       </c>
       <c r="H102" t="n">
-        <v>0.07780078873897767</v>
+        <v>0.0104871473693136</v>
       </c>
       <c r="I102" t="n">
-        <v>3.017470372005639e-12</v>
+        <v>6.757172835660026e-13</v>
       </c>
       <c r="J102" t="n">
-        <v>0.03663561382592725</v>
+        <v>0.01647441988350354</v>
       </c>
       <c r="K102" t="n">
-        <v>0.0002564828835336704</v>
+        <v>9.32576314798738e-05</v>
       </c>
       <c r="L102" t="n">
-        <v>0.07009553456193364</v>
+        <v>0.03822467711824214</v>
       </c>
       <c r="M102" t="n">
-        <v>0.1259675816506221</v>
+        <v>0.08286656643227353</v>
       </c>
       <c r="N102" t="n">
-        <v>0.05815346255428949</v>
+        <v>0.2191096433470096</v>
       </c>
       <c r="O102" t="n">
-        <v>0.1039971068871315</v>
+        <v>0.1019738582794443</v>
       </c>
       <c r="P102" t="n">
-        <v>0.1439120444340203</v>
+        <v>0.2423824833145024</v>
       </c>
       <c r="Q102" t="inlineStr">
         <is>
-          <t>f__Barnesiellaceae</t>
+          <t>f__Marinifilaceae</t>
         </is>
       </c>
       <c r="R102" t="inlineStr">
         <is>
-          <t>f__Barnesiellaceae(reject)</t>
+          <t>f__Marinifilaceae(reject)</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT45122.fa</t>
+          <t>even_MAG-GUT45214.fa</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>0.01156637139725487</v>
+        <v>0.008606742664250093</v>
       </c>
       <c r="C103" t="n">
-        <v>0.2246440152391498</v>
+        <v>0.3393554166217319</v>
       </c>
       <c r="D103" t="n">
-        <v>0.03240793453181907</v>
+        <v>0.01023640879942717</v>
       </c>
       <c r="E103" t="n">
-        <v>0.01976962104226093</v>
+        <v>0.0007967565015302544</v>
       </c>
       <c r="F103" t="n">
-        <v>4.413070566955342e-09</v>
+        <v>1.02638509237712e-10</v>
       </c>
       <c r="G103" t="n">
-        <v>0.2423824833145024</v>
+        <v>0.2684743821852387</v>
       </c>
       <c r="H103" t="n">
-        <v>0.0104871473693136</v>
+        <v>0.05242200340382045</v>
       </c>
       <c r="I103" t="n">
-        <v>6.757172835660026e-13</v>
+        <v>6.761646003926276e-13</v>
       </c>
       <c r="J103" t="n">
-        <v>0.01647441988350354</v>
+        <v>0.001164390038458439</v>
       </c>
       <c r="K103" t="n">
-        <v>9.32576314798738e-05</v>
+        <v>0.002040011847574887</v>
       </c>
       <c r="L103" t="n">
-        <v>0.03822467711824214</v>
+        <v>0.1038668666296991</v>
       </c>
       <c r="M103" t="n">
-        <v>0.08286656643227353</v>
+        <v>0.1251383806470537</v>
       </c>
       <c r="N103" t="n">
-        <v>0.2191096433470096</v>
+        <v>0.0829869160125168</v>
       </c>
       <c r="O103" t="n">
-        <v>0.1019738582794443</v>
+        <v>0.004911724545383675</v>
       </c>
       <c r="P103" t="n">
-        <v>0.2423824833145024</v>
+        <v>0.3393554166217319</v>
       </c>
       <c r="Q103" t="inlineStr">
         <is>
-          <t>f__Marinifilaceae</t>
+          <t>f__Barnesiellaceae</t>
         </is>
       </c>
       <c r="R103" t="inlineStr">
         <is>
-          <t>f__Marinifilaceae(reject)</t>
+          <t>f__Barnesiellaceae(reject)</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT45214.fa</t>
+          <t>even_MAG-GUT45263.fa</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>0.008606742664250093</v>
+        <v>6.637107598670437e-05</v>
       </c>
       <c r="C104" t="n">
-        <v>0.3393554166217319</v>
+        <v>0.05719296556333304</v>
       </c>
       <c r="D104" t="n">
-        <v>0.01023640879942717</v>
+        <v>0.0003072506669980425</v>
       </c>
       <c r="E104" t="n">
-        <v>0.0007967565015302544</v>
+        <v>0.0004983112460289916</v>
       </c>
       <c r="F104" t="n">
-        <v>1.02638509237712e-10</v>
+        <v>6.924815983635332e-10</v>
       </c>
       <c r="G104" t="n">
-        <v>0.2684743821852387</v>
+        <v>0.006477041818563535</v>
       </c>
       <c r="H104" t="n">
-        <v>0.05242200340382045</v>
+        <v>1.211730056814716e-05</v>
       </c>
       <c r="I104" t="n">
-        <v>6.761646003926276e-13</v>
+        <v>2.220945532183787e-14</v>
       </c>
       <c r="J104" t="n">
-        <v>0.001164390038458439</v>
+        <v>0.009056778824453158</v>
       </c>
       <c r="K104" t="n">
-        <v>0.002040011847574887</v>
+        <v>0.0001448186544837308</v>
       </c>
       <c r="L104" t="n">
-        <v>0.1038668666296991</v>
+        <v>0.0009893014897747643</v>
       </c>
       <c r="M104" t="n">
-        <v>0.1251383806470537</v>
+        <v>0.001101675061251225</v>
       </c>
       <c r="N104" t="n">
-        <v>0.0829869160125168</v>
+        <v>0.9230061469550238</v>
       </c>
       <c r="O104" t="n">
-        <v>0.004911724545383675</v>
+        <v>0.001147220651030977</v>
       </c>
       <c r="P104" t="n">
-        <v>0.3393554166217319</v>
+        <v>0.9230061469550238</v>
       </c>
       <c r="Q104" t="inlineStr">
         <is>
-          <t>f__Barnesiellaceae</t>
+          <t>f__UBA11471</t>
         </is>
       </c>
       <c r="R104" t="inlineStr">
         <is>
-          <t>f__Barnesiellaceae(reject)</t>
+          <t>f__UBA11471</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT45263.fa</t>
+          <t>even_MAG-GUT45396.fa</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>6.637107598670437e-05</v>
+        <v>0.01812975024006472</v>
       </c>
       <c r="C105" t="n">
-        <v>0.05719296556333304</v>
+        <v>0.1943280242530608</v>
       </c>
       <c r="D105" t="n">
-        <v>0.0003072506669980425</v>
+        <v>0.02412584730823602</v>
       </c>
       <c r="E105" t="n">
-        <v>0.0004983112460289916</v>
+        <v>0.04083967539671478</v>
       </c>
       <c r="F105" t="n">
-        <v>6.924815983635332e-10</v>
+        <v>4.537335947856456e-09</v>
       </c>
       <c r="G105" t="n">
-        <v>0.006477041818563535</v>
+        <v>0.1790483417532591</v>
       </c>
       <c r="H105" t="n">
-        <v>1.211730056814716e-05</v>
+        <v>0.03669354905867953</v>
       </c>
       <c r="I105" t="n">
-        <v>2.220945532183787e-14</v>
+        <v>9.023021392276901e-13</v>
       </c>
       <c r="J105" t="n">
-        <v>0.009056778824453158</v>
+        <v>0.01734361264858265</v>
       </c>
       <c r="K105" t="n">
-        <v>0.0001448186544837308</v>
+        <v>0.001373487396357049</v>
       </c>
       <c r="L105" t="n">
-        <v>0.0009893014897747643</v>
+        <v>0.03907729019709407</v>
       </c>
       <c r="M105" t="n">
-        <v>0.001101675061251225</v>
+        <v>0.119459966797671</v>
       </c>
       <c r="N105" t="n">
-        <v>0.9230061469550238</v>
+        <v>0.2628355914132733</v>
       </c>
       <c r="O105" t="n">
-        <v>0.001147220651030977</v>
+        <v>0.06674485899876859</v>
       </c>
       <c r="P105" t="n">
-        <v>0.9230061469550238</v>
+        <v>0.2628355914132733</v>
       </c>
       <c r="Q105" t="inlineStr">
         <is>
@@ -6970,1052 +6970,1052 @@
       </c>
       <c r="R105" t="inlineStr">
         <is>
-          <t>f__UBA11471</t>
+          <t>f__UBA11471(reject)</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT45396.fa</t>
+          <t>even_MAG-GUT4552.fa</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>0.01812975024006472</v>
+        <v>0.009891126786420368</v>
       </c>
       <c r="C106" t="n">
-        <v>0.1943280242530608</v>
+        <v>1.145871624777052e-07</v>
       </c>
       <c r="D106" t="n">
-        <v>0.02412584730823602</v>
+        <v>7.849153379455569e-05</v>
       </c>
       <c r="E106" t="n">
-        <v>0.04083967539671478</v>
+        <v>4.223127287174454e-11</v>
       </c>
       <c r="F106" t="n">
-        <v>4.537335947856456e-09</v>
+        <v>2.501917468471266e-08</v>
       </c>
       <c r="G106" t="n">
-        <v>0.1790483417532591</v>
+        <v>5.82773247711947e-05</v>
       </c>
       <c r="H106" t="n">
-        <v>0.03669354905867953</v>
+        <v>9.383536562303628e-05</v>
       </c>
       <c r="I106" t="n">
-        <v>9.023021392276901e-13</v>
+        <v>2.220055606659907e-14</v>
       </c>
       <c r="J106" t="n">
-        <v>0.01734361264858265</v>
+        <v>1.731965285861927e-09</v>
       </c>
       <c r="K106" t="n">
-        <v>0.001373487396357049</v>
+        <v>3.864996866539578e-11</v>
       </c>
       <c r="L106" t="n">
-        <v>0.03907729019709407</v>
+        <v>1.266657382451278e-07</v>
       </c>
       <c r="M106" t="n">
-        <v>0.119459966797671</v>
+        <v>3.365131622459419e-05</v>
       </c>
       <c r="N106" t="n">
-        <v>0.2628355914132733</v>
+        <v>2.220055606659907e-14</v>
       </c>
       <c r="O106" t="n">
-        <v>0.06674485899876859</v>
+        <v>0.9898443495882</v>
       </c>
       <c r="P106" t="n">
-        <v>0.2628355914132733</v>
+        <v>0.9898443495882</v>
       </c>
       <c r="Q106" t="inlineStr">
         <is>
-          <t>f__UBA11471</t>
+          <t>f__UBA932</t>
         </is>
       </c>
       <c r="R106" t="inlineStr">
         <is>
-          <t>f__UBA11471(reject)</t>
+          <t>f__UBA932</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT4552.fa</t>
+          <t>even_MAG-GUT45670.fa</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>0.009891126786420368</v>
+        <v>0.0008105240723510344</v>
       </c>
       <c r="C107" t="n">
-        <v>1.145871624777052e-07</v>
+        <v>0.0219625777330675</v>
       </c>
       <c r="D107" t="n">
-        <v>7.849153379455569e-05</v>
+        <v>0.01093979888062515</v>
       </c>
       <c r="E107" t="n">
-        <v>4.223127287174454e-11</v>
+        <v>0.05629388936898275</v>
       </c>
       <c r="F107" t="n">
-        <v>2.501917468471266e-08</v>
+        <v>1.079895102518713e-08</v>
       </c>
       <c r="G107" t="n">
-        <v>5.82773247711947e-05</v>
+        <v>0.0219237561133546</v>
       </c>
       <c r="H107" t="n">
-        <v>9.383536562303628e-05</v>
+        <v>0.0006306086561755245</v>
       </c>
       <c r="I107" t="n">
-        <v>2.220055606659907e-14</v>
+        <v>5.857136732578203e-14</v>
       </c>
       <c r="J107" t="n">
-        <v>1.731965285861927e-09</v>
+        <v>0.002291031019619314</v>
       </c>
       <c r="K107" t="n">
-        <v>3.864996866539578e-11</v>
+        <v>7.987935560578598e-06</v>
       </c>
       <c r="L107" t="n">
-        <v>1.266657382451278e-07</v>
+        <v>0.0004893901690870086</v>
       </c>
       <c r="M107" t="n">
-        <v>3.365131622459419e-05</v>
+        <v>0.001947771397566026</v>
       </c>
       <c r="N107" t="n">
-        <v>2.220055606659907e-14</v>
+        <v>0.8499768745827816</v>
       </c>
       <c r="O107" t="n">
-        <v>0.9898443495882</v>
+        <v>0.03272577927181944</v>
       </c>
       <c r="P107" t="n">
-        <v>0.9898443495882</v>
+        <v>0.8499768745827816</v>
       </c>
       <c r="Q107" t="inlineStr">
         <is>
-          <t>f__UBA932</t>
+          <t>f__UBA11471</t>
         </is>
       </c>
       <c r="R107" t="inlineStr">
         <is>
-          <t>f__UBA932</t>
+          <t>f__UBA11471</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT45670.fa</t>
+          <t>even_MAG-GUT4585.fa</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>0.0008105240723510344</v>
+        <v>0.007505653485960486</v>
       </c>
       <c r="C108" t="n">
-        <v>0.0219625777330675</v>
+        <v>1.573823425692341e-07</v>
       </c>
       <c r="D108" t="n">
-        <v>0.01093979888062515</v>
+        <v>8.12919339419246e-05</v>
       </c>
       <c r="E108" t="n">
-        <v>0.05629388936898275</v>
+        <v>9.849532071117366e-11</v>
       </c>
       <c r="F108" t="n">
-        <v>1.079895102518713e-08</v>
+        <v>1.715905644032815e-09</v>
       </c>
       <c r="G108" t="n">
-        <v>0.0219237561133546</v>
+        <v>4.807471545155369e-05</v>
       </c>
       <c r="H108" t="n">
-        <v>0.0006306086561755245</v>
+        <v>0.0008244745580747496</v>
       </c>
       <c r="I108" t="n">
-        <v>5.857136732578203e-14</v>
+        <v>2.22011887489747e-14</v>
       </c>
       <c r="J108" t="n">
-        <v>0.002291031019619314</v>
+        <v>5.928898499889545e-09</v>
       </c>
       <c r="K108" t="n">
-        <v>7.987935560578598e-06</v>
+        <v>1.294206371099968e-11</v>
       </c>
       <c r="L108" t="n">
-        <v>0.0004893901690870086</v>
+        <v>3.84394657831982e-08</v>
       </c>
       <c r="M108" t="n">
-        <v>0.001947771397566026</v>
+        <v>5.018729327722916e-06</v>
       </c>
       <c r="N108" t="n">
-        <v>0.8499768745827816</v>
+        <v>2.22011887489747e-14</v>
       </c>
       <c r="O108" t="n">
-        <v>0.03272577927181944</v>
+        <v>0.9915352829991493</v>
       </c>
       <c r="P108" t="n">
-        <v>0.8499768745827816</v>
+        <v>0.9915352829991493</v>
       </c>
       <c r="Q108" t="inlineStr">
         <is>
-          <t>f__UBA11471</t>
+          <t>f__UBA932</t>
         </is>
       </c>
       <c r="R108" t="inlineStr">
         <is>
-          <t>f__UBA11471</t>
+          <t>f__UBA932</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT4585.fa</t>
+          <t>even_MAG-GUT4600.fa</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>0.007505653485960486</v>
+        <v>0.01888140128912391</v>
       </c>
       <c r="C109" t="n">
-        <v>1.573823425692341e-07</v>
+        <v>0.002162289660137969</v>
       </c>
       <c r="D109" t="n">
-        <v>8.12919339419246e-05</v>
+        <v>0.0002651970621507549</v>
       </c>
       <c r="E109" t="n">
-        <v>9.849532071117366e-11</v>
+        <v>3.571740435455851e-05</v>
       </c>
       <c r="F109" t="n">
-        <v>1.715905644032815e-09</v>
+        <v>7.650117237121126e-05</v>
       </c>
       <c r="G109" t="n">
-        <v>4.807471545155369e-05</v>
+        <v>0.0002700639272809026</v>
       </c>
       <c r="H109" t="n">
-        <v>0.0008244745580747496</v>
+        <v>0.9781060326744188</v>
       </c>
       <c r="I109" t="n">
-        <v>2.22011887489747e-14</v>
+        <v>2.220096264763742e-14</v>
       </c>
       <c r="J109" t="n">
-        <v>5.928898499889545e-09</v>
+        <v>2.131176111936365e-06</v>
       </c>
       <c r="K109" t="n">
-        <v>1.294206371099968e-11</v>
+        <v>8.342882853445716e-10</v>
       </c>
       <c r="L109" t="n">
-        <v>3.84394657831982e-08</v>
+        <v>6.846438016120432e-05</v>
       </c>
       <c r="M109" t="n">
-        <v>5.018729327722916e-06</v>
+        <v>1.466858048203119e-05</v>
       </c>
       <c r="N109" t="n">
-        <v>2.22011887489747e-14</v>
+        <v>2.220096264763742e-14</v>
       </c>
       <c r="O109" t="n">
-        <v>0.9915352829991493</v>
+        <v>0.0001175318390739178</v>
       </c>
       <c r="P109" t="n">
-        <v>0.9915352829991493</v>
+        <v>0.9781060326744188</v>
       </c>
       <c r="Q109" t="inlineStr">
         <is>
-          <t>f__UBA932</t>
+          <t>f__Muribaculaceae</t>
         </is>
       </c>
       <c r="R109" t="inlineStr">
         <is>
-          <t>f__UBA932</t>
+          <t>f__Muribaculaceae</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT4600.fa</t>
+          <t>even_MAG-GUT46167.fa</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>0.01888140128912391</v>
+        <v>0.01810064482896357</v>
       </c>
       <c r="C110" t="n">
-        <v>0.002162289660137969</v>
+        <v>0.2123001366757216</v>
       </c>
       <c r="D110" t="n">
-        <v>0.0002651970621507549</v>
+        <v>0.003730174918849937</v>
       </c>
       <c r="E110" t="n">
-        <v>3.571740435455851e-05</v>
+        <v>0.005074453730572119</v>
       </c>
       <c r="F110" t="n">
-        <v>7.650117237121126e-05</v>
+        <v>1.183807636207178e-09</v>
       </c>
       <c r="G110" t="n">
-        <v>0.0002700639272809026</v>
+        <v>0.2063402142212657</v>
       </c>
       <c r="H110" t="n">
-        <v>0.9781060326744188</v>
+        <v>0.002595180795475538</v>
       </c>
       <c r="I110" t="n">
-        <v>2.220096264763742e-14</v>
+        <v>2.083565672519737e-13</v>
       </c>
       <c r="J110" t="n">
-        <v>2.131176111936365e-06</v>
+        <v>0.004336609312972828</v>
       </c>
       <c r="K110" t="n">
-        <v>8.342882853445716e-10</v>
+        <v>0.0001098634256038535</v>
       </c>
       <c r="L110" t="n">
-        <v>6.846438016120432e-05</v>
+        <v>0.0186213004560351</v>
       </c>
       <c r="M110" t="n">
-        <v>1.466858048203119e-05</v>
+        <v>0.01502922685736846</v>
       </c>
       <c r="N110" t="n">
-        <v>2.220096264763742e-14</v>
+        <v>0.4987087484645719</v>
       </c>
       <c r="O110" t="n">
-        <v>0.0001175318390739178</v>
+        <v>0.01505344512858322</v>
       </c>
       <c r="P110" t="n">
-        <v>0.9781060326744188</v>
+        <v>0.4987087484645719</v>
       </c>
       <c r="Q110" t="inlineStr">
         <is>
-          <t>f__Muribaculaceae</t>
+          <t>f__UBA11471</t>
         </is>
       </c>
       <c r="R110" t="inlineStr">
         <is>
-          <t>f__Muribaculaceae</t>
+          <t>f__UBA11471(reject)</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT46167.fa</t>
+          <t>even_MAG-GUT4634.fa</t>
         </is>
       </c>
       <c r="B111" t="n">
-        <v>0.01810064482896357</v>
+        <v>0.9821311779155749</v>
       </c>
       <c r="C111" t="n">
-        <v>0.2123001366757216</v>
+        <v>4.044720114935525e-06</v>
       </c>
       <c r="D111" t="n">
-        <v>0.003730174918849937</v>
+        <v>0.0005262450446853783</v>
       </c>
       <c r="E111" t="n">
-        <v>0.005074453730572119</v>
+        <v>1.430827635085932e-06</v>
       </c>
       <c r="F111" t="n">
-        <v>1.183807636207178e-09</v>
+        <v>3.033553222035857e-12</v>
       </c>
       <c r="G111" t="n">
-        <v>0.2063402142212657</v>
+        <v>0.0004377135852904475</v>
       </c>
       <c r="H111" t="n">
-        <v>0.002595180795475538</v>
+        <v>0.007917496709763827</v>
       </c>
       <c r="I111" t="n">
-        <v>2.083565672519737e-13</v>
+        <v>2.220386899789616e-14</v>
       </c>
       <c r="J111" t="n">
-        <v>0.004336609312972828</v>
+        <v>2.515885291172513e-06</v>
       </c>
       <c r="K111" t="n">
-        <v>0.0001098634256038535</v>
+        <v>2.747560744229742e-08</v>
       </c>
       <c r="L111" t="n">
-        <v>0.0186213004560351</v>
+        <v>0.006744668728383657</v>
       </c>
       <c r="M111" t="n">
-        <v>0.01502922685736846</v>
+        <v>0.002098394790609546</v>
       </c>
       <c r="N111" t="n">
-        <v>0.4987087484645719</v>
+        <v>2.220386899789616e-14</v>
       </c>
       <c r="O111" t="n">
-        <v>0.01505344512858322</v>
+        <v>0.000136284313965539</v>
       </c>
       <c r="P111" t="n">
-        <v>0.4987087484645719</v>
+        <v>0.9821311779155749</v>
       </c>
       <c r="Q111" t="inlineStr">
         <is>
-          <t>f__UBA11471</t>
+          <t>f__Bacteroidaceae</t>
         </is>
       </c>
       <c r="R111" t="inlineStr">
         <is>
-          <t>f__UBA11471(reject)</t>
+          <t>f__Bacteroidaceae</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT4634.fa</t>
+          <t>even_MAG-GUT46378.fa</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>0.9821311779155749</v>
+        <v>0.004533752022948123</v>
       </c>
       <c r="C112" t="n">
-        <v>4.044720114935525e-06</v>
+        <v>0.2006048678039951</v>
       </c>
       <c r="D112" t="n">
-        <v>0.0005262450446853783</v>
+        <v>0.02823610893046757</v>
       </c>
       <c r="E112" t="n">
-        <v>1.430827635085932e-06</v>
+        <v>0.004322504795272986</v>
       </c>
       <c r="F112" t="n">
-        <v>3.033553222035857e-12</v>
+        <v>9.098664053230145e-08</v>
       </c>
       <c r="G112" t="n">
-        <v>0.0004377135852904475</v>
+        <v>0.1915407146358299</v>
       </c>
       <c r="H112" t="n">
-        <v>0.007917496709763827</v>
+        <v>0.005227962777407686</v>
       </c>
       <c r="I112" t="n">
-        <v>2.220386899789616e-14</v>
+        <v>2.061342468337927e-13</v>
       </c>
       <c r="J112" t="n">
-        <v>2.515885291172513e-06</v>
+        <v>0.01996351102870362</v>
       </c>
       <c r="K112" t="n">
-        <v>2.747560744229742e-08</v>
+        <v>3.341723696030841e-05</v>
       </c>
       <c r="L112" t="n">
-        <v>0.006744668728383657</v>
+        <v>0.005918426707872184</v>
       </c>
       <c r="M112" t="n">
-        <v>0.002098394790609546</v>
+        <v>0.0229644224415606</v>
       </c>
       <c r="N112" t="n">
-        <v>2.220386899789616e-14</v>
+        <v>0.4633082691862007</v>
       </c>
       <c r="O112" t="n">
-        <v>0.000136284313965539</v>
+        <v>0.05334595144593454</v>
       </c>
       <c r="P112" t="n">
-        <v>0.9821311779155749</v>
+        <v>0.4633082691862007</v>
       </c>
       <c r="Q112" t="inlineStr">
         <is>
-          <t>f__Bacteroidaceae</t>
+          <t>f__UBA11471</t>
         </is>
       </c>
       <c r="R112" t="inlineStr">
         <is>
-          <t>f__Bacteroidaceae</t>
+          <t>f__UBA11471(reject)</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT46378.fa</t>
+          <t>even_MAG-GUT4651.fa</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>0.004533752022948123</v>
+        <v>0.9801489504220074</v>
       </c>
       <c r="C113" t="n">
-        <v>0.2006048678039951</v>
+        <v>3.225745738470576e-06</v>
       </c>
       <c r="D113" t="n">
-        <v>0.02823610893046757</v>
+        <v>0.0002537801439730696</v>
       </c>
       <c r="E113" t="n">
-        <v>0.004322504795272986</v>
+        <v>3.488024886659767e-06</v>
       </c>
       <c r="F113" t="n">
-        <v>9.098664053230145e-08</v>
+        <v>8.23351865154625e-12</v>
       </c>
       <c r="G113" t="n">
-        <v>0.1915407146358299</v>
+        <v>0.0001317574945849099</v>
       </c>
       <c r="H113" t="n">
-        <v>0.005227962777407686</v>
+        <v>0.008349010027841641</v>
       </c>
       <c r="I113" t="n">
-        <v>2.061342468337927e-13</v>
+        <v>2.220389381766353e-14</v>
       </c>
       <c r="J113" t="n">
-        <v>0.01996351102870362</v>
+        <v>9.123410341631249e-07</v>
       </c>
       <c r="K113" t="n">
-        <v>3.341723696030841e-05</v>
+        <v>1.936938199723345e-09</v>
       </c>
       <c r="L113" t="n">
-        <v>0.005918426707872184</v>
+        <v>0.0006964026652133488</v>
       </c>
       <c r="M113" t="n">
-        <v>0.0229644224415606</v>
+        <v>0.01038196787980531</v>
       </c>
       <c r="N113" t="n">
-        <v>0.4633082691862007</v>
+        <v>4.063399660712558e-13</v>
       </c>
       <c r="O113" t="n">
-        <v>0.05334595144593454</v>
+        <v>3.050330931473042e-05</v>
       </c>
       <c r="P113" t="n">
-        <v>0.4633082691862007</v>
+        <v>0.9801489504220074</v>
       </c>
       <c r="Q113" t="inlineStr">
         <is>
-          <t>f__UBA11471</t>
+          <t>f__Bacteroidaceae</t>
         </is>
       </c>
       <c r="R113" t="inlineStr">
         <is>
-          <t>f__UBA11471(reject)</t>
+          <t>f__Bacteroidaceae</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT4651.fa</t>
+          <t>even_MAG-GUT47205.fa</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>0.9801489504220074</v>
+        <v>0.003100855085498606</v>
       </c>
       <c r="C114" t="n">
-        <v>3.225745738470576e-06</v>
+        <v>0.08413165945466106</v>
       </c>
       <c r="D114" t="n">
-        <v>0.0002537801439730696</v>
+        <v>0.06015682137565392</v>
       </c>
       <c r="E114" t="n">
-        <v>3.488024886659767e-06</v>
+        <v>0.03456854441925291</v>
       </c>
       <c r="F114" t="n">
-        <v>8.23351865154625e-12</v>
+        <v>3.661337678332223e-08</v>
       </c>
       <c r="G114" t="n">
-        <v>0.0001317574945849099</v>
+        <v>0.07207243895920835</v>
       </c>
       <c r="H114" t="n">
-        <v>0.008349010027841641</v>
+        <v>0.0031167229741012</v>
       </c>
       <c r="I114" t="n">
-        <v>2.220389381766353e-14</v>
+        <v>1.492577947345043e-13</v>
       </c>
       <c r="J114" t="n">
-        <v>9.123410341631249e-07</v>
+        <v>0.004094963178801155</v>
       </c>
       <c r="K114" t="n">
-        <v>1.936938199723345e-09</v>
+        <v>1.124168805905336e-05</v>
       </c>
       <c r="L114" t="n">
-        <v>0.0006964026652133488</v>
+        <v>0.002249515780305788</v>
       </c>
       <c r="M114" t="n">
-        <v>0.01038196787980531</v>
+        <v>0.007202393558671016</v>
       </c>
       <c r="N114" t="n">
-        <v>4.063399660712558e-13</v>
+        <v>0.6457185691586226</v>
       </c>
       <c r="O114" t="n">
-        <v>3.050330931473042e-05</v>
+        <v>0.08357623775363843</v>
       </c>
       <c r="P114" t="n">
-        <v>0.9801489504220074</v>
+        <v>0.6457185691586226</v>
       </c>
       <c r="Q114" t="inlineStr">
         <is>
-          <t>f__Bacteroidaceae</t>
+          <t>f__UBA11471</t>
         </is>
       </c>
       <c r="R114" t="inlineStr">
         <is>
-          <t>f__Bacteroidaceae</t>
+          <t>f__UBA11471</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT47205.fa</t>
+          <t>even_MAG-GUT47800.fa</t>
         </is>
       </c>
       <c r="B115" t="n">
-        <v>0.003100855085498606</v>
+        <v>0.05504978212597635</v>
       </c>
       <c r="C115" t="n">
-        <v>0.08413165945466106</v>
+        <v>0.199649828636652</v>
       </c>
       <c r="D115" t="n">
-        <v>0.06015682137565392</v>
+        <v>0.03315469550002306</v>
       </c>
       <c r="E115" t="n">
-        <v>0.03456854441925291</v>
+        <v>0.08395146155022501</v>
       </c>
       <c r="F115" t="n">
-        <v>3.661337678332223e-08</v>
+        <v>9.831995262825933e-09</v>
       </c>
       <c r="G115" t="n">
-        <v>0.07207243895920835</v>
+        <v>0.1727390757055636</v>
       </c>
       <c r="H115" t="n">
-        <v>0.0031167229741012</v>
+        <v>0.01755232685957996</v>
       </c>
       <c r="I115" t="n">
-        <v>1.492577947345043e-13</v>
+        <v>1.389268025375715e-12</v>
       </c>
       <c r="J115" t="n">
-        <v>0.004094963178801155</v>
+        <v>0.02028523489017814</v>
       </c>
       <c r="K115" t="n">
-        <v>1.124168805905336e-05</v>
+        <v>0.0004896522000416829</v>
       </c>
       <c r="L115" t="n">
-        <v>0.002249515780305788</v>
+        <v>0.04867044897475964</v>
       </c>
       <c r="M115" t="n">
-        <v>0.007202393558671016</v>
+        <v>0.07828861775648227</v>
       </c>
       <c r="N115" t="n">
-        <v>0.6457185691586226</v>
+        <v>0.1459439720554428</v>
       </c>
       <c r="O115" t="n">
-        <v>0.08357623775363843</v>
+        <v>0.144224893911691</v>
       </c>
       <c r="P115" t="n">
-        <v>0.6457185691586226</v>
+        <v>0.199649828636652</v>
       </c>
       <c r="Q115" t="inlineStr">
         <is>
-          <t>f__UBA11471</t>
+          <t>f__Barnesiellaceae</t>
         </is>
       </c>
       <c r="R115" t="inlineStr">
         <is>
-          <t>f__UBA11471</t>
+          <t>f__Barnesiellaceae(reject)</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT47330.fa</t>
+          <t>even_MAG-GUT48077.fa</t>
         </is>
       </c>
       <c r="B116" t="n">
-        <v>0.2772310298117646</v>
+        <v>0.1286986102765964</v>
       </c>
       <c r="C116" t="n">
-        <v>2.586812826461237e-06</v>
+        <v>0.1901447384543092</v>
       </c>
       <c r="D116" t="n">
-        <v>2.500300821623472e-06</v>
+        <v>0.007634331975320622</v>
       </c>
       <c r="E116" t="n">
-        <v>6.143921442309955e-10</v>
+        <v>0.001472621479346558</v>
       </c>
       <c r="F116" t="n">
-        <v>3.090923514440761e-11</v>
+        <v>5.184771476657611e-09</v>
       </c>
       <c r="G116" t="n">
-        <v>2.708247096820548e-07</v>
+        <v>0.2448530628013872</v>
       </c>
       <c r="H116" t="n">
-        <v>0.1448519965260321</v>
+        <v>0.07034786660874681</v>
       </c>
       <c r="I116" t="n">
-        <v>1.288784141295266e-13</v>
+        <v>1.346330521096783e-12</v>
       </c>
       <c r="J116" t="n">
-        <v>4.603712135946334e-12</v>
+        <v>0.001619334381484269</v>
       </c>
       <c r="K116" t="n">
-        <v>1.514501273804136e-10</v>
+        <v>0.001939430350247288</v>
       </c>
       <c r="L116" t="n">
-        <v>0.574229359431628</v>
+        <v>0.1492797550928869</v>
       </c>
       <c r="M116" t="n">
-        <v>5.437751179728048e-05</v>
+        <v>0.1832194053843939</v>
       </c>
       <c r="N116" t="n">
-        <v>2.580467548361718e-11</v>
+        <v>2.895596585662647e-05</v>
       </c>
       <c r="O116" t="n">
-        <v>0.003627877953131329</v>
+        <v>0.0207618820433065</v>
       </c>
       <c r="P116" t="n">
-        <v>0.574229359431628</v>
+        <v>0.2448530628013872</v>
       </c>
       <c r="Q116" t="inlineStr">
         <is>
-          <t>f__Rikenellaceae</t>
+          <t>f__Marinifilaceae</t>
         </is>
       </c>
       <c r="R116" t="inlineStr">
         <is>
-          <t>f__Rikenellaceae(reject)</t>
+          <t>f__Marinifilaceae(reject)</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT47800.fa</t>
+          <t>even_MAG-GUT48276.fa</t>
         </is>
       </c>
       <c r="B117" t="n">
-        <v>0.05504978212597635</v>
+        <v>0.0003693503310053741</v>
       </c>
       <c r="C117" t="n">
-        <v>0.199649828636652</v>
+        <v>0.01794962088004073</v>
       </c>
       <c r="D117" t="n">
-        <v>0.03315469550002306</v>
+        <v>0.0006851945018126857</v>
       </c>
       <c r="E117" t="n">
-        <v>0.08395146155022501</v>
+        <v>0.000187827970399947</v>
       </c>
       <c r="F117" t="n">
-        <v>9.831995262825933e-09</v>
+        <v>2.417032468835182e-09</v>
       </c>
       <c r="G117" t="n">
-        <v>0.1727390757055636</v>
+        <v>0.06162376190874837</v>
       </c>
       <c r="H117" t="n">
-        <v>0.01755232685957996</v>
+        <v>3.044162615482143e-05</v>
       </c>
       <c r="I117" t="n">
-        <v>1.389268025375715e-12</v>
+        <v>2.220839278033892e-14</v>
       </c>
       <c r="J117" t="n">
-        <v>0.02028523489017814</v>
+        <v>0.0005240794924106891</v>
       </c>
       <c r="K117" t="n">
-        <v>0.0004896522000416829</v>
+        <v>2.480041204461e-06</v>
       </c>
       <c r="L117" t="n">
-        <v>0.04867044897475964</v>
+        <v>0.0003823275442555014</v>
       </c>
       <c r="M117" t="n">
-        <v>0.07828861775648227</v>
+        <v>0.0003488357107867795</v>
       </c>
       <c r="N117" t="n">
-        <v>0.1459439720554428</v>
+        <v>0.9170244378100203</v>
       </c>
       <c r="O117" t="n">
-        <v>0.144224893911691</v>
+        <v>0.0008716397661056753</v>
       </c>
       <c r="P117" t="n">
-        <v>0.199649828636652</v>
+        <v>0.9170244378100203</v>
       </c>
       <c r="Q117" t="inlineStr">
         <is>
-          <t>f__Barnesiellaceae</t>
+          <t>f__UBA11471</t>
         </is>
       </c>
       <c r="R117" t="inlineStr">
         <is>
-          <t>f__Barnesiellaceae(reject)</t>
+          <t>f__UBA11471</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT48077.fa</t>
+          <t>even_MAG-GUT4969.fa</t>
         </is>
       </c>
       <c r="B118" t="n">
-        <v>0.1286986102765964</v>
+        <v>0.0005444424370027688</v>
       </c>
       <c r="C118" t="n">
-        <v>0.1901447384543092</v>
+        <v>0.02375856661541155</v>
       </c>
       <c r="D118" t="n">
-        <v>0.007634331975320622</v>
+        <v>0.0001831305451355199</v>
       </c>
       <c r="E118" t="n">
-        <v>0.001472621479346558</v>
+        <v>0.0003141382278965944</v>
       </c>
       <c r="F118" t="n">
-        <v>5.184771476657611e-09</v>
+        <v>1.681426672274742e-09</v>
       </c>
       <c r="G118" t="n">
-        <v>0.2448530628013872</v>
+        <v>0.004352781707217135</v>
       </c>
       <c r="H118" t="n">
-        <v>0.07034786660874681</v>
+        <v>0.000116216295787861</v>
       </c>
       <c r="I118" t="n">
-        <v>1.346330521096783e-12</v>
+        <v>2.220234897147106e-14</v>
       </c>
       <c r="J118" t="n">
-        <v>0.001619334381484269</v>
+        <v>1.906716790154797e-05</v>
       </c>
       <c r="K118" t="n">
-        <v>0.001939430350247288</v>
+        <v>5.406430567326369e-06</v>
       </c>
       <c r="L118" t="n">
-        <v>0.1492797550928869</v>
+        <v>0.0006684265725484091</v>
       </c>
       <c r="M118" t="n">
-        <v>0.1832194053843939</v>
+        <v>0.0002780673022355703</v>
       </c>
       <c r="N118" t="n">
-        <v>2.895596585662647e-05</v>
+        <v>0.9697441202376684</v>
       </c>
       <c r="O118" t="n">
-        <v>0.0207618820433065</v>
+        <v>1.563477917845962e-05</v>
       </c>
       <c r="P118" t="n">
-        <v>0.2448530628013872</v>
+        <v>0.9697441202376684</v>
       </c>
       <c r="Q118" t="inlineStr">
         <is>
-          <t>f__Marinifilaceae</t>
+          <t>f__UBA11471</t>
         </is>
       </c>
       <c r="R118" t="inlineStr">
         <is>
-          <t>f__Marinifilaceae(reject)</t>
+          <t>f__UBA11471</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT48276.fa</t>
+          <t>even_MAG-GUT4979.fa</t>
         </is>
       </c>
       <c r="B119" t="n">
-        <v>0.0003693503310053741</v>
+        <v>0.001051491622864239</v>
       </c>
       <c r="C119" t="n">
-        <v>0.01794962088004073</v>
+        <v>7.797522917533454e-07</v>
       </c>
       <c r="D119" t="n">
-        <v>0.0006851945018126857</v>
+        <v>3.093585067025304e-12</v>
       </c>
       <c r="E119" t="n">
-        <v>0.000187827970399947</v>
+        <v>6.516924466226853e-13</v>
       </c>
       <c r="F119" t="n">
-        <v>2.417032468835182e-09</v>
+        <v>2.220279636727002e-14</v>
       </c>
       <c r="G119" t="n">
-        <v>0.06162376190874837</v>
+        <v>2.220279636727002e-14</v>
       </c>
       <c r="H119" t="n">
-        <v>3.044162615482143e-05</v>
+        <v>1.894073650279654e-07</v>
       </c>
       <c r="I119" t="n">
-        <v>2.220839278033892e-14</v>
+        <v>2.220279636727002e-14</v>
       </c>
       <c r="J119" t="n">
-        <v>0.0005240794924106891</v>
+        <v>2.220279636727002e-14</v>
       </c>
       <c r="K119" t="n">
-        <v>2.480041204461e-06</v>
+        <v>2.220279636727002e-14</v>
       </c>
       <c r="L119" t="n">
-        <v>0.0003823275442555014</v>
+        <v>0.998947505056338</v>
       </c>
       <c r="M119" t="n">
-        <v>0.0003488357107867795</v>
+        <v>9.131575241166735e-12</v>
       </c>
       <c r="N119" t="n">
-        <v>0.9170244378100203</v>
+        <v>3.397817706627399e-08</v>
       </c>
       <c r="O119" t="n">
-        <v>0.0008716397661056753</v>
+        <v>1.699760560475083e-10</v>
       </c>
       <c r="P119" t="n">
-        <v>0.9170244378100203</v>
+        <v>0.998947505056338</v>
       </c>
       <c r="Q119" t="inlineStr">
         <is>
-          <t>f__UBA11471</t>
+          <t>f__Rikenellaceae</t>
         </is>
       </c>
       <c r="R119" t="inlineStr">
         <is>
-          <t>f__UBA11471</t>
+          <t>f__Rikenellaceae</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT4969.fa</t>
+          <t>even_MAG-GUT50478.fa</t>
         </is>
       </c>
       <c r="B120" t="n">
-        <v>0.0005444424370027688</v>
+        <v>0.003526661455699067</v>
       </c>
       <c r="C120" t="n">
-        <v>0.02375856661541155</v>
+        <v>5.677930038267424e-07</v>
       </c>
       <c r="D120" t="n">
-        <v>0.0001831305451355199</v>
+        <v>7.268809982752647e-05</v>
       </c>
       <c r="E120" t="n">
-        <v>0.0003141382278965944</v>
+        <v>1.884433971091385e-10</v>
       </c>
       <c r="F120" t="n">
-        <v>1.681426672274742e-09</v>
+        <v>9.120877982509266e-09</v>
       </c>
       <c r="G120" t="n">
-        <v>0.004352781707217135</v>
+        <v>5.271452368946696e-05</v>
       </c>
       <c r="H120" t="n">
-        <v>0.000116216295787861</v>
+        <v>0.0008940936888737527</v>
       </c>
       <c r="I120" t="n">
-        <v>2.220234897147106e-14</v>
+        <v>2.220110771966223e-14</v>
       </c>
       <c r="J120" t="n">
-        <v>1.906716790154797e-05</v>
+        <v>3.876942526189346e-09</v>
       </c>
       <c r="K120" t="n">
-        <v>5.406430567326369e-06</v>
+        <v>3.012427157780826e-11</v>
       </c>
       <c r="L120" t="n">
-        <v>0.0006684265725484091</v>
+        <v>6.090679647855943e-08</v>
       </c>
       <c r="M120" t="n">
-        <v>0.0002780673022355703</v>
+        <v>0.0001000515777467461</v>
       </c>
       <c r="N120" t="n">
-        <v>0.9697441202376684</v>
+        <v>2.220110771966223e-14</v>
       </c>
       <c r="O120" t="n">
-        <v>1.563477917845962e-05</v>
+        <v>0.9953531487379306</v>
       </c>
       <c r="P120" t="n">
-        <v>0.9697441202376684</v>
+        <v>0.9953531487379306</v>
       </c>
       <c r="Q120" t="inlineStr">
         <is>
-          <t>f__UBA11471</t>
+          <t>f__UBA932</t>
         </is>
       </c>
       <c r="R120" t="inlineStr">
         <is>
-          <t>f__UBA11471</t>
+          <t>f__UBA932</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT4979.fa</t>
+          <t>even_MAG-GUT50483.fa</t>
         </is>
       </c>
       <c r="B121" t="n">
-        <v>0.001051491622864239</v>
+        <v>0.9885479777980229</v>
       </c>
       <c r="C121" t="n">
-        <v>7.797522917533454e-07</v>
+        <v>0.0002011422442832695</v>
       </c>
       <c r="D121" t="n">
-        <v>3.093585067025304e-12</v>
+        <v>0.005272301331912395</v>
       </c>
       <c r="E121" t="n">
-        <v>6.516924466226853e-13</v>
+        <v>2.012836075148246e-05</v>
       </c>
       <c r="F121" t="n">
-        <v>2.220279636727002e-14</v>
+        <v>1.098744349571446e-10</v>
       </c>
       <c r="G121" t="n">
-        <v>2.220279636727002e-14</v>
+        <v>5.600901376444142e-06</v>
       </c>
       <c r="H121" t="n">
-        <v>1.894073650279654e-07</v>
+        <v>0.0002816918730963262</v>
       </c>
       <c r="I121" t="n">
-        <v>2.220279636727002e-14</v>
+        <v>2.220288652973225e-14</v>
       </c>
       <c r="J121" t="n">
-        <v>2.220279636727002e-14</v>
+        <v>0.0005285163896337555</v>
       </c>
       <c r="K121" t="n">
-        <v>2.220279636727002e-14</v>
+        <v>2.163672349762979e-08</v>
       </c>
       <c r="L121" t="n">
-        <v>0.998947505056338</v>
+        <v>0.000374169225440387</v>
       </c>
       <c r="M121" t="n">
-        <v>9.131575241166735e-12</v>
+        <v>0.00474297674503993</v>
       </c>
       <c r="N121" t="n">
-        <v>3.397817706627399e-08</v>
+        <v>2.220288652973225e-14</v>
       </c>
       <c r="O121" t="n">
-        <v>1.699760560475083e-10</v>
+        <v>2.547338380084303e-05</v>
       </c>
       <c r="P121" t="n">
-        <v>0.998947505056338</v>
+        <v>0.9885479777980229</v>
       </c>
       <c r="Q121" t="inlineStr">
         <is>
-          <t>f__Rikenellaceae</t>
+          <t>f__Bacteroidaceae</t>
         </is>
       </c>
       <c r="R121" t="inlineStr">
         <is>
-          <t>f__Rikenellaceae</t>
+          <t>f__Bacteroidaceae</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT50478.fa</t>
+          <t>even_MAG-GUT50508.fa</t>
         </is>
       </c>
       <c r="B122" t="n">
-        <v>0.003526661455699067</v>
+        <v>0.005921168283121575</v>
       </c>
       <c r="C122" t="n">
-        <v>5.677930038267424e-07</v>
+        <v>3.365609052395015e-07</v>
       </c>
       <c r="D122" t="n">
-        <v>7.268809982752647e-05</v>
+        <v>0.0001062371817585444</v>
       </c>
       <c r="E122" t="n">
-        <v>1.884433971091385e-10</v>
+        <v>2.198989506916222e-10</v>
       </c>
       <c r="F122" t="n">
-        <v>9.120877982509266e-09</v>
+        <v>7.272076301414765e-10</v>
       </c>
       <c r="G122" t="n">
-        <v>5.271452368946696e-05</v>
+        <v>0.0001060735852404116</v>
       </c>
       <c r="H122" t="n">
-        <v>0.0008940936888737527</v>
+        <v>0.002157355865967356</v>
       </c>
       <c r="I122" t="n">
-        <v>2.220110771966223e-14</v>
+        <v>2.220213646270706e-14</v>
       </c>
       <c r="J122" t="n">
-        <v>3.876942526189346e-09</v>
+        <v>8.486812710471893e-09</v>
       </c>
       <c r="K122" t="n">
-        <v>3.012427157780826e-11</v>
+        <v>4.094857756189265e-11</v>
       </c>
       <c r="L122" t="n">
-        <v>6.090679647855943e-08</v>
+        <v>2.162922507375523e-07</v>
       </c>
       <c r="M122" t="n">
-        <v>0.0001000515777467461</v>
+        <v>1.903847641215147e-05</v>
       </c>
       <c r="N122" t="n">
-        <v>2.220110771966223e-14</v>
+        <v>2.220213646270706e-14</v>
       </c>
       <c r="O122" t="n">
-        <v>0.9953531487379306</v>
+        <v>0.9916895642794317</v>
       </c>
       <c r="P122" t="n">
-        <v>0.9953531487379306</v>
+        <v>0.9916895642794317</v>
       </c>
       <c r="Q122" t="inlineStr">
         <is>
@@ -8031,53 +8031,53 @@
     <row r="123">
       <c r="A123" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT50483.fa</t>
+          <t>even_MAG-GUT51557.fa</t>
         </is>
       </c>
       <c r="B123" t="n">
-        <v>0.9885479777980229</v>
+        <v>0.996530521120278</v>
       </c>
       <c r="C123" t="n">
-        <v>0.0002011422442832695</v>
+        <v>3.422208882469009e-05</v>
       </c>
       <c r="D123" t="n">
-        <v>0.005272301331912395</v>
+        <v>9.362579082016628e-06</v>
       </c>
       <c r="E123" t="n">
-        <v>2.012836075148246e-05</v>
+        <v>1.542022563022662e-09</v>
       </c>
       <c r="F123" t="n">
-        <v>1.098744349571446e-10</v>
+        <v>1.620110600098633e-12</v>
       </c>
       <c r="G123" t="n">
-        <v>5.600901376444142e-06</v>
+        <v>0.0003100028098642883</v>
       </c>
       <c r="H123" t="n">
-        <v>0.0002816918730963262</v>
+        <v>0.0002531057831484755</v>
       </c>
       <c r="I123" t="n">
-        <v>2.220288652973225e-14</v>
+        <v>3.077412075028825e-14</v>
       </c>
       <c r="J123" t="n">
-        <v>0.0005285163896337555</v>
+        <v>2.926290312841948e-08</v>
       </c>
       <c r="K123" t="n">
-        <v>2.163672349762979e-08</v>
+        <v>8.18585033769353e-05</v>
       </c>
       <c r="L123" t="n">
-        <v>0.000374169225440387</v>
+        <v>0.0005262921688558756</v>
       </c>
       <c r="M123" t="n">
-        <v>0.00474297674503993</v>
+        <v>0.001244521369173264</v>
       </c>
       <c r="N123" t="n">
-        <v>2.220288652973225e-14</v>
+        <v>3.077412075028823e-14</v>
       </c>
       <c r="O123" t="n">
-        <v>2.547338380084303e-05</v>
+        <v>0.001010082770789017</v>
       </c>
       <c r="P123" t="n">
-        <v>0.9885479777980229</v>
+        <v>0.996530521120278</v>
       </c>
       <c r="Q123" t="inlineStr">
         <is>
@@ -8093,115 +8093,115 @@
     <row r="124">
       <c r="A124" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT50508.fa</t>
+          <t>even_MAG-GUT51559.fa</t>
         </is>
       </c>
       <c r="B124" t="n">
-        <v>0.005921168283121575</v>
+        <v>0.9971177882234957</v>
       </c>
       <c r="C124" t="n">
-        <v>3.365609052395015e-07</v>
+        <v>1.628202118179854e-05</v>
       </c>
       <c r="D124" t="n">
-        <v>0.0001062371817585444</v>
+        <v>3.908100452104849e-06</v>
       </c>
       <c r="E124" t="n">
-        <v>2.198989506916222e-10</v>
+        <v>1.581466274153625e-09</v>
       </c>
       <c r="F124" t="n">
-        <v>7.272076301414765e-10</v>
+        <v>4.693736751966923e-13</v>
       </c>
       <c r="G124" t="n">
-        <v>0.0001060735852404116</v>
+        <v>0.001176995086049301</v>
       </c>
       <c r="H124" t="n">
-        <v>0.002157355865967356</v>
+        <v>0.0003005915550088818</v>
       </c>
       <c r="I124" t="n">
-        <v>2.220213646270706e-14</v>
+        <v>2.22573658547719e-14</v>
       </c>
       <c r="J124" t="n">
-        <v>8.486812710471893e-09</v>
+        <v>7.100412992360445e-07</v>
       </c>
       <c r="K124" t="n">
-        <v>4.094857756189265e-11</v>
+        <v>0.0003186094206691222</v>
       </c>
       <c r="L124" t="n">
-        <v>2.162922507375523e-07</v>
+        <v>0.0005685619292762391</v>
       </c>
       <c r="M124" t="n">
-        <v>1.903847641215147e-05</v>
+        <v>9.22257490341366e-05</v>
       </c>
       <c r="N124" t="n">
-        <v>2.220213646270706e-14</v>
+        <v>2.22573658547719e-14</v>
       </c>
       <c r="O124" t="n">
-        <v>0.9916895642794317</v>
+        <v>0.0004043262915533691</v>
       </c>
       <c r="P124" t="n">
-        <v>0.9916895642794317</v>
+        <v>0.9971177882234957</v>
       </c>
       <c r="Q124" t="inlineStr">
         <is>
-          <t>f__UBA932</t>
+          <t>f__Bacteroidaceae</t>
         </is>
       </c>
       <c r="R124" t="inlineStr">
         <is>
-          <t>f__UBA932</t>
+          <t>f__Bacteroidaceae</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT51557.fa</t>
+          <t>even_MAG-GUT5249.fa</t>
         </is>
       </c>
       <c r="B125" t="n">
-        <v>0.996530521120278</v>
+        <v>0.99502681110822</v>
       </c>
       <c r="C125" t="n">
-        <v>3.422208882469009e-05</v>
+        <v>0.0002068914179313411</v>
       </c>
       <c r="D125" t="n">
-        <v>9.362579082016628e-06</v>
+        <v>4.799872176502506e-07</v>
       </c>
       <c r="E125" t="n">
-        <v>1.542022563022662e-09</v>
+        <v>3.797625448904046e-08</v>
       </c>
       <c r="F125" t="n">
-        <v>1.620110600098633e-12</v>
+        <v>2.346573509982701e-11</v>
       </c>
       <c r="G125" t="n">
-        <v>0.0003100028098642883</v>
+        <v>5.44146337019374e-05</v>
       </c>
       <c r="H125" t="n">
-        <v>0.0002531057831484755</v>
+        <v>0.002294450215126309</v>
       </c>
       <c r="I125" t="n">
-        <v>3.077412075028825e-14</v>
+        <v>3.48820164852816e-14</v>
       </c>
       <c r="J125" t="n">
-        <v>2.926290312841948e-08</v>
+        <v>2.017795355777371e-08</v>
       </c>
       <c r="K125" t="n">
-        <v>8.18585033769353e-05</v>
+        <v>3.445089519435189e-07</v>
       </c>
       <c r="L125" t="n">
-        <v>0.0005262921688558756</v>
+        <v>0.002379893994607</v>
       </c>
       <c r="M125" t="n">
-        <v>0.001244521369173264</v>
+        <v>2.77040984834307e-05</v>
       </c>
       <c r="N125" t="n">
-        <v>3.077412075028823e-14</v>
+        <v>3.488201648528148e-14</v>
       </c>
       <c r="O125" t="n">
-        <v>0.001010082770789017</v>
+        <v>8.951858016849782e-06</v>
       </c>
       <c r="P125" t="n">
-        <v>0.996530521120278</v>
+        <v>0.99502681110822</v>
       </c>
       <c r="Q125" t="inlineStr">
         <is>
@@ -8217,115 +8217,115 @@
     <row r="126">
       <c r="A126" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT51559.fa</t>
+          <t>even_MAG-GUT52992.fa</t>
         </is>
       </c>
       <c r="B126" t="n">
-        <v>0.9971177882234957</v>
+        <v>0.01023946129845529</v>
       </c>
       <c r="C126" t="n">
-        <v>1.628202118179854e-05</v>
+        <v>2.459163689836838e-07</v>
       </c>
       <c r="D126" t="n">
-        <v>3.908100452104849e-06</v>
+        <v>0.0001188979527126637</v>
       </c>
       <c r="E126" t="n">
-        <v>1.581466274153625e-09</v>
+        <v>3.266387550861527e-10</v>
       </c>
       <c r="F126" t="n">
-        <v>4.693736751966923e-13</v>
+        <v>8.699142628551745e-09</v>
       </c>
       <c r="G126" t="n">
-        <v>0.001176995086049301</v>
+        <v>8.431147458942989e-05</v>
       </c>
       <c r="H126" t="n">
-        <v>0.0003005915550088818</v>
+        <v>0.0007906412574319258</v>
       </c>
       <c r="I126" t="n">
-        <v>2.22573658547719e-14</v>
+        <v>2.220091978440413e-14</v>
       </c>
       <c r="J126" t="n">
-        <v>7.100412992360445e-07</v>
+        <v>5.865319213371125e-09</v>
       </c>
       <c r="K126" t="n">
-        <v>0.0003186094206691222</v>
+        <v>3.001694261678094e-11</v>
       </c>
       <c r="L126" t="n">
-        <v>0.0005685619292762391</v>
+        <v>4.757200596238789e-08</v>
       </c>
       <c r="M126" t="n">
-        <v>9.22257490341366e-05</v>
+        <v>6.923152184525101e-06</v>
       </c>
       <c r="N126" t="n">
-        <v>2.22573658547719e-14</v>
+        <v>2.220091978440413e-14</v>
       </c>
       <c r="O126" t="n">
-        <v>0.0004043262915533691</v>
+        <v>0.9887594564550893</v>
       </c>
       <c r="P126" t="n">
-        <v>0.9971177882234957</v>
+        <v>0.9887594564550893</v>
       </c>
       <c r="Q126" t="inlineStr">
         <is>
-          <t>f__Bacteroidaceae</t>
+          <t>f__UBA932</t>
         </is>
       </c>
       <c r="R126" t="inlineStr">
         <is>
-          <t>f__Bacteroidaceae</t>
+          <t>f__UBA932</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT5249.fa</t>
+          <t>even_MAG-GUT53689.fa</t>
         </is>
       </c>
       <c r="B127" t="n">
-        <v>0.99502681110822</v>
+        <v>0.9890100685389255</v>
       </c>
       <c r="C127" t="n">
-        <v>0.0002068914179313411</v>
+        <v>0.003723720824760047</v>
       </c>
       <c r="D127" t="n">
-        <v>4.799872176502506e-07</v>
+        <v>0.002124516407247641</v>
       </c>
       <c r="E127" t="n">
-        <v>3.797625448904046e-08</v>
+        <v>3.336470975842353e-05</v>
       </c>
       <c r="F127" t="n">
-        <v>2.346573509982701e-11</v>
+        <v>1.32458370542207e-13</v>
       </c>
       <c r="G127" t="n">
-        <v>5.44146337019374e-05</v>
+        <v>6.762299638599645e-06</v>
       </c>
       <c r="H127" t="n">
-        <v>0.002294450215126309</v>
+        <v>0.0002968298604120058</v>
       </c>
       <c r="I127" t="n">
-        <v>3.48820164852816e-14</v>
+        <v>2.22022424585035e-14</v>
       </c>
       <c r="J127" t="n">
-        <v>2.017795355777371e-08</v>
+        <v>0.001805400911422752</v>
       </c>
       <c r="K127" t="n">
-        <v>3.445089519435189e-07</v>
+        <v>1.663925496757294e-07</v>
       </c>
       <c r="L127" t="n">
-        <v>0.002379893994607</v>
+        <v>0.0001479642499634512</v>
       </c>
       <c r="M127" t="n">
-        <v>2.77040984834307e-05</v>
+        <v>0.00281674223271307</v>
       </c>
       <c r="N127" t="n">
-        <v>3.488201648528148e-14</v>
+        <v>2.22022424585035e-14</v>
       </c>
       <c r="O127" t="n">
-        <v>8.951858016849782e-06</v>
+        <v>3.446357243207041e-05</v>
       </c>
       <c r="P127" t="n">
-        <v>0.99502681110822</v>
+        <v>0.9890100685389255</v>
       </c>
       <c r="Q127" t="inlineStr">
         <is>
@@ -8341,53 +8341,53 @@
     <row r="128">
       <c r="A128" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT52992.fa</t>
+          <t>even_MAG-GUT5375.fa</t>
         </is>
       </c>
       <c r="B128" t="n">
-        <v>0.01023946129845529</v>
+        <v>0.01931946048981004</v>
       </c>
       <c r="C128" t="n">
-        <v>2.459163689836838e-07</v>
+        <v>1.572428086498257e-07</v>
       </c>
       <c r="D128" t="n">
-        <v>0.0001188979527126637</v>
+        <v>3.265517221926329e-05</v>
       </c>
       <c r="E128" t="n">
-        <v>3.266387550861527e-10</v>
+        <v>2.604918443765735e-11</v>
       </c>
       <c r="F128" t="n">
-        <v>8.699142628551745e-09</v>
+        <v>4.874724527490419e-08</v>
       </c>
       <c r="G128" t="n">
-        <v>8.431147458942989e-05</v>
+        <v>1.592050289786173e-05</v>
       </c>
       <c r="H128" t="n">
-        <v>0.0007906412574319258</v>
+        <v>2.997512974908485e-05</v>
       </c>
       <c r="I128" t="n">
-        <v>2.220091978440413e-14</v>
+        <v>2.220009328170639e-14</v>
       </c>
       <c r="J128" t="n">
-        <v>5.865319213371125e-09</v>
+        <v>6.782489738618713e-10</v>
       </c>
       <c r="K128" t="n">
-        <v>3.001694261678094e-11</v>
+        <v>6.360953559887317e-12</v>
       </c>
       <c r="L128" t="n">
-        <v>4.757200596238789e-08</v>
+        <v>8.637338919381994e-08</v>
       </c>
       <c r="M128" t="n">
-        <v>6.923152184525101e-06</v>
+        <v>2.225366506410081e-05</v>
       </c>
       <c r="N128" t="n">
-        <v>2.220091978440413e-14</v>
+        <v>2.220009328170639e-14</v>
       </c>
       <c r="O128" t="n">
-        <v>0.9887594564550893</v>
+        <v>0.9805794419661129</v>
       </c>
       <c r="P128" t="n">
-        <v>0.9887594564550893</v>
+        <v>0.9805794419661129</v>
       </c>
       <c r="Q128" t="inlineStr">
         <is>
@@ -8403,53 +8403,53 @@
     <row r="129">
       <c r="A129" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT53689.fa</t>
+          <t>even_MAG-GUT54574.fa</t>
         </is>
       </c>
       <c r="B129" t="n">
-        <v>0.9890100685389255</v>
+        <v>0.9946053266027456</v>
       </c>
       <c r="C129" t="n">
-        <v>0.003723720824760047</v>
+        <v>1.185694260621678e-05</v>
       </c>
       <c r="D129" t="n">
-        <v>0.002124516407247641</v>
+        <v>0.0003281676628896058</v>
       </c>
       <c r="E129" t="n">
-        <v>3.336470975842353e-05</v>
+        <v>5.245821007738748e-08</v>
       </c>
       <c r="F129" t="n">
-        <v>1.32458370542207e-13</v>
+        <v>3.625301243638413e-13</v>
       </c>
       <c r="G129" t="n">
-        <v>6.762299638599645e-06</v>
+        <v>8.819948580109866e-05</v>
       </c>
       <c r="H129" t="n">
-        <v>0.0002968298604120058</v>
+        <v>0.00011456868069071</v>
       </c>
       <c r="I129" t="n">
-        <v>2.22022424585035e-14</v>
+        <v>2.220071052969946e-14</v>
       </c>
       <c r="J129" t="n">
-        <v>0.001805400911422752</v>
+        <v>1.212130981315128e-05</v>
       </c>
       <c r="K129" t="n">
-        <v>1.663925496757294e-07</v>
+        <v>3.17273677805977e-05</v>
       </c>
       <c r="L129" t="n">
-        <v>0.0001479642499634512</v>
+        <v>0.003259207884970392</v>
       </c>
       <c r="M129" t="n">
-        <v>0.00281674223271307</v>
+        <v>0.0006089680256299566</v>
       </c>
       <c r="N129" t="n">
-        <v>2.22022424585035e-14</v>
+        <v>2.220071052969946e-14</v>
       </c>
       <c r="O129" t="n">
-        <v>3.446357243207041e-05</v>
+        <v>0.0009398035784555676</v>
       </c>
       <c r="P129" t="n">
-        <v>0.9890100685389255</v>
+        <v>0.9946053266027456</v>
       </c>
       <c r="Q129" t="inlineStr">
         <is>
@@ -8465,115 +8465,115 @@
     <row r="130">
       <c r="A130" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT5375.fa</t>
+          <t>even_MAG-GUT54831.fa</t>
         </is>
       </c>
       <c r="B130" t="n">
-        <v>0.01931946048981004</v>
+        <v>0.2566139936971139</v>
       </c>
       <c r="C130" t="n">
-        <v>1.572428086498257e-07</v>
+        <v>0.01262131079545387</v>
       </c>
       <c r="D130" t="n">
-        <v>3.265517221926329e-05</v>
+        <v>0.0006758961975353145</v>
       </c>
       <c r="E130" t="n">
-        <v>2.604918443765735e-11</v>
+        <v>7.143239976640528e-08</v>
       </c>
       <c r="F130" t="n">
-        <v>4.874724527490419e-08</v>
+        <v>7.123590284301922e-10</v>
       </c>
       <c r="G130" t="n">
-        <v>1.592050289786173e-05</v>
+        <v>0.007633518963664486</v>
       </c>
       <c r="H130" t="n">
-        <v>2.997512974908485e-05</v>
+        <v>0.2493038131640007</v>
       </c>
       <c r="I130" t="n">
-        <v>2.220009328170639e-14</v>
+        <v>1.710381387363736e-12</v>
       </c>
       <c r="J130" t="n">
-        <v>6.782489738618713e-10</v>
+        <v>4.578615727217519e-09</v>
       </c>
       <c r="K130" t="n">
-        <v>6.360953559887317e-12</v>
+        <v>1.50404939906199e-07</v>
       </c>
       <c r="L130" t="n">
-        <v>8.637338919381994e-08</v>
+        <v>0.3434969105911773</v>
       </c>
       <c r="M130" t="n">
-        <v>2.225366506410081e-05</v>
+        <v>0.1293235134107928</v>
       </c>
       <c r="N130" t="n">
-        <v>2.220009328170639e-14</v>
+        <v>1.71038138736375e-12</v>
       </c>
       <c r="O130" t="n">
-        <v>0.9805794419661129</v>
+        <v>0.0003308160485264834</v>
       </c>
       <c r="P130" t="n">
-        <v>0.9805794419661129</v>
+        <v>0.3434969105911773</v>
       </c>
       <c r="Q130" t="inlineStr">
         <is>
-          <t>f__UBA932</t>
+          <t>f__Rikenellaceae</t>
         </is>
       </c>
       <c r="R130" t="inlineStr">
         <is>
-          <t>f__UBA932</t>
+          <t>f__Rikenellaceae(reject)</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT54574.fa</t>
+          <t>even_MAG-GUT55210.fa</t>
         </is>
       </c>
       <c r="B131" t="n">
-        <v>0.9946053266027456</v>
+        <v>0.9888378697783148</v>
       </c>
       <c r="C131" t="n">
-        <v>1.185694260621678e-05</v>
+        <v>0.007122677669766905</v>
       </c>
       <c r="D131" t="n">
-        <v>0.0003281676628896058</v>
+        <v>8.072579687920582e-06</v>
       </c>
       <c r="E131" t="n">
-        <v>5.245821007738748e-08</v>
+        <v>2.021145718339207e-07</v>
       </c>
       <c r="F131" t="n">
-        <v>3.625301243638413e-13</v>
+        <v>1.098890807520065e-10</v>
       </c>
       <c r="G131" t="n">
-        <v>8.819948580109866e-05</v>
+        <v>0.002411220727700427</v>
       </c>
       <c r="H131" t="n">
-        <v>0.00011456868069071</v>
+        <v>0.001073606475721117</v>
       </c>
       <c r="I131" t="n">
-        <v>2.220071052969946e-14</v>
+        <v>6.252699161754781e-14</v>
       </c>
       <c r="J131" t="n">
-        <v>1.212130981315128e-05</v>
+        <v>6.91439518952449e-05</v>
       </c>
       <c r="K131" t="n">
-        <v>3.17273677805977e-05</v>
+        <v>0.0002129469267239178</v>
       </c>
       <c r="L131" t="n">
-        <v>0.003259207884970392</v>
+        <v>0.0002012428010076297</v>
       </c>
       <c r="M131" t="n">
-        <v>0.0006089680256299566</v>
+        <v>5.444692448125873e-05</v>
       </c>
       <c r="N131" t="n">
-        <v>2.220071052969946e-14</v>
+        <v>6.252699161753645e-14</v>
       </c>
       <c r="O131" t="n">
-        <v>0.0009398035784555676</v>
+        <v>8.569940114556314e-06</v>
       </c>
       <c r="P131" t="n">
-        <v>0.9946053266027456</v>
+        <v>0.9888378697783148</v>
       </c>
       <c r="Q131" t="inlineStr">
         <is>
@@ -8589,487 +8589,487 @@
     <row r="132">
       <c r="A132" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT54831.fa</t>
+          <t>even_MAG-GUT55743.fa</t>
         </is>
       </c>
       <c r="B132" t="n">
-        <v>0.2566139936971139</v>
+        <v>0.01540224045724585</v>
       </c>
       <c r="C132" t="n">
-        <v>0.01262131079545387</v>
+        <v>0.001220485220695156</v>
       </c>
       <c r="D132" t="n">
-        <v>0.0006758961975353145</v>
+        <v>4.511878154538875e-05</v>
       </c>
       <c r="E132" t="n">
-        <v>7.143239976640528e-08</v>
+        <v>2.154422470775417e-09</v>
       </c>
       <c r="F132" t="n">
-        <v>7.123590284301922e-10</v>
+        <v>1.3501355060577e-09</v>
       </c>
       <c r="G132" t="n">
-        <v>0.007633518963664486</v>
+        <v>1.07397123025058e-05</v>
       </c>
       <c r="H132" t="n">
-        <v>0.2493038131640007</v>
+        <v>0.9831023563465208</v>
       </c>
       <c r="I132" t="n">
-        <v>1.710381387363736e-12</v>
+        <v>2.220104015396618e-14</v>
       </c>
       <c r="J132" t="n">
-        <v>4.578615727217519e-09</v>
+        <v>2.884897292434509e-07</v>
       </c>
       <c r="K132" t="n">
-        <v>1.50404939906199e-07</v>
+        <v>1.471372199087717e-10</v>
       </c>
       <c r="L132" t="n">
-        <v>0.3434969105911773</v>
+        <v>0.0001471996507169969</v>
       </c>
       <c r="M132" t="n">
-        <v>0.1293235134107928</v>
+        <v>2.544993416260766e-05</v>
       </c>
       <c r="N132" t="n">
-        <v>1.71038138736375e-12</v>
+        <v>2.220104015396618e-14</v>
       </c>
       <c r="O132" t="n">
-        <v>0.0003308160485264834</v>
+        <v>4.611775534186046e-05</v>
       </c>
       <c r="P132" t="n">
-        <v>0.3434969105911773</v>
+        <v>0.9831023563465208</v>
       </c>
       <c r="Q132" t="inlineStr">
         <is>
-          <t>f__Rikenellaceae</t>
+          <t>f__Muribaculaceae</t>
         </is>
       </c>
       <c r="R132" t="inlineStr">
         <is>
-          <t>f__Rikenellaceae(reject)</t>
+          <t>f__Muribaculaceae</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT55210.fa</t>
+          <t>even_MAG-GUT56345.fa</t>
         </is>
       </c>
       <c r="B133" t="n">
-        <v>0.9888378697783148</v>
+        <v>0.1810919713958804</v>
       </c>
       <c r="C133" t="n">
-        <v>0.007122677669766905</v>
+        <v>0.00403096079959253</v>
       </c>
       <c r="D133" t="n">
-        <v>8.072579687920582e-06</v>
+        <v>5.727359430046643e-05</v>
       </c>
       <c r="E133" t="n">
-        <v>2.021145718339207e-07</v>
+        <v>2.416428412038005e-09</v>
       </c>
       <c r="F133" t="n">
-        <v>1.098890807520065e-10</v>
+        <v>1.768442670460472e-10</v>
       </c>
       <c r="G133" t="n">
-        <v>0.002411220727700427</v>
+        <v>0.0006598962365997225</v>
       </c>
       <c r="H133" t="n">
-        <v>0.001073606475721117</v>
+        <v>0.1927744819124776</v>
       </c>
       <c r="I133" t="n">
-        <v>6.252699161754781e-14</v>
+        <v>9.34676161493136e-13</v>
       </c>
       <c r="J133" t="n">
-        <v>6.91439518952449e-05</v>
+        <v>4.236077161024584e-11</v>
       </c>
       <c r="K133" t="n">
-        <v>0.0002129469267239178</v>
+        <v>1.643993150347907e-09</v>
       </c>
       <c r="L133" t="n">
-        <v>0.0002012428010076297</v>
+        <v>0.5560806825868568</v>
       </c>
       <c r="M133" t="n">
-        <v>5.444692448125873e-05</v>
+        <v>0.06035297137110752</v>
       </c>
       <c r="N133" t="n">
-        <v>6.252699161753645e-14</v>
+        <v>9.34676161493136e-13</v>
       </c>
       <c r="O133" t="n">
-        <v>8.569940114556314e-06</v>
+        <v>0.004951757821688899</v>
       </c>
       <c r="P133" t="n">
-        <v>0.9888378697783148</v>
+        <v>0.5560806825868568</v>
       </c>
       <c r="Q133" t="inlineStr">
         <is>
-          <t>f__Bacteroidaceae</t>
+          <t>f__Rikenellaceae</t>
         </is>
       </c>
       <c r="R133" t="inlineStr">
         <is>
-          <t>f__Bacteroidaceae</t>
+          <t>f__Rikenellaceae(reject)</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT55743.fa</t>
+          <t>even_MAG-GUT56417.fa</t>
         </is>
       </c>
       <c r="B134" t="n">
-        <v>0.01540224045724585</v>
+        <v>0.03405928743316822</v>
       </c>
       <c r="C134" t="n">
-        <v>0.001220485220695156</v>
+        <v>0.2337610103452926</v>
       </c>
       <c r="D134" t="n">
-        <v>4.511878154538875e-05</v>
+        <v>0.02510205002567614</v>
       </c>
       <c r="E134" t="n">
-        <v>2.154422470775417e-09</v>
+        <v>0.008300720301910314</v>
       </c>
       <c r="F134" t="n">
-        <v>1.3501355060577e-09</v>
+        <v>2.557644154768306e-08</v>
       </c>
       <c r="G134" t="n">
-        <v>1.07397123025058e-05</v>
+        <v>0.2149392089550643</v>
       </c>
       <c r="H134" t="n">
-        <v>0.9831023563465208</v>
+        <v>0.007128684749175651</v>
       </c>
       <c r="I134" t="n">
-        <v>2.220104015396618e-14</v>
+        <v>1.153911282679804e-12</v>
       </c>
       <c r="J134" t="n">
-        <v>2.884897292434509e-07</v>
+        <v>0.09478855235323301</v>
       </c>
       <c r="K134" t="n">
-        <v>1.471372199087717e-10</v>
+        <v>0.001439836677252097</v>
       </c>
       <c r="L134" t="n">
-        <v>0.0001471996507169969</v>
+        <v>0.083258480772228</v>
       </c>
       <c r="M134" t="n">
-        <v>2.544993416260766e-05</v>
+        <v>0.05463575205092423</v>
       </c>
       <c r="N134" t="n">
-        <v>2.220104015396618e-14</v>
+        <v>0.1920204803189283</v>
       </c>
       <c r="O134" t="n">
-        <v>4.611775534186046e-05</v>
+        <v>0.05056591043955173</v>
       </c>
       <c r="P134" t="n">
-        <v>0.9831023563465208</v>
+        <v>0.2337610103452926</v>
       </c>
       <c r="Q134" t="inlineStr">
         <is>
-          <t>f__Muribaculaceae</t>
+          <t>f__Barnesiellaceae</t>
         </is>
       </c>
       <c r="R134" t="inlineStr">
         <is>
-          <t>f__Muribaculaceae</t>
+          <t>f__Barnesiellaceae(reject)</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT56345.fa</t>
+          <t>even_MAG-GUT57158.fa</t>
         </is>
       </c>
       <c r="B135" t="n">
-        <v>0.1810919713958804</v>
+        <v>9.697561177015381e-05</v>
       </c>
       <c r="C135" t="n">
-        <v>0.00403096079959253</v>
+        <v>0.02971674090877991</v>
       </c>
       <c r="D135" t="n">
-        <v>5.727359430046643e-05</v>
+        <v>0.0009327104392182221</v>
       </c>
       <c r="E135" t="n">
-        <v>2.416428412038005e-09</v>
+        <v>0.0001036139383333818</v>
       </c>
       <c r="F135" t="n">
-        <v>1.768442670460472e-10</v>
+        <v>4.513827969041241e-10</v>
       </c>
       <c r="G135" t="n">
-        <v>0.0006598962365997225</v>
+        <v>0.06797908178985296</v>
       </c>
       <c r="H135" t="n">
-        <v>0.1927744819124776</v>
+        <v>0.0002960469164219614</v>
       </c>
       <c r="I135" t="n">
-        <v>9.34676161493136e-13</v>
+        <v>2.222197111877106e-14</v>
       </c>
       <c r="J135" t="n">
-        <v>4.236077161024584e-11</v>
+        <v>0.0001110939169848326</v>
       </c>
       <c r="K135" t="n">
-        <v>1.643993150347907e-09</v>
+        <v>4.209268670885231e-06</v>
       </c>
       <c r="L135" t="n">
-        <v>0.5560806825868568</v>
+        <v>0.0002592589619830049</v>
       </c>
       <c r="M135" t="n">
-        <v>0.06035297137110752</v>
+        <v>0.0002770354824089489</v>
       </c>
       <c r="N135" t="n">
-        <v>9.34676161493136e-13</v>
+        <v>0.8998823535502687</v>
       </c>
       <c r="O135" t="n">
-        <v>0.004951757821688899</v>
+        <v>0.0003408787639019371</v>
       </c>
       <c r="P135" t="n">
-        <v>0.5560806825868568</v>
+        <v>0.8998823535502687</v>
       </c>
       <c r="Q135" t="inlineStr">
         <is>
-          <t>f__Rikenellaceae</t>
+          <t>f__UBA11471</t>
         </is>
       </c>
       <c r="R135" t="inlineStr">
         <is>
-          <t>f__Rikenellaceae(reject)</t>
+          <t>f__UBA11471</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT56417.fa</t>
+          <t>even_MAG-GUT57729.fa</t>
         </is>
       </c>
       <c r="B136" t="n">
-        <v>0.03405928743316822</v>
+        <v>0.9983623708973234</v>
       </c>
       <c r="C136" t="n">
-        <v>0.2337610103452926</v>
+        <v>0.0004191991571960684</v>
       </c>
       <c r="D136" t="n">
-        <v>0.02510205002567614</v>
+        <v>0.0003628622368081934</v>
       </c>
       <c r="E136" t="n">
-        <v>0.008300720301910314</v>
+        <v>7.275733544954311e-08</v>
       </c>
       <c r="F136" t="n">
-        <v>2.557644154768306e-08</v>
+        <v>2.550333243742825e-09</v>
       </c>
       <c r="G136" t="n">
-        <v>0.2149392089550643</v>
+        <v>7.395284460117094e-05</v>
       </c>
       <c r="H136" t="n">
-        <v>0.007128684749175651</v>
+        <v>0.0001737868754309829</v>
       </c>
       <c r="I136" t="n">
-        <v>1.153911282679804e-12</v>
+        <v>2.221067038714172e-14</v>
       </c>
       <c r="J136" t="n">
-        <v>0.09478855235323301</v>
+        <v>3.402377316718468e-07</v>
       </c>
       <c r="K136" t="n">
-        <v>0.001439836677252097</v>
+        <v>7.750735070789683e-10</v>
       </c>
       <c r="L136" t="n">
-        <v>0.083258480772228</v>
+        <v>9.383410233674369e-05</v>
       </c>
       <c r="M136" t="n">
-        <v>0.05463575205092423</v>
+        <v>1.473351258781478e-05</v>
       </c>
       <c r="N136" t="n">
-        <v>0.1920204803189283</v>
+        <v>2.221067038714171e-14</v>
       </c>
       <c r="O136" t="n">
-        <v>0.05056591043955173</v>
+        <v>0.0004988440531971767</v>
       </c>
       <c r="P136" t="n">
-        <v>0.2337610103452926</v>
+        <v>0.9983623708973234</v>
       </c>
       <c r="Q136" t="inlineStr">
         <is>
-          <t>f__Barnesiellaceae</t>
+          <t>f__Bacteroidaceae</t>
         </is>
       </c>
       <c r="R136" t="inlineStr">
         <is>
-          <t>f__Barnesiellaceae(reject)</t>
+          <t>f__Bacteroidaceae</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT57158.fa</t>
+          <t>even_MAG-GUT5848.fa</t>
         </is>
       </c>
       <c r="B137" t="n">
-        <v>9.697561177015381e-05</v>
+        <v>0.9950788601436134</v>
       </c>
       <c r="C137" t="n">
-        <v>0.02971674090877991</v>
+        <v>0.0001453449371437544</v>
       </c>
       <c r="D137" t="n">
-        <v>0.0009327104392182221</v>
+        <v>3.886223120565075e-05</v>
       </c>
       <c r="E137" t="n">
-        <v>0.0001036139383333818</v>
+        <v>8.773956949275064e-09</v>
       </c>
       <c r="F137" t="n">
-        <v>4.513827969041241e-10</v>
+        <v>1.661502936973595e-13</v>
       </c>
       <c r="G137" t="n">
-        <v>0.06797908178985296</v>
+        <v>0.0005881329032461647</v>
       </c>
       <c r="H137" t="n">
-        <v>0.0002960469164219614</v>
+        <v>0.002523880424507295</v>
       </c>
       <c r="I137" t="n">
-        <v>2.222197111877106e-14</v>
+        <v>4.259976007108435e-14</v>
       </c>
       <c r="J137" t="n">
-        <v>0.0001110939169848326</v>
+        <v>7.668648850137029e-06</v>
       </c>
       <c r="K137" t="n">
-        <v>4.209268670885231e-06</v>
+        <v>0.0001687458886980811</v>
       </c>
       <c r="L137" t="n">
-        <v>0.0002592589619830049</v>
+        <v>0.000658924610408113</v>
       </c>
       <c r="M137" t="n">
-        <v>0.0002770354824089489</v>
+        <v>0.0003852120597049131</v>
       </c>
       <c r="N137" t="n">
-        <v>0.8998823535502687</v>
+        <v>4.259976007108435e-14</v>
       </c>
       <c r="O137" t="n">
-        <v>0.0003408787639019371</v>
+        <v>0.0004043593784141313</v>
       </c>
       <c r="P137" t="n">
-        <v>0.8998823535502687</v>
+        <v>0.9950788601436134</v>
       </c>
       <c r="Q137" t="inlineStr">
         <is>
-          <t>f__UBA11471</t>
+          <t>f__Bacteroidaceae</t>
         </is>
       </c>
       <c r="R137" t="inlineStr">
         <is>
-          <t>f__UBA11471</t>
+          <t>f__Bacteroidaceae</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT57729.fa</t>
+          <t>even_MAG-GUT58938.fa</t>
         </is>
       </c>
       <c r="B138" t="n">
-        <v>0.9983623708973234</v>
+        <v>0.08435359979526724</v>
       </c>
       <c r="C138" t="n">
-        <v>0.0004191991571960684</v>
+        <v>0.1268740707649179</v>
       </c>
       <c r="D138" t="n">
-        <v>0.0003628622368081934</v>
+        <v>0.07726090713810674</v>
       </c>
       <c r="E138" t="n">
-        <v>7.275733544954311e-08</v>
+        <v>0.1044394772156528</v>
       </c>
       <c r="F138" t="n">
-        <v>2.550333243742825e-09</v>
+        <v>5.206279705444157e-08</v>
       </c>
       <c r="G138" t="n">
-        <v>7.395284460117094e-05</v>
+        <v>0.1149093128463407</v>
       </c>
       <c r="H138" t="n">
-        <v>0.0001737868754309829</v>
+        <v>0.05643450406222175</v>
       </c>
       <c r="I138" t="n">
-        <v>2.221067038714172e-14</v>
+        <v>3.8274528624819e-12</v>
       </c>
       <c r="J138" t="n">
-        <v>3.402377316718468e-07</v>
+        <v>0.08468057048043806</v>
       </c>
       <c r="K138" t="n">
-        <v>7.750735070789683e-10</v>
+        <v>0.0004756154487623077</v>
       </c>
       <c r="L138" t="n">
-        <v>9.383410233674369e-05</v>
+        <v>0.05588474607736593</v>
       </c>
       <c r="M138" t="n">
-        <v>1.473351258781478e-05</v>
+        <v>0.1287336591906883</v>
       </c>
       <c r="N138" t="n">
-        <v>2.221067038714171e-14</v>
+        <v>0.0597183363795281</v>
       </c>
       <c r="O138" t="n">
-        <v>0.0004988440531971767</v>
+        <v>0.1062351485340858</v>
       </c>
       <c r="P138" t="n">
-        <v>0.9983623708973234</v>
+        <v>0.1287336591906883</v>
       </c>
       <c r="Q138" t="inlineStr">
         <is>
-          <t>f__Bacteroidaceae</t>
+          <t>f__Tannerellaceae</t>
         </is>
       </c>
       <c r="R138" t="inlineStr">
         <is>
-          <t>f__Bacteroidaceae</t>
+          <t>f__Tannerellaceae(reject)</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT5848.fa</t>
+          <t>even_MAG-GUT59149.fa</t>
         </is>
       </c>
       <c r="B139" t="n">
-        <v>0.9950788601436134</v>
+        <v>0.9138221952639798</v>
       </c>
       <c r="C139" t="n">
-        <v>0.0001453449371437544</v>
+        <v>0.0002738659335769473</v>
       </c>
       <c r="D139" t="n">
-        <v>3.886223120565075e-05</v>
+        <v>0.0004455530651481691</v>
       </c>
       <c r="E139" t="n">
-        <v>8.773956949275064e-09</v>
+        <v>6.154282242859167e-05</v>
       </c>
       <c r="F139" t="n">
-        <v>1.661502936973595e-13</v>
+        <v>1.563995344555964e-05</v>
       </c>
       <c r="G139" t="n">
-        <v>0.0005881329032461647</v>
+        <v>0.0009668508444380459</v>
       </c>
       <c r="H139" t="n">
-        <v>0.002523880424507295</v>
+        <v>0.07647870185735584</v>
       </c>
       <c r="I139" t="n">
-        <v>4.259976007108435e-14</v>
+        <v>2.090690048734267e-13</v>
       </c>
       <c r="J139" t="n">
-        <v>7.668648850137029e-06</v>
+        <v>1.795986784489873e-06</v>
       </c>
       <c r="K139" t="n">
-        <v>0.0001687458886980811</v>
+        <v>1.561406484380912e-08</v>
       </c>
       <c r="L139" t="n">
-        <v>0.000658924610408113</v>
+        <v>0.006323398661828448</v>
       </c>
       <c r="M139" t="n">
-        <v>0.0003852120597049131</v>
+        <v>0.0009291899776078538</v>
       </c>
       <c r="N139" t="n">
-        <v>4.259976007108435e-14</v>
+        <v>3.022816053598586e-12</v>
       </c>
       <c r="O139" t="n">
-        <v>0.0004043593784141313</v>
+        <v>0.0006812500161093708</v>
       </c>
       <c r="P139" t="n">
-        <v>0.9950788601436134</v>
+        <v>0.9138221952639798</v>
       </c>
       <c r="Q139" t="inlineStr">
         <is>
@@ -9085,487 +9085,487 @@
     <row r="140">
       <c r="A140" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT58938.fa</t>
+          <t>even_MAG-GUT593.fa</t>
         </is>
       </c>
       <c r="B140" t="n">
-        <v>0.08435359979526724</v>
+        <v>0.03655642578087158</v>
       </c>
       <c r="C140" t="n">
-        <v>0.1268740707649179</v>
+        <v>0.2044410920146236</v>
       </c>
       <c r="D140" t="n">
-        <v>0.07726090713810674</v>
+        <v>0.05113893450816683</v>
       </c>
       <c r="E140" t="n">
-        <v>0.1044394772156528</v>
+        <v>0.03805239583660441</v>
       </c>
       <c r="F140" t="n">
-        <v>5.206279705444157e-08</v>
+        <v>4.944755961265764e-08</v>
       </c>
       <c r="G140" t="n">
-        <v>0.1149093128463407</v>
+        <v>0.1927160716219407</v>
       </c>
       <c r="H140" t="n">
-        <v>0.05643450406222175</v>
+        <v>0.02398415184157596</v>
       </c>
       <c r="I140" t="n">
-        <v>3.8274528624819e-12</v>
+        <v>1.504283983420253e-12</v>
       </c>
       <c r="J140" t="n">
-        <v>0.08468057048043806</v>
+        <v>0.01362787428707479</v>
       </c>
       <c r="K140" t="n">
-        <v>0.0004756154487623077</v>
+        <v>0.0008797826256037512</v>
       </c>
       <c r="L140" t="n">
-        <v>0.05588474607736593</v>
+        <v>0.1029608440515554</v>
       </c>
       <c r="M140" t="n">
-        <v>0.1287336591906883</v>
+        <v>0.07902772832464282</v>
       </c>
       <c r="N140" t="n">
-        <v>0.0597183363795281</v>
+        <v>0.1774063709584067</v>
       </c>
       <c r="O140" t="n">
-        <v>0.1062351485340858</v>
+        <v>0.07920827869986952</v>
       </c>
       <c r="P140" t="n">
-        <v>0.1287336591906883</v>
+        <v>0.2044410920146236</v>
       </c>
       <c r="Q140" t="inlineStr">
         <is>
-          <t>f__Tannerellaceae</t>
+          <t>f__Barnesiellaceae</t>
         </is>
       </c>
       <c r="R140" t="inlineStr">
         <is>
-          <t>f__Tannerellaceae(reject)</t>
+          <t>f__Barnesiellaceae(reject)</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT59149.fa</t>
+          <t>even_MAG-GUT59579.fa</t>
         </is>
       </c>
       <c r="B141" t="n">
-        <v>0.9138221952639798</v>
+        <v>0.0006803638621532389</v>
       </c>
       <c r="C141" t="n">
-        <v>0.0002738659335769473</v>
+        <v>0.01200840935363501</v>
       </c>
       <c r="D141" t="n">
-        <v>0.0004455530651481691</v>
+        <v>0.008954941936435104</v>
       </c>
       <c r="E141" t="n">
-        <v>6.154282242859167e-05</v>
+        <v>0.08368078788212181</v>
       </c>
       <c r="F141" t="n">
-        <v>1.563995344555964e-05</v>
+        <v>9.807637610139496e-11</v>
       </c>
       <c r="G141" t="n">
-        <v>0.0009668508444380459</v>
+        <v>0.01264894821238119</v>
       </c>
       <c r="H141" t="n">
-        <v>0.07647870185735584</v>
+        <v>0.0005846822702194745</v>
       </c>
       <c r="I141" t="n">
-        <v>2.090690048734267e-13</v>
+        <v>4.345615835533271e-14</v>
       </c>
       <c r="J141" t="n">
-        <v>1.795986784489873e-06</v>
+        <v>0.001369075307687978</v>
       </c>
       <c r="K141" t="n">
-        <v>1.561406484380912e-08</v>
+        <v>2.987512957373336e-05</v>
       </c>
       <c r="L141" t="n">
-        <v>0.006323398661828448</v>
+        <v>0.0005728298972160671</v>
       </c>
       <c r="M141" t="n">
-        <v>0.0009291899776078538</v>
+        <v>0.0005834281665852446</v>
       </c>
       <c r="N141" t="n">
-        <v>3.022816053598586e-12</v>
+        <v>0.8479309988753253</v>
       </c>
       <c r="O141" t="n">
-        <v>0.0006812500161093708</v>
+        <v>0.03095565900854597</v>
       </c>
       <c r="P141" t="n">
-        <v>0.9138221952639798</v>
+        <v>0.8479309988753253</v>
       </c>
       <c r="Q141" t="inlineStr">
         <is>
-          <t>f__Bacteroidaceae</t>
+          <t>f__UBA11471</t>
         </is>
       </c>
       <c r="R141" t="inlineStr">
         <is>
-          <t>f__Bacteroidaceae</t>
+          <t>f__UBA11471</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT593.fa</t>
+          <t>even_MAG-GUT59599.fa</t>
         </is>
       </c>
       <c r="B142" t="n">
-        <v>0.03655642578087158</v>
+        <v>0.0005467388000438268</v>
       </c>
       <c r="C142" t="n">
-        <v>0.2044410920146236</v>
+        <v>0.1001930439294199</v>
       </c>
       <c r="D142" t="n">
-        <v>0.05113893450816683</v>
+        <v>0.002405130269405123</v>
       </c>
       <c r="E142" t="n">
-        <v>0.03805239583660441</v>
+        <v>0.001854385324286203</v>
       </c>
       <c r="F142" t="n">
-        <v>4.944755961265764e-08</v>
+        <v>1.026862642321064e-08</v>
       </c>
       <c r="G142" t="n">
-        <v>0.1927160716219407</v>
+        <v>0.02136153251435476</v>
       </c>
       <c r="H142" t="n">
-        <v>0.02398415184157596</v>
+        <v>3.035243550314229e-05</v>
       </c>
       <c r="I142" t="n">
-        <v>1.504283983420253e-12</v>
+        <v>2.737123726075352e-14</v>
       </c>
       <c r="J142" t="n">
-        <v>0.01362787428707479</v>
+        <v>0.00396189024303127</v>
       </c>
       <c r="K142" t="n">
-        <v>0.0008797826256037512</v>
+        <v>3.271978985893708e-05</v>
       </c>
       <c r="L142" t="n">
-        <v>0.1029608440515554</v>
+        <v>0.002115933492812765</v>
       </c>
       <c r="M142" t="n">
-        <v>0.07902772832464282</v>
+        <v>0.004227530132395355</v>
       </c>
       <c r="N142" t="n">
-        <v>0.1774063709584067</v>
+        <v>0.8599599198011542</v>
       </c>
       <c r="O142" t="n">
-        <v>0.07920827869986952</v>
+        <v>0.003310812999080819</v>
       </c>
       <c r="P142" t="n">
-        <v>0.2044410920146236</v>
+        <v>0.8599599198011542</v>
       </c>
       <c r="Q142" t="inlineStr">
         <is>
-          <t>f__Barnesiellaceae</t>
+          <t>f__UBA11471</t>
         </is>
       </c>
       <c r="R142" t="inlineStr">
         <is>
-          <t>f__Barnesiellaceae(reject)</t>
+          <t>f__UBA11471</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT59579.fa</t>
+          <t>even_MAG-GUT62658.fa</t>
         </is>
       </c>
       <c r="B143" t="n">
-        <v>0.0006803638621532389</v>
+        <v>0.01082754786412339</v>
       </c>
       <c r="C143" t="n">
-        <v>0.01200840935363501</v>
+        <v>0.2836384056297533</v>
       </c>
       <c r="D143" t="n">
-        <v>0.008954941936435104</v>
+        <v>0.01970130238776789</v>
       </c>
       <c r="E143" t="n">
-        <v>0.08368078788212181</v>
+        <v>0.009502906140711842</v>
       </c>
       <c r="F143" t="n">
-        <v>9.807637610139496e-11</v>
+        <v>2.699083467855118e-09</v>
       </c>
       <c r="G143" t="n">
-        <v>0.01264894821238119</v>
+        <v>0.2460984607120655</v>
       </c>
       <c r="H143" t="n">
-        <v>0.0005846822702194745</v>
+        <v>0.005477194413581381</v>
       </c>
       <c r="I143" t="n">
-        <v>4.345615835533271e-14</v>
+        <v>5.210396778912066e-13</v>
       </c>
       <c r="J143" t="n">
-        <v>0.001369075307687978</v>
+        <v>0.0233668504118574</v>
       </c>
       <c r="K143" t="n">
-        <v>2.987512957373336e-05</v>
+        <v>0.000242702158588223</v>
       </c>
       <c r="L143" t="n">
-        <v>0.0005728298972160671</v>
+        <v>0.03382600387146679</v>
       </c>
       <c r="M143" t="n">
-        <v>0.0005834281665852446</v>
+        <v>0.1254334145404719</v>
       </c>
       <c r="N143" t="n">
-        <v>0.8479309988753253</v>
+        <v>0.1813692134287476</v>
       </c>
       <c r="O143" t="n">
-        <v>0.03095565900854597</v>
+        <v>0.06051599574126024</v>
       </c>
       <c r="P143" t="n">
-        <v>0.8479309988753253</v>
+        <v>0.2836384056297533</v>
       </c>
       <c r="Q143" t="inlineStr">
         <is>
-          <t>f__UBA11471</t>
+          <t>f__Barnesiellaceae</t>
         </is>
       </c>
       <c r="R143" t="inlineStr">
         <is>
-          <t>f__UBA11471</t>
+          <t>f__Barnesiellaceae(reject)</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT59599.fa</t>
+          <t>even_MAG-GUT63164.fa</t>
         </is>
       </c>
       <c r="B144" t="n">
-        <v>0.0005467388000438268</v>
+        <v>0.9929294863174333</v>
       </c>
       <c r="C144" t="n">
-        <v>0.1001930439294199</v>
+        <v>2.529707294579357e-05</v>
       </c>
       <c r="D144" t="n">
-        <v>0.002405130269405123</v>
+        <v>8.379358821527906e-06</v>
       </c>
       <c r="E144" t="n">
-        <v>0.001854385324286203</v>
+        <v>4.308885705937677e-09</v>
       </c>
       <c r="F144" t="n">
-        <v>1.026862642321064e-08</v>
+        <v>6.477711333026405e-11</v>
       </c>
       <c r="G144" t="n">
-        <v>0.02136153251435476</v>
+        <v>0.0002880503175282509</v>
       </c>
       <c r="H144" t="n">
-        <v>3.035243550314229e-05</v>
+        <v>0.003507738935875445</v>
       </c>
       <c r="I144" t="n">
-        <v>2.737123726075352e-14</v>
+        <v>4.188955853755852e-14</v>
       </c>
       <c r="J144" t="n">
-        <v>0.00396189024303127</v>
+        <v>4.666285921141691e-08</v>
       </c>
       <c r="K144" t="n">
-        <v>3.271978985893708e-05</v>
+        <v>2.289124210029017e-05</v>
       </c>
       <c r="L144" t="n">
-        <v>0.002115933492812765</v>
+        <v>0.0001923628885559251</v>
       </c>
       <c r="M144" t="n">
-        <v>0.004227530132395355</v>
+        <v>0.00182444388012227</v>
       </c>
       <c r="N144" t="n">
-        <v>0.8599599198011542</v>
+        <v>4.188955853762162e-14</v>
       </c>
       <c r="O144" t="n">
-        <v>0.003310812999080819</v>
+        <v>0.001201298950011483</v>
       </c>
       <c r="P144" t="n">
-        <v>0.8599599198011542</v>
+        <v>0.9929294863174333</v>
       </c>
       <c r="Q144" t="inlineStr">
         <is>
-          <t>f__UBA11471</t>
+          <t>f__Bacteroidaceae</t>
         </is>
       </c>
       <c r="R144" t="inlineStr">
         <is>
-          <t>f__UBA11471</t>
+          <t>f__Bacteroidaceae</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT62658.fa</t>
+          <t>even_MAG-GUT63198.fa</t>
         </is>
       </c>
       <c r="B145" t="n">
-        <v>0.01082754786412339</v>
+        <v>0.0001548466408833534</v>
       </c>
       <c r="C145" t="n">
-        <v>0.2836384056297533</v>
+        <v>1.641604806358218e-07</v>
       </c>
       <c r="D145" t="n">
-        <v>0.01970130238776789</v>
+        <v>1.667556893915124e-11</v>
       </c>
       <c r="E145" t="n">
-        <v>0.009502906140711842</v>
+        <v>2.502744338381006e-09</v>
       </c>
       <c r="F145" t="n">
-        <v>2.699083467855118e-09</v>
+        <v>2.220084730136975e-14</v>
       </c>
       <c r="G145" t="n">
-        <v>0.2460984607120655</v>
+        <v>0.0006235558929376798</v>
       </c>
       <c r="H145" t="n">
-        <v>0.005477194413581381</v>
+        <v>0.002758827719315626</v>
       </c>
       <c r="I145" t="n">
-        <v>5.210396778912066e-13</v>
+        <v>2.220084730136975e-14</v>
       </c>
       <c r="J145" t="n">
-        <v>0.0233668504118574</v>
+        <v>1.03412378229012e-10</v>
       </c>
       <c r="K145" t="n">
-        <v>0.000242702158588223</v>
+        <v>0.9964387268703816</v>
       </c>
       <c r="L145" t="n">
-        <v>0.03382600387146679</v>
+        <v>5.560432859778864e-07</v>
       </c>
       <c r="M145" t="n">
-        <v>0.1254334145404719</v>
+        <v>2.290265621620834e-05</v>
       </c>
       <c r="N145" t="n">
-        <v>0.1813692134287476</v>
+        <v>2.220084730136975e-14</v>
       </c>
       <c r="O145" t="n">
-        <v>0.06051599574126024</v>
+        <v>4.173935999288315e-07</v>
       </c>
       <c r="P145" t="n">
-        <v>0.2836384056297533</v>
+        <v>0.9964387268703816</v>
       </c>
       <c r="Q145" t="inlineStr">
         <is>
-          <t>f__Barnesiellaceae</t>
+          <t>f__Porphyromonadaceae</t>
         </is>
       </c>
       <c r="R145" t="inlineStr">
         <is>
-          <t>f__Barnesiellaceae(reject)</t>
+          <t>f__Porphyromonadaceae</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT63164.fa</t>
+          <t>even_MAG-GUT63214.fa</t>
         </is>
       </c>
       <c r="B146" t="n">
-        <v>0.9929294863174333</v>
+        <v>0.0002360495661476933</v>
       </c>
       <c r="C146" t="n">
-        <v>2.529707294579357e-05</v>
+        <v>7.00337231599669e-08</v>
       </c>
       <c r="D146" t="n">
-        <v>8.379358821527906e-06</v>
+        <v>7.46624385919095e-11</v>
       </c>
       <c r="E146" t="n">
-        <v>4.308885705937677e-09</v>
+        <v>1.682659445058006e-09</v>
       </c>
       <c r="F146" t="n">
-        <v>6.477711333026405e-11</v>
+        <v>2.220098907703689e-14</v>
       </c>
       <c r="G146" t="n">
-        <v>0.0002880503175282509</v>
+        <v>0.0006805367138610775</v>
       </c>
       <c r="H146" t="n">
-        <v>0.003507738935875445</v>
+        <v>0.009333561536448971</v>
       </c>
       <c r="I146" t="n">
-        <v>4.188955853755852e-14</v>
+        <v>2.220098907703689e-14</v>
       </c>
       <c r="J146" t="n">
-        <v>4.666285921141691e-08</v>
+        <v>6.919052024124193e-10</v>
       </c>
       <c r="K146" t="n">
-        <v>2.289124210029017e-05</v>
+        <v>0.9897232356906015</v>
       </c>
       <c r="L146" t="n">
-        <v>0.0001923628885559251</v>
+        <v>1.510421203046298e-07</v>
       </c>
       <c r="M146" t="n">
-        <v>0.00182444388012227</v>
+        <v>2.545722682986262e-05</v>
       </c>
       <c r="N146" t="n">
-        <v>4.188955853762162e-14</v>
+        <v>2.220098907703689e-14</v>
       </c>
       <c r="O146" t="n">
-        <v>0.001201298950011483</v>
+        <v>9.357409739028508e-07</v>
       </c>
       <c r="P146" t="n">
-        <v>0.9929294863174333</v>
+        <v>0.9897232356906015</v>
       </c>
       <c r="Q146" t="inlineStr">
         <is>
-          <t>f__Bacteroidaceae</t>
+          <t>f__Porphyromonadaceae</t>
         </is>
       </c>
       <c r="R146" t="inlineStr">
         <is>
-          <t>f__Bacteroidaceae</t>
+          <t>f__Porphyromonadaceae</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT63198.fa</t>
+          <t>even_MAG-GUT63219.fa</t>
         </is>
       </c>
       <c r="B147" t="n">
-        <v>0.0001548466408833534</v>
+        <v>1.474529648799739e-05</v>
       </c>
       <c r="C147" t="n">
-        <v>1.641604806358218e-07</v>
+        <v>2.02545780969626e-07</v>
       </c>
       <c r="D147" t="n">
-        <v>1.667556893915124e-11</v>
+        <v>5.506865903866745e-12</v>
       </c>
       <c r="E147" t="n">
-        <v>2.502744338381006e-09</v>
+        <v>5.988486766786699e-09</v>
       </c>
       <c r="F147" t="n">
-        <v>2.220084730136975e-14</v>
+        <v>2.220079911499523e-14</v>
       </c>
       <c r="G147" t="n">
-        <v>0.0006235558929376798</v>
+        <v>0.0003495062953770577</v>
       </c>
       <c r="H147" t="n">
-        <v>0.002758827719315626</v>
+        <v>0.0053183061210736</v>
       </c>
       <c r="I147" t="n">
-        <v>2.220084730136975e-14</v>
+        <v>2.220079911499523e-14</v>
       </c>
       <c r="J147" t="n">
-        <v>1.03412378229012e-10</v>
+        <v>1.13839006753839e-12</v>
       </c>
       <c r="K147" t="n">
-        <v>0.9964387268703816</v>
+        <v>0.9943099424678905</v>
       </c>
       <c r="L147" t="n">
-        <v>5.560432859778864e-07</v>
+        <v>8.249238857638296e-08</v>
       </c>
       <c r="M147" t="n">
-        <v>2.290265621620834e-05</v>
+        <v>7.161377069867757e-06</v>
       </c>
       <c r="N147" t="n">
-        <v>2.220084730136975e-14</v>
+        <v>2.220079911499523e-14</v>
       </c>
       <c r="O147" t="n">
-        <v>4.173935999288315e-07</v>
+        <v>4.74087327175165e-08</v>
       </c>
       <c r="P147" t="n">
-        <v>0.9964387268703816</v>
+        <v>0.9943099424678905</v>
       </c>
       <c r="Q147" t="inlineStr">
         <is>
@@ -9581,53 +9581,53 @@
     <row r="148">
       <c r="A148" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT63214.fa</t>
+          <t>even_MAG-GUT63286.fa</t>
         </is>
       </c>
       <c r="B148" t="n">
-        <v>0.0002360495661476933</v>
+        <v>9.274781963841078e-05</v>
       </c>
       <c r="C148" t="n">
-        <v>7.00337231599669e-08</v>
+        <v>2.509413000921324e-08</v>
       </c>
       <c r="D148" t="n">
-        <v>7.46624385919095e-11</v>
+        <v>9.77594554939895e-12</v>
       </c>
       <c r="E148" t="n">
-        <v>1.682659445058006e-09</v>
+        <v>3.04540208259705e-09</v>
       </c>
       <c r="F148" t="n">
-        <v>2.220098907703689e-14</v>
+        <v>2.220065539809464e-14</v>
       </c>
       <c r="G148" t="n">
-        <v>0.0006805367138610775</v>
+        <v>0.0002406647899321379</v>
       </c>
       <c r="H148" t="n">
-        <v>0.009333561536448971</v>
+        <v>0.003288834828824124</v>
       </c>
       <c r="I148" t="n">
-        <v>2.220098907703689e-14</v>
+        <v>2.220065539809464e-14</v>
       </c>
       <c r="J148" t="n">
-        <v>6.919052024124193e-10</v>
+        <v>2.272217132646724e-12</v>
       </c>
       <c r="K148" t="n">
-        <v>0.9897232356906015</v>
+        <v>0.9963560081158948</v>
       </c>
       <c r="L148" t="n">
-        <v>1.510421203046298e-07</v>
+        <v>6.859617245480985e-07</v>
       </c>
       <c r="M148" t="n">
-        <v>2.545722682986262e-05</v>
+        <v>2.05661116282865e-05</v>
       </c>
       <c r="N148" t="n">
-        <v>2.220098907703689e-14</v>
+        <v>2.220065539809464e-14</v>
       </c>
       <c r="O148" t="n">
-        <v>9.357409739028508e-07</v>
+        <v>4.642207108213301e-07</v>
       </c>
       <c r="P148" t="n">
-        <v>0.9897232356906015</v>
+        <v>0.9963560081158948</v>
       </c>
       <c r="Q148" t="inlineStr">
         <is>
@@ -9643,53 +9643,53 @@
     <row r="149">
       <c r="A149" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT63219.fa</t>
+          <t>even_MAG-GUT63373.fa</t>
         </is>
       </c>
       <c r="B149" t="n">
-        <v>1.474529648799739e-05</v>
+        <v>0.0001230233452498326</v>
       </c>
       <c r="C149" t="n">
-        <v>2.02545780969626e-07</v>
+        <v>1.252481813815155e-07</v>
       </c>
       <c r="D149" t="n">
-        <v>5.506865903866745e-12</v>
+        <v>8.308191777336559e-11</v>
       </c>
       <c r="E149" t="n">
-        <v>5.988486766786699e-09</v>
+        <v>2.14472227977836e-08</v>
       </c>
       <c r="F149" t="n">
-        <v>2.220079911499523e-14</v>
+        <v>2.220062837965376e-14</v>
       </c>
       <c r="G149" t="n">
-        <v>0.0003495062953770577</v>
+        <v>0.0003768167156493769</v>
       </c>
       <c r="H149" t="n">
-        <v>0.0053183061210736</v>
+        <v>0.002597937882791726</v>
       </c>
       <c r="I149" t="n">
-        <v>2.220079911499523e-14</v>
+        <v>2.220062837965376e-14</v>
       </c>
       <c r="J149" t="n">
-        <v>1.13839006753839e-12</v>
+        <v>2.9155974079276e-10</v>
       </c>
       <c r="K149" t="n">
-        <v>0.9943099424678905</v>
+        <v>0.996882248658887</v>
       </c>
       <c r="L149" t="n">
-        <v>8.249238857638296e-08</v>
+        <v>7.751407491016725e-07</v>
       </c>
       <c r="M149" t="n">
-        <v>7.161377069867757e-06</v>
+        <v>1.803748406013258e-05</v>
       </c>
       <c r="N149" t="n">
-        <v>2.220079911499523e-14</v>
+        <v>2.220062837965376e-14</v>
       </c>
       <c r="O149" t="n">
-        <v>4.74087327175165e-08</v>
+        <v>1.01370250045305e-06</v>
       </c>
       <c r="P149" t="n">
-        <v>0.9943099424678905</v>
+        <v>0.996882248658887</v>
       </c>
       <c r="Q149" t="inlineStr">
         <is>
@@ -9705,53 +9705,53 @@
     <row r="150">
       <c r="A150" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT63286.fa</t>
+          <t>even_MAG-GUT63496.fa</t>
         </is>
       </c>
       <c r="B150" t="n">
-        <v>9.274781963841078e-05</v>
+        <v>0.000671539902111135</v>
       </c>
       <c r="C150" t="n">
-        <v>2.509413000921324e-08</v>
+        <v>7.060048777675142e-08</v>
       </c>
       <c r="D150" t="n">
-        <v>9.77594554939895e-12</v>
+        <v>1.911657837909342e-10</v>
       </c>
       <c r="E150" t="n">
-        <v>3.04540208259705e-09</v>
+        <v>1.448975596220346e-08</v>
       </c>
       <c r="F150" t="n">
-        <v>2.220065539809464e-14</v>
+        <v>2.220094302800704e-14</v>
       </c>
       <c r="G150" t="n">
-        <v>0.0002406647899321379</v>
+        <v>0.0009012634132727466</v>
       </c>
       <c r="H150" t="n">
-        <v>0.003288834828824124</v>
+        <v>0.001599338210511748</v>
       </c>
       <c r="I150" t="n">
-        <v>2.220065539809464e-14</v>
+        <v>2.220094302800704e-14</v>
       </c>
       <c r="J150" t="n">
-        <v>2.272217132646724e-12</v>
+        <v>1.797365411265876e-09</v>
       </c>
       <c r="K150" t="n">
-        <v>0.9963560081158948</v>
+        <v>0.9968043354531472</v>
       </c>
       <c r="L150" t="n">
-        <v>6.859617245480985e-07</v>
+        <v>3.773102143701197e-07</v>
       </c>
       <c r="M150" t="n">
-        <v>2.05661116282865e-05</v>
+        <v>2.082156553981811e-05</v>
       </c>
       <c r="N150" t="n">
-        <v>2.220065539809464e-14</v>
+        <v>2.220094302800704e-14</v>
       </c>
       <c r="O150" t="n">
-        <v>4.642207108213301e-07</v>
+        <v>2.237066361318884e-06</v>
       </c>
       <c r="P150" t="n">
-        <v>0.9963560081158948</v>
+        <v>0.9968043354531472</v>
       </c>
       <c r="Q150" t="inlineStr">
         <is>
@@ -9767,53 +9767,53 @@
     <row r="151">
       <c r="A151" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT63373.fa</t>
+          <t>even_MAG-GUT63586.fa</t>
         </is>
       </c>
       <c r="B151" t="n">
-        <v>0.0001230233452498326</v>
+        <v>7.358084944988639e-05</v>
       </c>
       <c r="C151" t="n">
-        <v>1.252481813815155e-07</v>
+        <v>2.200832982236484e-07</v>
       </c>
       <c r="D151" t="n">
-        <v>8.308191777336559e-11</v>
+        <v>2.600397996554282e-10</v>
       </c>
       <c r="E151" t="n">
-        <v>2.14472227977836e-08</v>
+        <v>5.192023122412852e-09</v>
       </c>
       <c r="F151" t="n">
-        <v>2.220062837965376e-14</v>
+        <v>2.219887481571106e-14</v>
       </c>
       <c r="G151" t="n">
-        <v>0.0003768167156493769</v>
+        <v>0.0007299726760086238</v>
       </c>
       <c r="H151" t="n">
-        <v>0.002597937882791726</v>
+        <v>0.02407854315104288</v>
       </c>
       <c r="I151" t="n">
-        <v>2.220062837965376e-14</v>
+        <v>2.219887481571106e-14</v>
       </c>
       <c r="J151" t="n">
-        <v>2.9155974079276e-10</v>
+        <v>3.49658676177134e-09</v>
       </c>
       <c r="K151" t="n">
-        <v>0.996882248658887</v>
+        <v>0.9750596844295726</v>
       </c>
       <c r="L151" t="n">
-        <v>7.751407491016725e-07</v>
+        <v>6.173575027083637e-08</v>
       </c>
       <c r="M151" t="n">
-        <v>1.803748406013258e-05</v>
+        <v>5.591756437604751e-05</v>
       </c>
       <c r="N151" t="n">
-        <v>2.220062837965376e-14</v>
+        <v>2.219887481571106e-14</v>
       </c>
       <c r="O151" t="n">
-        <v>1.01370250045305e-06</v>
+        <v>2.010561784870877e-06</v>
       </c>
       <c r="P151" t="n">
-        <v>0.996882248658887</v>
+        <v>0.9750596844295726</v>
       </c>
       <c r="Q151" t="inlineStr">
         <is>
@@ -9829,53 +9829,53 @@
     <row r="152">
       <c r="A152" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT63496.fa</t>
+          <t>even_MAG-GUT63602.fa</t>
         </is>
       </c>
       <c r="B152" t="n">
-        <v>0.000671539902111135</v>
+        <v>8.016404305144053e-05</v>
       </c>
       <c r="C152" t="n">
-        <v>7.060048777675142e-08</v>
+        <v>1.831739140826821e-07</v>
       </c>
       <c r="D152" t="n">
-        <v>1.911657837909342e-10</v>
+        <v>1.078805202401474e-11</v>
       </c>
       <c r="E152" t="n">
-        <v>1.448975596220346e-08</v>
+        <v>3.376833138538491e-09</v>
       </c>
       <c r="F152" t="n">
-        <v>2.220094302800704e-14</v>
+        <v>2.220073551416826e-14</v>
       </c>
       <c r="G152" t="n">
-        <v>0.0009012634132727466</v>
+        <v>0.0002578877787745272</v>
       </c>
       <c r="H152" t="n">
-        <v>0.001599338210511748</v>
+        <v>0.004111894281929426</v>
       </c>
       <c r="I152" t="n">
-        <v>2.220094302800704e-14</v>
+        <v>2.220073551416826e-14</v>
       </c>
       <c r="J152" t="n">
-        <v>1.797365411265876e-09</v>
+        <v>4.362175112354628e-12</v>
       </c>
       <c r="K152" t="n">
-        <v>0.9968043354531472</v>
+        <v>0.9955328836814723</v>
       </c>
       <c r="L152" t="n">
-        <v>3.773102143701197e-07</v>
+        <v>1.264976533595394e-06</v>
       </c>
       <c r="M152" t="n">
-        <v>2.082156553981811e-05</v>
+        <v>1.541988797142458e-05</v>
       </c>
       <c r="N152" t="n">
-        <v>2.220094302800704e-14</v>
+        <v>2.220073551416826e-14</v>
       </c>
       <c r="O152" t="n">
-        <v>2.237066361318884e-06</v>
+        <v>2.987843032281833e-07</v>
       </c>
       <c r="P152" t="n">
-        <v>0.9968043354531472</v>
+        <v>0.9955328836814723</v>
       </c>
       <c r="Q152" t="inlineStr">
         <is>
@@ -9891,177 +9891,177 @@
     <row r="153">
       <c r="A153" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT63586.fa</t>
+          <t>even_MAG-GUT6384.fa</t>
         </is>
       </c>
       <c r="B153" t="n">
-        <v>7.358084944988639e-05</v>
+        <v>0.9879254159511244</v>
       </c>
       <c r="C153" t="n">
-        <v>2.200832982236484e-07</v>
+        <v>2.694878803770155e-05</v>
       </c>
       <c r="D153" t="n">
-        <v>2.600397996554282e-10</v>
+        <v>2.423226865560795e-06</v>
       </c>
       <c r="E153" t="n">
-        <v>5.192023122412852e-09</v>
+        <v>9.041769322965041e-10</v>
       </c>
       <c r="F153" t="n">
-        <v>2.219887481571106e-14</v>
+        <v>1.753905184470871e-12</v>
       </c>
       <c r="G153" t="n">
-        <v>0.0007299726760086238</v>
+        <v>0.002478115457799766</v>
       </c>
       <c r="H153" t="n">
-        <v>0.02407854315104288</v>
+        <v>0.0004867815829762128</v>
       </c>
       <c r="I153" t="n">
-        <v>2.219887481571106e-14</v>
+        <v>6.623718908760623e-14</v>
       </c>
       <c r="J153" t="n">
-        <v>3.49658676177134e-09</v>
+        <v>2.018130563377523e-08</v>
       </c>
       <c r="K153" t="n">
-        <v>0.9750596844295726</v>
+        <v>0.002464505391954827</v>
       </c>
       <c r="L153" t="n">
-        <v>6.173575027083637e-08</v>
+        <v>0.001415893264745168</v>
       </c>
       <c r="M153" t="n">
-        <v>5.591756437604751e-05</v>
+        <v>0.001862494254803021</v>
       </c>
       <c r="N153" t="n">
-        <v>2.219887481571106e-14</v>
+        <v>6.623718908760613e-14</v>
       </c>
       <c r="O153" t="n">
-        <v>2.010561784870877e-06</v>
+        <v>0.003337400994324407</v>
       </c>
       <c r="P153" t="n">
-        <v>0.9750596844295726</v>
+        <v>0.9879254159511244</v>
       </c>
       <c r="Q153" t="inlineStr">
         <is>
-          <t>f__Porphyromonadaceae</t>
+          <t>f__Bacteroidaceae</t>
         </is>
       </c>
       <c r="R153" t="inlineStr">
         <is>
-          <t>f__Porphyromonadaceae</t>
+          <t>f__Bacteroidaceae</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT63602.fa</t>
+          <t>even_MAG-GUT6445.fa</t>
         </is>
       </c>
       <c r="B154" t="n">
-        <v>8.016404305144053e-05</v>
+        <v>0.9929473158578129</v>
       </c>
       <c r="C154" t="n">
-        <v>1.831739140826821e-07</v>
+        <v>7.201234708399215e-06</v>
       </c>
       <c r="D154" t="n">
-        <v>1.078805202401474e-11</v>
+        <v>4.834046932420088e-07</v>
       </c>
       <c r="E154" t="n">
-        <v>3.376833138538491e-09</v>
+        <v>4.395321017040582e-10</v>
       </c>
       <c r="F154" t="n">
-        <v>2.220073551416826e-14</v>
+        <v>1.831059215746517e-12</v>
       </c>
       <c r="G154" t="n">
-        <v>0.0002578877787745272</v>
+        <v>0.0005159551867616009</v>
       </c>
       <c r="H154" t="n">
-        <v>0.004111894281929426</v>
+        <v>6.648574968544145e-05</v>
       </c>
       <c r="I154" t="n">
-        <v>2.220073551416826e-14</v>
+        <v>2.681958496120467e-14</v>
       </c>
       <c r="J154" t="n">
-        <v>4.362175112354628e-12</v>
+        <v>2.628223305246018e-09</v>
       </c>
       <c r="K154" t="n">
-        <v>0.9955328836814723</v>
+        <v>0.0004760811896135655</v>
       </c>
       <c r="L154" t="n">
-        <v>1.264976533595394e-06</v>
+        <v>0.001682589598551946</v>
       </c>
       <c r="M154" t="n">
-        <v>1.541988797142458e-05</v>
+        <v>0.0004477837488713643</v>
       </c>
       <c r="N154" t="n">
-        <v>2.220073551416826e-14</v>
+        <v>2.681958496120469e-14</v>
       </c>
       <c r="O154" t="n">
-        <v>2.987843032281833e-07</v>
+        <v>0.003856100959661263</v>
       </c>
       <c r="P154" t="n">
-        <v>0.9955328836814723</v>
+        <v>0.9929473158578129</v>
       </c>
       <c r="Q154" t="inlineStr">
         <is>
-          <t>f__Porphyromonadaceae</t>
+          <t>f__Bacteroidaceae</t>
         </is>
       </c>
       <c r="R154" t="inlineStr">
         <is>
-          <t>f__Porphyromonadaceae</t>
+          <t>f__Bacteroidaceae</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT6384.fa</t>
+          <t>even_MAG-GUT6489.fa</t>
         </is>
       </c>
       <c r="B155" t="n">
-        <v>0.9879254159511244</v>
+        <v>0.9881883127886469</v>
       </c>
       <c r="C155" t="n">
-        <v>2.694878803770155e-05</v>
+        <v>7.918919389999631e-05</v>
       </c>
       <c r="D155" t="n">
-        <v>2.423226865560795e-06</v>
+        <v>1.107445866500134e-05</v>
       </c>
       <c r="E155" t="n">
-        <v>9.041769322965041e-10</v>
+        <v>2.128186545840694e-09</v>
       </c>
       <c r="F155" t="n">
-        <v>1.753905184470871e-12</v>
+        <v>1.014603123735045e-10</v>
       </c>
       <c r="G155" t="n">
-        <v>0.002478115457799766</v>
+        <v>0.001696978291463065</v>
       </c>
       <c r="H155" t="n">
-        <v>0.0004867815829762128</v>
+        <v>0.0003365555450850475</v>
       </c>
       <c r="I155" t="n">
-        <v>6.623718908760623e-14</v>
+        <v>8.087147388436291e-14</v>
       </c>
       <c r="J155" t="n">
-        <v>2.018130563377523e-08</v>
+        <v>2.53885452530159e-08</v>
       </c>
       <c r="K155" t="n">
-        <v>0.002464505391954827</v>
+        <v>0.0001849402101327889</v>
       </c>
       <c r="L155" t="n">
-        <v>0.001415893264745168</v>
+        <v>0.0007663546375249977</v>
       </c>
       <c r="M155" t="n">
-        <v>0.001862494254803021</v>
+        <v>0.007622380596993072</v>
       </c>
       <c r="N155" t="n">
-        <v>6.623718908760613e-14</v>
+        <v>8.087147388435538e-14</v>
       </c>
       <c r="O155" t="n">
-        <v>0.003337400994324407</v>
+        <v>0.001114186659235419</v>
       </c>
       <c r="P155" t="n">
-        <v>0.9879254159511244</v>
+        <v>0.9881883127886469</v>
       </c>
       <c r="Q155" t="inlineStr">
         <is>
@@ -10077,177 +10077,177 @@
     <row r="156">
       <c r="A156" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT6445.fa</t>
+          <t>even_MAG-GUT65795.fa</t>
         </is>
       </c>
       <c r="B156" t="n">
-        <v>0.9929473158578129</v>
+        <v>0.0002582856308434984</v>
       </c>
       <c r="C156" t="n">
-        <v>7.201234708399215e-06</v>
+        <v>0.002357982825153452</v>
       </c>
       <c r="D156" t="n">
-        <v>4.834046932420088e-07</v>
+        <v>0.01897104064980213</v>
       </c>
       <c r="E156" t="n">
-        <v>4.395321017040582e-10</v>
+        <v>0.1340500131057972</v>
       </c>
       <c r="F156" t="n">
-        <v>1.831059215746517e-12</v>
+        <v>5.156583723518836e-10</v>
       </c>
       <c r="G156" t="n">
-        <v>0.0005159551867616009</v>
+        <v>0.0006740214472687316</v>
       </c>
       <c r="H156" t="n">
-        <v>6.648574968544145e-05</v>
+        <v>0.0001075062859878106</v>
       </c>
       <c r="I156" t="n">
-        <v>2.681958496120467e-14</v>
+        <v>2.221130359679164e-14</v>
       </c>
       <c r="J156" t="n">
-        <v>2.628223305246018e-09</v>
+        <v>0.0001913710826848765</v>
       </c>
       <c r="K156" t="n">
-        <v>0.0004760811896135655</v>
+        <v>8.007003335532834e-07</v>
       </c>
       <c r="L156" t="n">
-        <v>0.001682589598551946</v>
+        <v>2.403663270471959e-05</v>
       </c>
       <c r="M156" t="n">
-        <v>0.0004477837488713643</v>
+        <v>0.0001415357528812224</v>
       </c>
       <c r="N156" t="n">
-        <v>2.681958496120469e-14</v>
+        <v>0.834538499900798</v>
       </c>
       <c r="O156" t="n">
-        <v>0.003856100959661263</v>
+        <v>0.008684905470064194</v>
       </c>
       <c r="P156" t="n">
-        <v>0.9929473158578129</v>
+        <v>0.834538499900798</v>
       </c>
       <c r="Q156" t="inlineStr">
         <is>
-          <t>f__Bacteroidaceae</t>
+          <t>f__UBA11471</t>
         </is>
       </c>
       <c r="R156" t="inlineStr">
         <is>
-          <t>f__Bacteroidaceae</t>
+          <t>f__UBA11471</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT6489.fa</t>
+          <t>even_MAG-GUT66097.fa</t>
         </is>
       </c>
       <c r="B157" t="n">
-        <v>0.9881883127886469</v>
+        <v>0.09507667894992636</v>
       </c>
       <c r="C157" t="n">
-        <v>7.918919389999631e-05</v>
+        <v>0.891840023561509</v>
       </c>
       <c r="D157" t="n">
-        <v>1.107445866500134e-05</v>
+        <v>0.0001950578211817993</v>
       </c>
       <c r="E157" t="n">
-        <v>2.128186545840694e-09</v>
+        <v>8.14976629110051e-05</v>
       </c>
       <c r="F157" t="n">
-        <v>1.014603123735045e-10</v>
+        <v>3.368845999891598e-11</v>
       </c>
       <c r="G157" t="n">
-        <v>0.001696978291463065</v>
+        <v>0.0001122862541810799</v>
       </c>
       <c r="H157" t="n">
-        <v>0.0003365555450850475</v>
+        <v>0.0002483016342807375</v>
       </c>
       <c r="I157" t="n">
-        <v>8.087147388436291e-14</v>
+        <v>2.220385936111391e-14</v>
       </c>
       <c r="J157" t="n">
-        <v>2.53885452530159e-08</v>
+        <v>0.008283871626376029</v>
       </c>
       <c r="K157" t="n">
-        <v>0.0001849402101327889</v>
+        <v>2.501218375421021e-05</v>
       </c>
       <c r="L157" t="n">
-        <v>0.0007663546375249977</v>
+        <v>0.0006148217893487157</v>
       </c>
       <c r="M157" t="n">
-        <v>0.007622380596993072</v>
+        <v>0.003506232239548602</v>
       </c>
       <c r="N157" t="n">
-        <v>8.087147388435538e-14</v>
+        <v>1.404888058400337e-10</v>
       </c>
       <c r="O157" t="n">
-        <v>0.001114186659235419</v>
+        <v>1.621610278301588e-05</v>
       </c>
       <c r="P157" t="n">
-        <v>0.9881883127886469</v>
+        <v>0.891840023561509</v>
       </c>
       <c r="Q157" t="inlineStr">
         <is>
-          <t>f__Bacteroidaceae</t>
+          <t>f__Barnesiellaceae</t>
         </is>
       </c>
       <c r="R157" t="inlineStr">
         <is>
-          <t>f__Bacteroidaceae</t>
+          <t>f__Barnesiellaceae</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT65795.fa</t>
+          <t>even_MAG-GUT66701.fa</t>
         </is>
       </c>
       <c r="B158" t="n">
-        <v>0.0002582856308434984</v>
+        <v>9.289175922329052e-05</v>
       </c>
       <c r="C158" t="n">
-        <v>0.002357982825153452</v>
+        <v>0.002447446122132513</v>
       </c>
       <c r="D158" t="n">
-        <v>0.01897104064980213</v>
+        <v>0.004170069924872322</v>
       </c>
       <c r="E158" t="n">
-        <v>0.1340500131057972</v>
+        <v>0.01487571032741569</v>
       </c>
       <c r="F158" t="n">
-        <v>5.156583723518836e-10</v>
+        <v>4.402854582557752e-10</v>
       </c>
       <c r="G158" t="n">
-        <v>0.0006740214472687316</v>
+        <v>0.01939293838618047</v>
       </c>
       <c r="H158" t="n">
-        <v>0.0001075062859878106</v>
+        <v>0.0001823684486615437</v>
       </c>
       <c r="I158" t="n">
-        <v>2.221130359679164e-14</v>
+        <v>2.221652935761394e-14</v>
       </c>
       <c r="J158" t="n">
-        <v>0.0001913710826848765</v>
+        <v>0.0002330404342145051</v>
       </c>
       <c r="K158" t="n">
-        <v>8.007003335532834e-07</v>
+        <v>1.40090540438933e-06</v>
       </c>
       <c r="L158" t="n">
-        <v>2.403663270471959e-05</v>
+        <v>0.0001014014713634531</v>
       </c>
       <c r="M158" t="n">
-        <v>0.0001415357528812224</v>
+        <v>0.0001088444783800625</v>
       </c>
       <c r="N158" t="n">
-        <v>0.834538499900798</v>
+        <v>0.9203048759626568</v>
       </c>
       <c r="O158" t="n">
-        <v>0.008684905470064194</v>
+        <v>0.03808901133918724</v>
       </c>
       <c r="P158" t="n">
-        <v>0.834538499900798</v>
+        <v>0.9203048759626568</v>
       </c>
       <c r="Q158" t="inlineStr">
         <is>
@@ -10263,115 +10263,115 @@
     <row r="159">
       <c r="A159" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT66097.fa</t>
+          <t>even_MAG-GUT67224.fa</t>
         </is>
       </c>
       <c r="B159" t="n">
-        <v>0.09507667894992636</v>
+        <v>0.8787827559524791</v>
       </c>
       <c r="C159" t="n">
-        <v>0.891840023561509</v>
+        <v>3.427558901978907e-05</v>
       </c>
       <c r="D159" t="n">
-        <v>0.0001950578211817993</v>
+        <v>0.0001919530535735544</v>
       </c>
       <c r="E159" t="n">
-        <v>8.14976629110051e-05</v>
+        <v>1.683728272350048e-05</v>
       </c>
       <c r="F159" t="n">
-        <v>3.368845999891598e-11</v>
+        <v>0.000134609153252919</v>
       </c>
       <c r="G159" t="n">
-        <v>0.0001122862541810799</v>
+        <v>0.0003568729061073766</v>
       </c>
       <c r="H159" t="n">
-        <v>0.0002483016342807375</v>
+        <v>0.1146305428605151</v>
       </c>
       <c r="I159" t="n">
-        <v>2.220385936111391e-14</v>
+        <v>1.314979311447141e-13</v>
       </c>
       <c r="J159" t="n">
-        <v>0.008283871626376029</v>
+        <v>2.02357681752908e-07</v>
       </c>
       <c r="K159" t="n">
-        <v>2.501218375421021e-05</v>
+        <v>1.655712830005964e-09</v>
       </c>
       <c r="L159" t="n">
-        <v>0.0006148217893487157</v>
+        <v>0.003287593390271774</v>
       </c>
       <c r="M159" t="n">
-        <v>0.003506232239548602</v>
+        <v>0.000385857040521389</v>
       </c>
       <c r="N159" t="n">
-        <v>1.404888058400337e-10</v>
+        <v>4.615899797834272e-12</v>
       </c>
       <c r="O159" t="n">
-        <v>1.621610278301588e-05</v>
+        <v>0.002178498753393719</v>
       </c>
       <c r="P159" t="n">
-        <v>0.891840023561509</v>
+        <v>0.8787827559524791</v>
       </c>
       <c r="Q159" t="inlineStr">
         <is>
-          <t>f__Barnesiellaceae</t>
+          <t>f__Bacteroidaceae</t>
         </is>
       </c>
       <c r="R159" t="inlineStr">
         <is>
-          <t>f__Barnesiellaceae</t>
+          <t>f__Bacteroidaceae</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT66701.fa</t>
+          <t>even_MAG-GUT68072.fa</t>
         </is>
       </c>
       <c r="B160" t="n">
-        <v>9.289175922329052e-05</v>
+        <v>0.01744825990218224</v>
       </c>
       <c r="C160" t="n">
-        <v>0.002447446122132513</v>
+        <v>0.09224339471514215</v>
       </c>
       <c r="D160" t="n">
-        <v>0.004170069924872322</v>
+        <v>0.05494283934129605</v>
       </c>
       <c r="E160" t="n">
-        <v>0.01487571032741569</v>
+        <v>0.007162137011068074</v>
       </c>
       <c r="F160" t="n">
-        <v>4.402854582557752e-10</v>
+        <v>6.848291653044532e-08</v>
       </c>
       <c r="G160" t="n">
-        <v>0.01939293838618047</v>
+        <v>0.1484379271303143</v>
       </c>
       <c r="H160" t="n">
-        <v>0.0001823684486615437</v>
+        <v>0.006251541457247325</v>
       </c>
       <c r="I160" t="n">
-        <v>2.221652935761394e-14</v>
+        <v>3.838634592211486e-13</v>
       </c>
       <c r="J160" t="n">
-        <v>0.0002330404342145051</v>
+        <v>0.09888741387348628</v>
       </c>
       <c r="K160" t="n">
-        <v>1.40090540438933e-06</v>
+        <v>0.0003487061855477123</v>
       </c>
       <c r="L160" t="n">
-        <v>0.0001014014713634531</v>
+        <v>0.04045352808387243</v>
       </c>
       <c r="M160" t="n">
-        <v>0.0001088444783800625</v>
+        <v>0.04594643676345078</v>
       </c>
       <c r="N160" t="n">
-        <v>0.9203048759626568</v>
+        <v>0.458931035645547</v>
       </c>
       <c r="O160" t="n">
-        <v>0.03808901133918724</v>
+        <v>0.02894671140754526</v>
       </c>
       <c r="P160" t="n">
-        <v>0.9203048759626568</v>
+        <v>0.458931035645547</v>
       </c>
       <c r="Q160" t="inlineStr">
         <is>
@@ -10380,246 +10380,246 @@
       </c>
       <c r="R160" t="inlineStr">
         <is>
-          <t>f__UBA11471</t>
+          <t>f__UBA11471(reject)</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT67224.fa</t>
+          <t>even_MAG-GUT68311.fa</t>
         </is>
       </c>
       <c r="B161" t="n">
-        <v>0.8787827559524791</v>
+        <v>0.0001373943762861751</v>
       </c>
       <c r="C161" t="n">
-        <v>3.427558901978907e-05</v>
+        <v>0.1123072959523652</v>
       </c>
       <c r="D161" t="n">
-        <v>0.0001919530535735544</v>
+        <v>0.0002164088895145033</v>
       </c>
       <c r="E161" t="n">
-        <v>1.683728272350048e-05</v>
+        <v>4.992512420126309e-05</v>
       </c>
       <c r="F161" t="n">
-        <v>0.000134609153252919</v>
+        <v>1.698399910478632e-09</v>
       </c>
       <c r="G161" t="n">
-        <v>0.0003568729061073766</v>
+        <v>0.03744574128988484</v>
       </c>
       <c r="H161" t="n">
-        <v>0.1146305428605151</v>
+        <v>0.000169295193222904</v>
       </c>
       <c r="I161" t="n">
-        <v>1.314979311447141e-13</v>
+        <v>2.222518668965747e-14</v>
       </c>
       <c r="J161" t="n">
-        <v>2.02357681752908e-07</v>
+        <v>5.921104956199553e-05</v>
       </c>
       <c r="K161" t="n">
-        <v>1.655712830005964e-09</v>
+        <v>2.598876779458202e-05</v>
       </c>
       <c r="L161" t="n">
-        <v>0.003287593390271774</v>
+        <v>0.0009981754763590416</v>
       </c>
       <c r="M161" t="n">
-        <v>0.000385857040521389</v>
+        <v>0.001233326481022321</v>
       </c>
       <c r="N161" t="n">
-        <v>4.615899797834272e-12</v>
+        <v>0.8471227333706679</v>
       </c>
       <c r="O161" t="n">
-        <v>0.002178498753393719</v>
+        <v>0.0002345023306970167</v>
       </c>
       <c r="P161" t="n">
-        <v>0.8787827559524791</v>
+        <v>0.8471227333706679</v>
       </c>
       <c r="Q161" t="inlineStr">
         <is>
-          <t>f__Bacteroidaceae</t>
+          <t>f__UBA11471</t>
         </is>
       </c>
       <c r="R161" t="inlineStr">
         <is>
-          <t>f__Bacteroidaceae</t>
+          <t>f__UBA11471</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT68072.fa</t>
+          <t>even_MAG-GUT68785.fa</t>
         </is>
       </c>
       <c r="B162" t="n">
-        <v>0.01744825990218224</v>
+        <v>0.986034518641951</v>
       </c>
       <c r="C162" t="n">
-        <v>0.09224339471514215</v>
+        <v>0.0001663480918734603</v>
       </c>
       <c r="D162" t="n">
-        <v>0.05494283934129605</v>
+        <v>0.002847119814841257</v>
       </c>
       <c r="E162" t="n">
-        <v>0.007162137011068074</v>
+        <v>1.634304910197352e-06</v>
       </c>
       <c r="F162" t="n">
-        <v>6.848291653044532e-08</v>
+        <v>1.466465936272765e-09</v>
       </c>
       <c r="G162" t="n">
-        <v>0.1484379271303143</v>
+        <v>0.0001237401186669485</v>
       </c>
       <c r="H162" t="n">
-        <v>0.006251541457247325</v>
+        <v>0.0006871286029417872</v>
       </c>
       <c r="I162" t="n">
-        <v>3.838634592211486e-13</v>
+        <v>2.220149865294152e-14</v>
       </c>
       <c r="J162" t="n">
-        <v>0.09888741387348628</v>
+        <v>0.001466965735233159</v>
       </c>
       <c r="K162" t="n">
-        <v>0.0003487061855477123</v>
+        <v>9.481425913807899e-07</v>
       </c>
       <c r="L162" t="n">
-        <v>0.04045352808387243</v>
+        <v>0.0003327617642142111</v>
       </c>
       <c r="M162" t="n">
-        <v>0.04594643676345078</v>
+        <v>0.003973427047282621</v>
       </c>
       <c r="N162" t="n">
-        <v>0.458931035645547</v>
+        <v>2.220149865294152e-14</v>
       </c>
       <c r="O162" t="n">
-        <v>0.02894671140754526</v>
+        <v>0.004365406268983569</v>
       </c>
       <c r="P162" t="n">
-        <v>0.458931035645547</v>
+        <v>0.986034518641951</v>
       </c>
       <c r="Q162" t="inlineStr">
         <is>
-          <t>f__UBA11471</t>
+          <t>f__Bacteroidaceae</t>
         </is>
       </c>
       <c r="R162" t="inlineStr">
         <is>
-          <t>f__UBA11471(reject)</t>
+          <t>f__Bacteroidaceae</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT68311.fa</t>
+          <t>even_MAG-GUT69465.fa</t>
         </is>
       </c>
       <c r="B163" t="n">
-        <v>0.0001373943762861751</v>
+        <v>0.8044368532456563</v>
       </c>
       <c r="C163" t="n">
-        <v>0.1123072959523652</v>
+        <v>6.875503120193071e-06</v>
       </c>
       <c r="D163" t="n">
-        <v>0.0002164088895145033</v>
+        <v>0.001260663678968073</v>
       </c>
       <c r="E163" t="n">
-        <v>4.992512420126309e-05</v>
+        <v>6.990640887094676e-05</v>
       </c>
       <c r="F163" t="n">
-        <v>1.698399910478632e-09</v>
+        <v>6.780229583422488e-09</v>
       </c>
       <c r="G163" t="n">
-        <v>0.03744574128988484</v>
+        <v>0.09324438273841397</v>
       </c>
       <c r="H163" t="n">
-        <v>0.000169295193222904</v>
+        <v>0.08723966280468134</v>
       </c>
       <c r="I163" t="n">
-        <v>2.222518668965747e-14</v>
+        <v>3.518695224835801e-14</v>
       </c>
       <c r="J163" t="n">
-        <v>5.921104956199553e-05</v>
+        <v>7.696924853013741e-07</v>
       </c>
       <c r="K163" t="n">
-        <v>2.598876779458202e-05</v>
+        <v>1.531650446517959e-06</v>
       </c>
       <c r="L163" t="n">
-        <v>0.0009981754763590416</v>
+        <v>0.003001933033059265</v>
       </c>
       <c r="M163" t="n">
-        <v>0.001233326481022321</v>
+        <v>0.01015334807282833</v>
       </c>
       <c r="N163" t="n">
-        <v>0.8471227333706679</v>
+        <v>3.518695224836435e-14</v>
       </c>
       <c r="O163" t="n">
-        <v>0.0002345023306970167</v>
+        <v>0.0005840663911696564</v>
       </c>
       <c r="P163" t="n">
-        <v>0.8471227333706679</v>
+        <v>0.8044368532456563</v>
       </c>
       <c r="Q163" t="inlineStr">
         <is>
-          <t>f__UBA11471</t>
+          <t>f__Bacteroidaceae</t>
         </is>
       </c>
       <c r="R163" t="inlineStr">
         <is>
-          <t>f__UBA11471</t>
+          <t>f__Bacteroidaceae</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT68785.fa</t>
+          <t>even_MAG-GUT6955.fa</t>
         </is>
       </c>
       <c r="B164" t="n">
-        <v>0.986034518641951</v>
+        <v>0.9841402537117248</v>
       </c>
       <c r="C164" t="n">
-        <v>0.0001663480918734603</v>
+        <v>4.218171091513676e-06</v>
       </c>
       <c r="D164" t="n">
-        <v>0.002847119814841257</v>
+        <v>6.432918873975119e-05</v>
       </c>
       <c r="E164" t="n">
-        <v>1.634304910197352e-06</v>
+        <v>5.417962746748702e-06</v>
       </c>
       <c r="F164" t="n">
-        <v>1.466465936272765e-09</v>
+        <v>1.257682375671832e-11</v>
       </c>
       <c r="G164" t="n">
-        <v>0.0001237401186669485</v>
+        <v>0.0003200792775747955</v>
       </c>
       <c r="H164" t="n">
-        <v>0.0006871286029417872</v>
+        <v>0.01106839007250459</v>
       </c>
       <c r="I164" t="n">
-        <v>2.220149865294152e-14</v>
+        <v>2.220269830428801e-14</v>
       </c>
       <c r="J164" t="n">
-        <v>0.001466965735233159</v>
+        <v>3.61894941772695e-08</v>
       </c>
       <c r="K164" t="n">
-        <v>9.481425913807899e-07</v>
+        <v>4.308771221361263e-08</v>
       </c>
       <c r="L164" t="n">
-        <v>0.0003327617642142111</v>
+        <v>0.003236864029343562</v>
       </c>
       <c r="M164" t="n">
-        <v>0.003973427047282621</v>
+        <v>0.001153367710384708</v>
       </c>
       <c r="N164" t="n">
-        <v>2.220149865294152e-14</v>
+        <v>2.763974124539172e-09</v>
       </c>
       <c r="O164" t="n">
-        <v>0.004365406268983569</v>
+        <v>6.997822110031119e-06</v>
       </c>
       <c r="P164" t="n">
-        <v>0.986034518641951</v>
+        <v>0.9841402537117248</v>
       </c>
       <c r="Q164" t="inlineStr">
         <is>
@@ -10635,53 +10635,53 @@
     <row r="165">
       <c r="A165" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT69465.fa</t>
+          <t>even_MAG-GUT6968.fa</t>
         </is>
       </c>
       <c r="B165" t="n">
-        <v>0.8044368532456563</v>
+        <v>0.980755001058593</v>
       </c>
       <c r="C165" t="n">
-        <v>6.875503120193071e-06</v>
+        <v>2.141257202436376e-07</v>
       </c>
       <c r="D165" t="n">
-        <v>0.001260663678968073</v>
+        <v>4.252847141334548e-06</v>
       </c>
       <c r="E165" t="n">
-        <v>6.990640887094676e-05</v>
+        <v>9.726144358495184e-06</v>
       </c>
       <c r="F165" t="n">
-        <v>6.780229583422488e-09</v>
+        <v>5.726765948241341e-10</v>
       </c>
       <c r="G165" t="n">
-        <v>0.09324438273841397</v>
+        <v>1.69211763397795e-05</v>
       </c>
       <c r="H165" t="n">
-        <v>0.08723966280468134</v>
+        <v>0.01875951537078497</v>
       </c>
       <c r="I165" t="n">
-        <v>3.518695224835801e-14</v>
+        <v>2.220040651789068e-14</v>
       </c>
       <c r="J165" t="n">
-        <v>7.696924853013741e-07</v>
+        <v>1.583688214757175e-08</v>
       </c>
       <c r="K165" t="n">
-        <v>1.531650446517959e-06</v>
+        <v>2.274980951758639e-09</v>
       </c>
       <c r="L165" t="n">
-        <v>0.003001933033059265</v>
+        <v>0.0004100332483007898</v>
       </c>
       <c r="M165" t="n">
-        <v>0.01015334807282833</v>
+        <v>4.055418239865159e-05</v>
       </c>
       <c r="N165" t="n">
-        <v>3.518695224836435e-14</v>
+        <v>6.560942693459834e-09</v>
       </c>
       <c r="O165" t="n">
-        <v>0.0005840663911696564</v>
+        <v>3.756600858335088e-06</v>
       </c>
       <c r="P165" t="n">
-        <v>0.8044368532456563</v>
+        <v>0.980755001058593</v>
       </c>
       <c r="Q165" t="inlineStr">
         <is>
@@ -10697,177 +10697,177 @@
     <row r="166">
       <c r="A166" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT6955.fa</t>
+          <t>even_MAG-GUT7012.fa</t>
         </is>
       </c>
       <c r="B166" t="n">
-        <v>0.9841402537117248</v>
+        <v>0.0002320101239621215</v>
       </c>
       <c r="C166" t="n">
-        <v>4.218171091513676e-06</v>
+        <v>0.01465768720372533</v>
       </c>
       <c r="D166" t="n">
-        <v>6.432918873975119e-05</v>
+        <v>0.0004156476533171465</v>
       </c>
       <c r="E166" t="n">
-        <v>5.417962746748702e-06</v>
+        <v>0.0001495334844489401</v>
       </c>
       <c r="F166" t="n">
-        <v>1.257682375671832e-11</v>
+        <v>2.49424175888415e-08</v>
       </c>
       <c r="G166" t="n">
-        <v>0.0003200792775747955</v>
+        <v>0.05060950332268022</v>
       </c>
       <c r="H166" t="n">
-        <v>0.01106839007250459</v>
+        <v>7.798645624710746e-05</v>
       </c>
       <c r="I166" t="n">
-        <v>2.220269830428801e-14</v>
+        <v>2.22089931302694e-14</v>
       </c>
       <c r="J166" t="n">
-        <v>3.61894941772695e-08</v>
+        <v>0.001000917439196726</v>
       </c>
       <c r="K166" t="n">
-        <v>4.308771221361263e-08</v>
+        <v>1.574714502123208e-06</v>
       </c>
       <c r="L166" t="n">
-        <v>0.003236864029343562</v>
+        <v>0.0006962335229040568</v>
       </c>
       <c r="M166" t="n">
-        <v>0.001153367710384708</v>
+        <v>0.0008097640699939589</v>
       </c>
       <c r="N166" t="n">
-        <v>2.763974124539172e-09</v>
+        <v>0.9282597202008023</v>
       </c>
       <c r="O166" t="n">
-        <v>6.997822110031119e-06</v>
+        <v>0.003089396865780095</v>
       </c>
       <c r="P166" t="n">
-        <v>0.9841402537117248</v>
+        <v>0.9282597202008023</v>
       </c>
       <c r="Q166" t="inlineStr">
         <is>
-          <t>f__Bacteroidaceae</t>
+          <t>f__UBA11471</t>
         </is>
       </c>
       <c r="R166" t="inlineStr">
         <is>
-          <t>f__Bacteroidaceae</t>
+          <t>f__UBA11471</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT6968.fa</t>
+          <t>even_MAG-GUT70404.fa</t>
         </is>
       </c>
       <c r="B167" t="n">
-        <v>0.980755001058593</v>
+        <v>0.1230293325558636</v>
       </c>
       <c r="C167" t="n">
-        <v>2.141257202436376e-07</v>
+        <v>0.6757292468072508</v>
       </c>
       <c r="D167" t="n">
-        <v>4.252847141334548e-06</v>
+        <v>0.004048454712243101</v>
       </c>
       <c r="E167" t="n">
-        <v>9.726144358495184e-06</v>
+        <v>0.04619572953057463</v>
       </c>
       <c r="F167" t="n">
-        <v>5.726765948241341e-10</v>
+        <v>1.283277625422866e-08</v>
       </c>
       <c r="G167" t="n">
-        <v>1.69211763397795e-05</v>
+        <v>0.001016931982391718</v>
       </c>
       <c r="H167" t="n">
-        <v>0.01875951537078497</v>
+        <v>0.006037822072264532</v>
       </c>
       <c r="I167" t="n">
-        <v>2.220040651789068e-14</v>
+        <v>2.340067047946751e-13</v>
       </c>
       <c r="J167" t="n">
-        <v>1.583688214757175e-08</v>
+        <v>0.005561638122499511</v>
       </c>
       <c r="K167" t="n">
-        <v>2.274980951758639e-09</v>
+        <v>0.0004010249783499364</v>
       </c>
       <c r="L167" t="n">
-        <v>0.0004100332483007898</v>
+        <v>0.01242786518971467</v>
       </c>
       <c r="M167" t="n">
-        <v>4.055418239865159e-05</v>
+        <v>0.1142785117015537</v>
       </c>
       <c r="N167" t="n">
-        <v>6.560942693459834e-09</v>
+        <v>1.754230589110656e-06</v>
       </c>
       <c r="O167" t="n">
-        <v>3.756600858335088e-06</v>
+        <v>0.01127167528369447</v>
       </c>
       <c r="P167" t="n">
-        <v>0.980755001058593</v>
+        <v>0.6757292468072508</v>
       </c>
       <c r="Q167" t="inlineStr">
         <is>
-          <t>f__Bacteroidaceae</t>
+          <t>f__Barnesiellaceae</t>
         </is>
       </c>
       <c r="R167" t="inlineStr">
         <is>
-          <t>f__Bacteroidaceae</t>
+          <t>f__Barnesiellaceae</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT7012.fa</t>
+          <t>even_MAG-GUT70913.fa</t>
         </is>
       </c>
       <c r="B168" t="n">
-        <v>0.0002320101239621215</v>
+        <v>0.0005198693230405223</v>
       </c>
       <c r="C168" t="n">
-        <v>0.01465768720372533</v>
+        <v>0.001826933803411297</v>
       </c>
       <c r="D168" t="n">
-        <v>0.0004156476533171465</v>
+        <v>0.01342826882424872</v>
       </c>
       <c r="E168" t="n">
-        <v>0.0001495334844489401</v>
+        <v>0.09699587369592676</v>
       </c>
       <c r="F168" t="n">
-        <v>2.49424175888415e-08</v>
+        <v>1.236638336418829e-09</v>
       </c>
       <c r="G168" t="n">
-        <v>0.05060950332268022</v>
+        <v>0.003181458035095099</v>
       </c>
       <c r="H168" t="n">
-        <v>7.798645624710746e-05</v>
+        <v>8.579398231198509e-05</v>
       </c>
       <c r="I168" t="n">
-        <v>2.22089931302694e-14</v>
+        <v>2.221874865413309e-14</v>
       </c>
       <c r="J168" t="n">
-        <v>0.001000917439196726</v>
+        <v>0.0001952394144124363</v>
       </c>
       <c r="K168" t="n">
-        <v>1.574714502123208e-06</v>
+        <v>5.816162666748707e-07</v>
       </c>
       <c r="L168" t="n">
-        <v>0.0006962335229040568</v>
+        <v>9.941619906231391e-06</v>
       </c>
       <c r="M168" t="n">
-        <v>0.0008097640699939589</v>
+        <v>4.34042607768388e-05</v>
       </c>
       <c r="N168" t="n">
-        <v>0.9282597202008023</v>
+        <v>0.8456451764879075</v>
       </c>
       <c r="O168" t="n">
-        <v>0.003089396865780095</v>
+        <v>0.03806745770003536</v>
       </c>
       <c r="P168" t="n">
-        <v>0.9282597202008023</v>
+        <v>0.8456451764879075</v>
       </c>
       <c r="Q168" t="inlineStr">
         <is>
@@ -10883,115 +10883,115 @@
     <row r="169">
       <c r="A169" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT70404.fa</t>
+          <t>even_MAG-GUT71577.fa</t>
         </is>
       </c>
       <c r="B169" t="n">
-        <v>0.1230293325558636</v>
+        <v>0.1198313421214825</v>
       </c>
       <c r="C169" t="n">
-        <v>0.6757292468072508</v>
+        <v>0.0004220444882119752</v>
       </c>
       <c r="D169" t="n">
-        <v>0.004048454712243101</v>
+        <v>1.739879540584248e-05</v>
       </c>
       <c r="E169" t="n">
-        <v>0.04619572953057463</v>
+        <v>1.071470618981244e-09</v>
       </c>
       <c r="F169" t="n">
-        <v>1.283277625422866e-08</v>
+        <v>4.715877123706091e-10</v>
       </c>
       <c r="G169" t="n">
-        <v>0.001016931982391718</v>
+        <v>4.804170094048734e-06</v>
       </c>
       <c r="H169" t="n">
-        <v>0.006037822072264532</v>
+        <v>0.002686045152393914</v>
       </c>
       <c r="I169" t="n">
-        <v>2.340067047946751e-13</v>
+        <v>4.006910978879539e-13</v>
       </c>
       <c r="J169" t="n">
-        <v>0.005561638122499511</v>
+        <v>1.355278528281242e-12</v>
       </c>
       <c r="K169" t="n">
-        <v>0.0004010249783499364</v>
+        <v>6.398067769481238e-11</v>
       </c>
       <c r="L169" t="n">
-        <v>0.01242786518971467</v>
+        <v>0.8478418906184534</v>
       </c>
       <c r="M169" t="n">
-        <v>0.1142785117015537</v>
+        <v>0.01966778070093066</v>
       </c>
       <c r="N169" t="n">
-        <v>1.754230589110656e-06</v>
+        <v>4.006910978880249e-13</v>
       </c>
       <c r="O169" t="n">
-        <v>0.01127167528369447</v>
+        <v>0.009528692343831829</v>
       </c>
       <c r="P169" t="n">
-        <v>0.6757292468072508</v>
+        <v>0.8478418906184534</v>
       </c>
       <c r="Q169" t="inlineStr">
         <is>
-          <t>f__Barnesiellaceae</t>
+          <t>f__Rikenellaceae</t>
         </is>
       </c>
       <c r="R169" t="inlineStr">
         <is>
-          <t>f__Barnesiellaceae</t>
+          <t>f__Rikenellaceae</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT70913.fa</t>
+          <t>even_MAG-GUT722.fa</t>
         </is>
       </c>
       <c r="B170" t="n">
-        <v>0.0005198693230405223</v>
+        <v>0.00158078097248612</v>
       </c>
       <c r="C170" t="n">
-        <v>0.001826933803411297</v>
+        <v>0.04539983472087469</v>
       </c>
       <c r="D170" t="n">
-        <v>0.01342826882424872</v>
+        <v>0.005380507306775409</v>
       </c>
       <c r="E170" t="n">
-        <v>0.09699587369592676</v>
+        <v>0.01018470770751308</v>
       </c>
       <c r="F170" t="n">
-        <v>1.236638336418829e-09</v>
+        <v>4.410520589426108e-09</v>
       </c>
       <c r="G170" t="n">
-        <v>0.003181458035095099</v>
+        <v>0.06044734362910255</v>
       </c>
       <c r="H170" t="n">
-        <v>8.579398231198509e-05</v>
+        <v>0.0007186462411705064</v>
       </c>
       <c r="I170" t="n">
-        <v>2.221874865413309e-14</v>
+        <v>6.346848041125292e-14</v>
       </c>
       <c r="J170" t="n">
-        <v>0.0001952394144124363</v>
+        <v>0.001336338834745007</v>
       </c>
       <c r="K170" t="n">
-        <v>5.816162666748707e-07</v>
+        <v>3.351400744801386e-06</v>
       </c>
       <c r="L170" t="n">
-        <v>9.941619906231391e-06</v>
+        <v>0.0007361075263987407</v>
       </c>
       <c r="M170" t="n">
-        <v>4.34042607768388e-05</v>
+        <v>0.005624633156769991</v>
       </c>
       <c r="N170" t="n">
-        <v>0.8456451764879075</v>
+        <v>0.8496281314261389</v>
       </c>
       <c r="O170" t="n">
-        <v>0.03806745770003536</v>
+        <v>0.01895961266669625</v>
       </c>
       <c r="P170" t="n">
-        <v>0.8456451764879075</v>
+        <v>0.8496281314261389</v>
       </c>
       <c r="Q170" t="inlineStr">
         <is>
@@ -11007,115 +11007,115 @@
     <row r="171">
       <c r="A171" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT71577.fa</t>
+          <t>even_MAG-GUT72293.fa</t>
         </is>
       </c>
       <c r="B171" t="n">
-        <v>0.1198313421214825</v>
+        <v>0.0007283856666628562</v>
       </c>
       <c r="C171" t="n">
-        <v>0.0004220444882119752</v>
+        <v>0.2998916902215458</v>
       </c>
       <c r="D171" t="n">
-        <v>1.739879540584248e-05</v>
+        <v>0.001449867738655962</v>
       </c>
       <c r="E171" t="n">
-        <v>1.071470618981244e-09</v>
+        <v>0.0003692693005250281</v>
       </c>
       <c r="F171" t="n">
-        <v>4.715877123706091e-10</v>
+        <v>3.630457952111481e-10</v>
       </c>
       <c r="G171" t="n">
-        <v>4.804170094048734e-06</v>
+        <v>0.1602475080986851</v>
       </c>
       <c r="H171" t="n">
-        <v>0.002686045152393914</v>
+        <v>0.002793563723432387</v>
       </c>
       <c r="I171" t="n">
-        <v>4.006910978879539e-13</v>
+        <v>9.551041477021745e-14</v>
       </c>
       <c r="J171" t="n">
-        <v>1.355278528281242e-12</v>
+        <v>0.0006912371152126317</v>
       </c>
       <c r="K171" t="n">
-        <v>6.398067769481238e-11</v>
+        <v>0.0004835242690202753</v>
       </c>
       <c r="L171" t="n">
-        <v>0.8478418906184534</v>
+        <v>0.01656858835748745</v>
       </c>
       <c r="M171" t="n">
-        <v>0.01966778070093066</v>
+        <v>0.03658691258861483</v>
       </c>
       <c r="N171" t="n">
-        <v>4.006910978880249e-13</v>
+        <v>0.4773996309872666</v>
       </c>
       <c r="O171" t="n">
-        <v>0.009528692343831829</v>
+        <v>0.002789821569749716</v>
       </c>
       <c r="P171" t="n">
-        <v>0.8478418906184534</v>
+        <v>0.4773996309872666</v>
       </c>
       <c r="Q171" t="inlineStr">
         <is>
-          <t>f__Rikenellaceae</t>
+          <t>f__UBA11471</t>
         </is>
       </c>
       <c r="R171" t="inlineStr">
         <is>
-          <t>f__Rikenellaceae</t>
+          <t>f__UBA11471(reject)</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT722.fa</t>
+          <t>even_MAG-GUT72929.fa</t>
         </is>
       </c>
       <c r="B172" t="n">
-        <v>0.00158078097248612</v>
+        <v>0.0004119123626306389</v>
       </c>
       <c r="C172" t="n">
-        <v>0.04539983472087469</v>
+        <v>0.0499700699696781</v>
       </c>
       <c r="D172" t="n">
-        <v>0.005380507306775409</v>
+        <v>0.01241960196952354</v>
       </c>
       <c r="E172" t="n">
-        <v>0.01018470770751308</v>
+        <v>0.0263884267447015</v>
       </c>
       <c r="F172" t="n">
-        <v>4.410520589426108e-09</v>
+        <v>7.349764455775818e-10</v>
       </c>
       <c r="G172" t="n">
-        <v>0.06044734362910255</v>
+        <v>0.105925601334979</v>
       </c>
       <c r="H172" t="n">
-        <v>0.0007186462411705064</v>
+        <v>0.002233389516807684</v>
       </c>
       <c r="I172" t="n">
-        <v>6.346848041125292e-14</v>
+        <v>8.317877578596689e-14</v>
       </c>
       <c r="J172" t="n">
-        <v>0.001336338834745007</v>
+        <v>0.003693666149438293</v>
       </c>
       <c r="K172" t="n">
-        <v>3.351400744801386e-06</v>
+        <v>1.841639753796321e-05</v>
       </c>
       <c r="L172" t="n">
-        <v>0.0007361075263987407</v>
+        <v>0.0009457896292902968</v>
       </c>
       <c r="M172" t="n">
-        <v>0.005624633156769991</v>
+        <v>0.004447082310699506</v>
       </c>
       <c r="N172" t="n">
-        <v>0.8496281314261389</v>
+        <v>0.7061929429908673</v>
       </c>
       <c r="O172" t="n">
-        <v>0.01895961266669625</v>
+        <v>0.08735309988878634</v>
       </c>
       <c r="P172" t="n">
-        <v>0.8496281314261389</v>
+        <v>0.7061929429908673</v>
       </c>
       <c r="Q172" t="inlineStr">
         <is>
@@ -11131,301 +11131,301 @@
     <row r="173">
       <c r="A173" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT72293.fa</t>
+          <t>even_MAG-GUT73862.fa</t>
         </is>
       </c>
       <c r="B173" t="n">
-        <v>0.0007283856666628562</v>
+        <v>0.05904254411751328</v>
       </c>
       <c r="C173" t="n">
-        <v>0.2998916902215458</v>
+        <v>6.83560573317412e-05</v>
       </c>
       <c r="D173" t="n">
-        <v>0.001449867738655962</v>
+        <v>1.058502015578754e-06</v>
       </c>
       <c r="E173" t="n">
-        <v>0.0003692693005250281</v>
+        <v>1.27209334249618e-10</v>
       </c>
       <c r="F173" t="n">
-        <v>3.630457952111481e-10</v>
+        <v>3.66575217454919e-12</v>
       </c>
       <c r="G173" t="n">
-        <v>0.1602475080986851</v>
+        <v>1.526103251787784e-06</v>
       </c>
       <c r="H173" t="n">
-        <v>0.002793563723432387</v>
+        <v>0.0008357048996853305</v>
       </c>
       <c r="I173" t="n">
-        <v>9.551041477021745e-14</v>
+        <v>3.068418889842027e-14</v>
       </c>
       <c r="J173" t="n">
-        <v>0.0006912371152126317</v>
+        <v>3.008108573210853e-13</v>
       </c>
       <c r="K173" t="n">
-        <v>0.0004835242690202753</v>
+        <v>3.997912005766095e-12</v>
       </c>
       <c r="L173" t="n">
-        <v>0.01656858835748745</v>
+        <v>0.939791722091087</v>
       </c>
       <c r="M173" t="n">
-        <v>0.03658691258861483</v>
+        <v>0.0001059043663219999</v>
       </c>
       <c r="N173" t="n">
-        <v>0.4773996309872666</v>
+        <v>3.068418889842141e-14</v>
       </c>
       <c r="O173" t="n">
-        <v>0.002789821569749716</v>
+        <v>0.0001531837275581583</v>
       </c>
       <c r="P173" t="n">
-        <v>0.4773996309872666</v>
+        <v>0.939791722091087</v>
       </c>
       <c r="Q173" t="inlineStr">
         <is>
-          <t>f__UBA11471</t>
+          <t>f__Rikenellaceae</t>
         </is>
       </c>
       <c r="R173" t="inlineStr">
         <is>
-          <t>f__UBA11471(reject)</t>
+          <t>f__Rikenellaceae</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT72929.fa</t>
+          <t>even_MAG-GUT74916.fa</t>
         </is>
       </c>
       <c r="B174" t="n">
-        <v>0.0004119123626306389</v>
+        <v>0.8805882977241317</v>
       </c>
       <c r="C174" t="n">
-        <v>0.0499700699696781</v>
+        <v>0.0001506612358703591</v>
       </c>
       <c r="D174" t="n">
-        <v>0.01241960196952354</v>
+        <v>0.001119983039004961</v>
       </c>
       <c r="E174" t="n">
-        <v>0.0263884267447015</v>
+        <v>0.0003511711332301882</v>
       </c>
       <c r="F174" t="n">
-        <v>7.349764455775818e-10</v>
+        <v>0.0003456261984858335</v>
       </c>
       <c r="G174" t="n">
-        <v>0.105925601334979</v>
+        <v>0.0008457250500149897</v>
       </c>
       <c r="H174" t="n">
-        <v>0.002233389516807684</v>
+        <v>0.06063845844778645</v>
       </c>
       <c r="I174" t="n">
-        <v>8.317877578596689e-14</v>
+        <v>4.422140939299016e-13</v>
       </c>
       <c r="J174" t="n">
-        <v>0.003693666149438293</v>
+        <v>6.598968300174508e-06</v>
       </c>
       <c r="K174" t="n">
-        <v>1.841639753796321e-05</v>
+        <v>1.119346876916578e-08</v>
       </c>
       <c r="L174" t="n">
-        <v>0.0009457896292902968</v>
+        <v>0.01779244698754151</v>
       </c>
       <c r="M174" t="n">
-        <v>0.004447082310699506</v>
+        <v>0.0333685106733549</v>
       </c>
       <c r="N174" t="n">
-        <v>0.7061929429908673</v>
+        <v>4.422140939300154e-13</v>
       </c>
       <c r="O174" t="n">
-        <v>0.08735309988878634</v>
+        <v>0.004792509347925454</v>
       </c>
       <c r="P174" t="n">
-        <v>0.7061929429908673</v>
+        <v>0.8805882977241317</v>
       </c>
       <c r="Q174" t="inlineStr">
         <is>
-          <t>f__UBA11471</t>
+          <t>f__Bacteroidaceae</t>
         </is>
       </c>
       <c r="R174" t="inlineStr">
         <is>
-          <t>f__UBA11471</t>
+          <t>f__Bacteroidaceae</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT73862.fa</t>
+          <t>even_MAG-GUT76034.fa</t>
         </is>
       </c>
       <c r="B175" t="n">
-        <v>0.05904254411751328</v>
+        <v>0.9981811374608112</v>
       </c>
       <c r="C175" t="n">
-        <v>6.83560573317412e-05</v>
+        <v>2.391843858491742e-05</v>
       </c>
       <c r="D175" t="n">
-        <v>1.058502015578754e-06</v>
+        <v>4.857665843481065e-06</v>
       </c>
       <c r="E175" t="n">
-        <v>1.27209334249618e-10</v>
+        <v>9.250168620651065e-10</v>
       </c>
       <c r="F175" t="n">
-        <v>3.66575217454919e-12</v>
+        <v>4.599891450741728e-11</v>
       </c>
       <c r="G175" t="n">
-        <v>1.526103251787784e-06</v>
+        <v>0.0006094505218706258</v>
       </c>
       <c r="H175" t="n">
-        <v>0.0008357048996853305</v>
+        <v>0.0001590051877642664</v>
       </c>
       <c r="I175" t="n">
-        <v>3.068418889842027e-14</v>
+        <v>2.224545639027716e-14</v>
       </c>
       <c r="J175" t="n">
-        <v>3.008108573210853e-13</v>
+        <v>3.367678121063781e-08</v>
       </c>
       <c r="K175" t="n">
-        <v>3.997912005766095e-12</v>
+        <v>1.886834606904152e-05</v>
       </c>
       <c r="L175" t="n">
-        <v>0.939791722091087</v>
+        <v>0.0003747553936924962</v>
       </c>
       <c r="M175" t="n">
-        <v>0.0001059043663219999</v>
+        <v>0.0002668729662230813</v>
       </c>
       <c r="N175" t="n">
-        <v>3.068418889842141e-14</v>
+        <v>2.224545639027716e-14</v>
       </c>
       <c r="O175" t="n">
-        <v>0.0001531837275581583</v>
+        <v>0.0003610993712994276</v>
       </c>
       <c r="P175" t="n">
-        <v>0.939791722091087</v>
+        <v>0.9981811374608112</v>
       </c>
       <c r="Q175" t="inlineStr">
         <is>
-          <t>f__Rikenellaceae</t>
+          <t>f__Bacteroidaceae</t>
         </is>
       </c>
       <c r="R175" t="inlineStr">
         <is>
-          <t>f__Rikenellaceae</t>
+          <t>f__Bacteroidaceae</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT74916.fa</t>
+          <t>even_MAG-GUT761.fa</t>
         </is>
       </c>
       <c r="B176" t="n">
-        <v>0.8805882977241317</v>
+        <v>0.05449601874258773</v>
       </c>
       <c r="C176" t="n">
-        <v>0.0001506612358703591</v>
+        <v>0.1426200663577402</v>
       </c>
       <c r="D176" t="n">
-        <v>0.001119983039004961</v>
+        <v>0.08906211143015949</v>
       </c>
       <c r="E176" t="n">
-        <v>0.0003511711332301882</v>
+        <v>0.06883528079358847</v>
       </c>
       <c r="F176" t="n">
-        <v>0.0003456261984858335</v>
+        <v>1.317757286855602e-08</v>
       </c>
       <c r="G176" t="n">
-        <v>0.0008457250500149897</v>
+        <v>0.1719431369830225</v>
       </c>
       <c r="H176" t="n">
-        <v>0.06063845844778645</v>
+        <v>0.02333612378135554</v>
       </c>
       <c r="I176" t="n">
-        <v>4.422140939299016e-13</v>
+        <v>1.956464305803454e-12</v>
       </c>
       <c r="J176" t="n">
-        <v>6.598968300174508e-06</v>
+        <v>0.04879335902421647</v>
       </c>
       <c r="K176" t="n">
-        <v>1.119346876916578e-08</v>
+        <v>0.0001316189479290911</v>
       </c>
       <c r="L176" t="n">
-        <v>0.01779244698754151</v>
+        <v>0.06909427053526936</v>
       </c>
       <c r="M176" t="n">
-        <v>0.0333685106733549</v>
+        <v>0.06773093240023398</v>
       </c>
       <c r="N176" t="n">
-        <v>4.422140939300154e-13</v>
+        <v>0.1376491605150312</v>
       </c>
       <c r="O176" t="n">
-        <v>0.004792509347925454</v>
+        <v>0.1263079073093367</v>
       </c>
       <c r="P176" t="n">
-        <v>0.8805882977241317</v>
+        <v>0.1719431369830225</v>
       </c>
       <c r="Q176" t="inlineStr">
         <is>
-          <t>f__Bacteroidaceae</t>
+          <t>f__Marinifilaceae</t>
         </is>
       </c>
       <c r="R176" t="inlineStr">
         <is>
-          <t>f__Bacteroidaceae</t>
+          <t>f__Marinifilaceae(reject)</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT76034.fa</t>
+          <t>even_MAG-GUT76518.fa</t>
         </is>
       </c>
       <c r="B177" t="n">
-        <v>0.9981811374608112</v>
+        <v>0.5694947408482915</v>
       </c>
       <c r="C177" t="n">
-        <v>2.391843858491742e-05</v>
+        <v>0.006387108546039041</v>
       </c>
       <c r="D177" t="n">
-        <v>4.857665843481065e-06</v>
+        <v>0.0002747653287209467</v>
       </c>
       <c r="E177" t="n">
-        <v>9.250168620651065e-10</v>
+        <v>3.530758147241401e-08</v>
       </c>
       <c r="F177" t="n">
-        <v>4.599891450741728e-11</v>
+        <v>4.390715477164301e-10</v>
       </c>
       <c r="G177" t="n">
-        <v>0.0006094505218706258</v>
+        <v>0.0004359550284598596</v>
       </c>
       <c r="H177" t="n">
-        <v>0.0001590051877642664</v>
+        <v>0.1062665421807105</v>
       </c>
       <c r="I177" t="n">
-        <v>2.224545639027716e-14</v>
+        <v>1.929354515352628e-12</v>
       </c>
       <c r="J177" t="n">
-        <v>3.367678121063781e-08</v>
+        <v>2.362515036875707e-09</v>
       </c>
       <c r="K177" t="n">
-        <v>1.886834606904152e-05</v>
+        <v>1.96821020372194e-10</v>
       </c>
       <c r="L177" t="n">
-        <v>0.0003747553936924962</v>
+        <v>0.2640405021511069</v>
       </c>
       <c r="M177" t="n">
-        <v>0.0002668729662230813</v>
+        <v>0.04120155084794621</v>
       </c>
       <c r="N177" t="n">
-        <v>2.224545639027716e-14</v>
+        <v>1.929354515352629e-12</v>
       </c>
       <c r="O177" t="n">
-        <v>0.0003610993712994276</v>
+        <v>0.01189879675887709</v>
       </c>
       <c r="P177" t="n">
-        <v>0.9981811374608112</v>
+        <v>0.5694947408482915</v>
       </c>
       <c r="Q177" t="inlineStr">
         <is>
@@ -11434,246 +11434,246 @@
       </c>
       <c r="R177" t="inlineStr">
         <is>
-          <t>f__Bacteroidaceae</t>
+          <t>f__Bacteroidaceae(reject)</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT761.fa</t>
+          <t>even_MAG-GUT77597.fa</t>
         </is>
       </c>
       <c r="B178" t="n">
-        <v>0.05449601874258773</v>
+        <v>0.08494725660687778</v>
       </c>
       <c r="C178" t="n">
-        <v>0.1426200663577402</v>
+        <v>0.0006534967452400372</v>
       </c>
       <c r="D178" t="n">
-        <v>0.08906211143015949</v>
+        <v>4.624369743143373e-06</v>
       </c>
       <c r="E178" t="n">
-        <v>0.06883528079358847</v>
+        <v>7.951036428159449e-10</v>
       </c>
       <c r="F178" t="n">
-        <v>1.317757286855602e-08</v>
+        <v>3.175268078756499e-12</v>
       </c>
       <c r="G178" t="n">
-        <v>0.1719431369830225</v>
+        <v>4.178997747169156e-06</v>
       </c>
       <c r="H178" t="n">
-        <v>0.02333612378135554</v>
+        <v>0.01003823954793817</v>
       </c>
       <c r="I178" t="n">
-        <v>1.956464305803454e-12</v>
+        <v>1.367513447425472e-13</v>
       </c>
       <c r="J178" t="n">
-        <v>0.04879335902421647</v>
+        <v>2.212679227074029e-12</v>
       </c>
       <c r="K178" t="n">
-        <v>0.0001316189479290911</v>
+        <v>9.346063103623357e-12</v>
       </c>
       <c r="L178" t="n">
-        <v>0.06909427053526936</v>
+        <v>0.8975286165157509</v>
       </c>
       <c r="M178" t="n">
-        <v>0.06773093240023398</v>
+        <v>0.006495757429691594</v>
       </c>
       <c r="N178" t="n">
-        <v>0.1376491605150312</v>
+        <v>1.367513447425578e-13</v>
       </c>
       <c r="O178" t="n">
-        <v>0.1263079073093367</v>
+        <v>0.0003278289768999465</v>
       </c>
       <c r="P178" t="n">
-        <v>0.1719431369830225</v>
+        <v>0.8975286165157509</v>
       </c>
       <c r="Q178" t="inlineStr">
         <is>
-          <t>f__Marinifilaceae</t>
+          <t>f__Rikenellaceae</t>
         </is>
       </c>
       <c r="R178" t="inlineStr">
         <is>
-          <t>f__Marinifilaceae(reject)</t>
+          <t>f__Rikenellaceae</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT76518.fa</t>
+          <t>even_MAG-GUT77633.fa</t>
         </is>
       </c>
       <c r="B179" t="n">
-        <v>0.5694947408482915</v>
+        <v>0.3344478849964261</v>
       </c>
       <c r="C179" t="n">
-        <v>0.006387108546039041</v>
+        <v>0.000832781207016778</v>
       </c>
       <c r="D179" t="n">
-        <v>0.0002747653287209467</v>
+        <v>6.875253113716243e-05</v>
       </c>
       <c r="E179" t="n">
-        <v>3.530758147241401e-08</v>
+        <v>9.452100655416336e-09</v>
       </c>
       <c r="F179" t="n">
-        <v>4.390715477164301e-10</v>
+        <v>2.3205334633444e-10</v>
       </c>
       <c r="G179" t="n">
-        <v>0.0004359550284598596</v>
+        <v>0.0001922534480757832</v>
       </c>
       <c r="H179" t="n">
-        <v>0.1062665421807105</v>
+        <v>0.1299150998358469</v>
       </c>
       <c r="I179" t="n">
-        <v>1.929354515352628e-12</v>
+        <v>9.213733967235104e-13</v>
       </c>
       <c r="J179" t="n">
-        <v>2.362515036875707e-09</v>
+        <v>1.142116298728592e-10</v>
       </c>
       <c r="K179" t="n">
-        <v>1.96821020372194e-10</v>
+        <v>9.65556458766491e-10</v>
       </c>
       <c r="L179" t="n">
-        <v>0.2640405021511069</v>
+        <v>0.4615425838959861</v>
       </c>
       <c r="M179" t="n">
-        <v>0.04120155084794621</v>
+        <v>0.07255665145436667</v>
       </c>
       <c r="N179" t="n">
-        <v>1.929354515352629e-12</v>
+        <v>9.213733967235035e-13</v>
       </c>
       <c r="O179" t="n">
-        <v>0.01189879675887709</v>
+        <v>0.000443981865379668</v>
       </c>
       <c r="P179" t="n">
-        <v>0.5694947408482915</v>
+        <v>0.4615425838959861</v>
       </c>
       <c r="Q179" t="inlineStr">
         <is>
-          <t>f__Bacteroidaceae</t>
+          <t>f__Rikenellaceae</t>
         </is>
       </c>
       <c r="R179" t="inlineStr">
         <is>
-          <t>f__Bacteroidaceae(reject)</t>
+          <t>f__Rikenellaceae(reject)</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT77597.fa</t>
+          <t>even_MAG-GUT78579.fa</t>
         </is>
       </c>
       <c r="B180" t="n">
-        <v>0.08494725660687778</v>
+        <v>0.2524974525490498</v>
       </c>
       <c r="C180" t="n">
-        <v>0.0006534967452400372</v>
+        <v>0.07553349007360297</v>
       </c>
       <c r="D180" t="n">
-        <v>4.624369743143373e-06</v>
+        <v>0.00170005659074084</v>
       </c>
       <c r="E180" t="n">
-        <v>7.951036428159449e-10</v>
+        <v>9.002964141437817e-08</v>
       </c>
       <c r="F180" t="n">
-        <v>3.175268078756499e-12</v>
+        <v>5.356745187969121e-10</v>
       </c>
       <c r="G180" t="n">
-        <v>4.178997747169156e-06</v>
+        <v>0.02170444450087825</v>
       </c>
       <c r="H180" t="n">
-        <v>0.01003823954793817</v>
+        <v>0.1734663935207988</v>
       </c>
       <c r="I180" t="n">
-        <v>1.367513447425472e-13</v>
+        <v>1.898940781115638e-11</v>
       </c>
       <c r="J180" t="n">
-        <v>2.212679227074029e-12</v>
+        <v>8.275213877013164e-09</v>
       </c>
       <c r="K180" t="n">
-        <v>9.346063103623357e-12</v>
+        <v>2.782431164286794e-08</v>
       </c>
       <c r="L180" t="n">
-        <v>0.8975286165157509</v>
+        <v>0.2132278599002798</v>
       </c>
       <c r="M180" t="n">
-        <v>0.006495757429691594</v>
+        <v>0.1951370306444195</v>
       </c>
       <c r="N180" t="n">
-        <v>1.367513447425578e-13</v>
+        <v>1.898940781115642e-11</v>
       </c>
       <c r="O180" t="n">
-        <v>0.0003278289768999465</v>
+        <v>0.06673314551740968</v>
       </c>
       <c r="P180" t="n">
-        <v>0.8975286165157509</v>
+        <v>0.2524974525490498</v>
       </c>
       <c r="Q180" t="inlineStr">
         <is>
-          <t>f__Rikenellaceae</t>
+          <t>f__Bacteroidaceae</t>
         </is>
       </c>
       <c r="R180" t="inlineStr">
         <is>
-          <t>f__Rikenellaceae</t>
+          <t>f__Bacteroidaceae(reject)</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT77633.fa</t>
+          <t>even_MAG-GUT78910.fa</t>
         </is>
       </c>
       <c r="B181" t="n">
-        <v>0.3344478849964261</v>
+        <v>0.0004541609537468484</v>
       </c>
       <c r="C181" t="n">
-        <v>0.000832781207016778</v>
+        <v>0.3358323279071636</v>
       </c>
       <c r="D181" t="n">
-        <v>6.875253113716243e-05</v>
+        <v>2.640424889820516e-06</v>
       </c>
       <c r="E181" t="n">
-        <v>9.452100655416336e-09</v>
+        <v>3.009325298358749e-08</v>
       </c>
       <c r="F181" t="n">
-        <v>2.3205334633444e-10</v>
+        <v>1.090199210355077e-12</v>
       </c>
       <c r="G181" t="n">
-        <v>0.0001922534480757832</v>
+        <v>9.290664366324863e-05</v>
       </c>
       <c r="H181" t="n">
-        <v>0.1299150998358469</v>
+        <v>0.003851070872298422</v>
       </c>
       <c r="I181" t="n">
-        <v>9.213733967235104e-13</v>
+        <v>2.221500244898819e-14</v>
       </c>
       <c r="J181" t="n">
-        <v>1.142116298728592e-10</v>
+        <v>8.771578144292242e-11</v>
       </c>
       <c r="K181" t="n">
-        <v>9.65556458766491e-10</v>
+        <v>5.514488147582515e-09</v>
       </c>
       <c r="L181" t="n">
-        <v>0.4615425838959861</v>
+        <v>0.6545348616055313</v>
       </c>
       <c r="M181" t="n">
-        <v>0.07255665145436667</v>
+        <v>0.005230103563106065</v>
       </c>
       <c r="N181" t="n">
-        <v>9.213733967235035e-13</v>
+        <v>1.885051303216555e-06</v>
       </c>
       <c r="O181" t="n">
-        <v>0.000443981865379668</v>
+        <v>7.281728259947123e-09</v>
       </c>
       <c r="P181" t="n">
-        <v>0.4615425838959861</v>
+        <v>0.6545348616055313</v>
       </c>
       <c r="Q181" t="inlineStr">
         <is>
@@ -11689,301 +11689,301 @@
     <row r="182">
       <c r="A182" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT78579.fa</t>
+          <t>even_MAG-GUT78923.fa</t>
         </is>
       </c>
       <c r="B182" t="n">
-        <v>0.2524974525490498</v>
+        <v>0.06378444752002251</v>
       </c>
       <c r="C182" t="n">
-        <v>0.07553349007360297</v>
+        <v>1.857193846514541e-12</v>
       </c>
       <c r="D182" t="n">
-        <v>0.00170005659074084</v>
+        <v>1.15910488881653e-06</v>
       </c>
       <c r="E182" t="n">
-        <v>9.002964141437817e-08</v>
+        <v>4.553968768291747e-08</v>
       </c>
       <c r="F182" t="n">
-        <v>5.356745187969121e-10</v>
+        <v>5.672151611005245e-08</v>
       </c>
       <c r="G182" t="n">
-        <v>0.02170444450087825</v>
+        <v>0.0582200637641578</v>
       </c>
       <c r="H182" t="n">
-        <v>0.1734663935207988</v>
+        <v>0.8779936540368447</v>
       </c>
       <c r="I182" t="n">
-        <v>1.898940781115638e-11</v>
+        <v>2.220461833800837e-14</v>
       </c>
       <c r="J182" t="n">
-        <v>8.275213877013164e-09</v>
+        <v>2.220461833800837e-14</v>
       </c>
       <c r="K182" t="n">
-        <v>2.782431164286794e-08</v>
+        <v>1.740043592304417e-09</v>
       </c>
       <c r="L182" t="n">
-        <v>0.2132278599002798</v>
+        <v>3.121412006091177e-08</v>
       </c>
       <c r="M182" t="n">
-        <v>0.1951370306444195</v>
+        <v>3.687129321092347e-09</v>
       </c>
       <c r="N182" t="n">
-        <v>1.898940781115642e-11</v>
+        <v>2.220461833800837e-14</v>
       </c>
       <c r="O182" t="n">
-        <v>0.06673314551740968</v>
+        <v>5.366696656789459e-07</v>
       </c>
       <c r="P182" t="n">
-        <v>0.2524974525490498</v>
+        <v>0.8779936540368447</v>
       </c>
       <c r="Q182" t="inlineStr">
         <is>
-          <t>f__Bacteroidaceae</t>
+          <t>f__Muribaculaceae</t>
         </is>
       </c>
       <c r="R182" t="inlineStr">
         <is>
-          <t>f__Bacteroidaceae(reject)</t>
+          <t>f__Muribaculaceae</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT78910.fa</t>
+          <t>even_MAG-GUT80330.fa</t>
         </is>
       </c>
       <c r="B183" t="n">
-        <v>0.0004541609537468484</v>
+        <v>0.0313901124721458</v>
       </c>
       <c r="C183" t="n">
-        <v>0.3358323279071636</v>
+        <v>0.1818442561732583</v>
       </c>
       <c r="D183" t="n">
-        <v>2.640424889820516e-06</v>
+        <v>0.01667430646108144</v>
       </c>
       <c r="E183" t="n">
-        <v>3.009325298358749e-08</v>
+        <v>0.0453728493212111</v>
       </c>
       <c r="F183" t="n">
-        <v>1.090199210355077e-12</v>
+        <v>1.703475859417774e-09</v>
       </c>
       <c r="G183" t="n">
-        <v>9.290664366324863e-05</v>
+        <v>0.2335488641386134</v>
       </c>
       <c r="H183" t="n">
-        <v>0.003851070872298422</v>
+        <v>0.002436484451395333</v>
       </c>
       <c r="I183" t="n">
-        <v>2.221500244898819e-14</v>
+        <v>4.189118965864903e-13</v>
       </c>
       <c r="J183" t="n">
-        <v>8.771578144292242e-11</v>
+        <v>0.01318842857920351</v>
       </c>
       <c r="K183" t="n">
-        <v>5.514488147582515e-09</v>
+        <v>0.0001174976938525945</v>
       </c>
       <c r="L183" t="n">
-        <v>0.6545348616055313</v>
+        <v>0.01670791716151915</v>
       </c>
       <c r="M183" t="n">
-        <v>0.005230103563106065</v>
+        <v>0.05818731268059138</v>
       </c>
       <c r="N183" t="n">
-        <v>1.885051303216555e-06</v>
+        <v>0.2872975696314521</v>
       </c>
       <c r="O183" t="n">
-        <v>7.281728259947123e-09</v>
+        <v>0.1132343995317809</v>
       </c>
       <c r="P183" t="n">
-        <v>0.6545348616055313</v>
+        <v>0.2872975696314521</v>
       </c>
       <c r="Q183" t="inlineStr">
         <is>
-          <t>f__Rikenellaceae</t>
+          <t>f__UBA11471</t>
         </is>
       </c>
       <c r="R183" t="inlineStr">
         <is>
-          <t>f__Rikenellaceae(reject)</t>
+          <t>f__UBA11471(reject)</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT78923.fa</t>
+          <t>even_MAG-GUT81123.fa</t>
         </is>
       </c>
       <c r="B184" t="n">
-        <v>0.06378444752002251</v>
+        <v>0.0006589928306805318</v>
       </c>
       <c r="C184" t="n">
-        <v>1.857193846514541e-12</v>
+        <v>0.03375477282049167</v>
       </c>
       <c r="D184" t="n">
-        <v>1.15910488881653e-06</v>
+        <v>0.003016161825926859</v>
       </c>
       <c r="E184" t="n">
-        <v>4.553968768291747e-08</v>
+        <v>0.008125178878155852</v>
       </c>
       <c r="F184" t="n">
-        <v>5.672151611005245e-08</v>
+        <v>7.690161043483847e-11</v>
       </c>
       <c r="G184" t="n">
-        <v>0.0582200637641578</v>
+        <v>0.1025722557665139</v>
       </c>
       <c r="H184" t="n">
-        <v>0.8779936540368447</v>
+        <v>0.0001077593371441146</v>
       </c>
       <c r="I184" t="n">
-        <v>2.220461833800837e-14</v>
+        <v>3.702801167832388e-14</v>
       </c>
       <c r="J184" t="n">
-        <v>2.220461833800837e-14</v>
+        <v>0.0006958131660074919</v>
       </c>
       <c r="K184" t="n">
-        <v>1.740043592304417e-09</v>
+        <v>2.27434861685262e-05</v>
       </c>
       <c r="L184" t="n">
-        <v>3.121412006091177e-08</v>
+        <v>0.001067815774328504</v>
       </c>
       <c r="M184" t="n">
-        <v>3.687129321092347e-09</v>
+        <v>0.00275721107168349</v>
       </c>
       <c r="N184" t="n">
-        <v>2.220461833800837e-14</v>
+        <v>0.8295893723986577</v>
       </c>
       <c r="O184" t="n">
-        <v>5.366696656789459e-07</v>
+        <v>0.01763192256730266</v>
       </c>
       <c r="P184" t="n">
-        <v>0.8779936540368447</v>
+        <v>0.8295893723986577</v>
       </c>
       <c r="Q184" t="inlineStr">
         <is>
-          <t>f__Muribaculaceae</t>
+          <t>f__UBA11471</t>
         </is>
       </c>
       <c r="R184" t="inlineStr">
         <is>
-          <t>f__Muribaculaceae</t>
+          <t>f__UBA11471</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT80232.fa</t>
+          <t>even_MAG-GUT81409.fa</t>
         </is>
       </c>
       <c r="B185" t="n">
-        <v>0.995444718025</v>
+        <v>0.0001239798798648826</v>
       </c>
       <c r="C185" t="n">
-        <v>2.071842132520789e-07</v>
+        <v>0.04876275422066233</v>
       </c>
       <c r="D185" t="n">
-        <v>4.165704855530972e-06</v>
+        <v>0.0001255545166306586</v>
       </c>
       <c r="E185" t="n">
-        <v>6.20855707869305e-05</v>
+        <v>0.0002828992252391849</v>
       </c>
       <c r="F185" t="n">
-        <v>1.400825084992734e-11</v>
+        <v>5.995569343632672e-09</v>
       </c>
       <c r="G185" t="n">
-        <v>0.002116090725954195</v>
+        <v>0.02287989607758373</v>
       </c>
       <c r="H185" t="n">
-        <v>0.001140067115825631</v>
+        <v>1.826024605741327e-05</v>
       </c>
       <c r="I185" t="n">
-        <v>2.220054799016931e-14</v>
+        <v>2.221292981324628e-14</v>
       </c>
       <c r="J185" t="n">
-        <v>1.426280613977722e-10</v>
+        <v>0.001617022646693551</v>
       </c>
       <c r="K185" t="n">
-        <v>3.856005713137771e-08</v>
+        <v>1.010426266112989e-05</v>
       </c>
       <c r="L185" t="n">
-        <v>0.001224389196306817</v>
+        <v>0.000636138400559771</v>
       </c>
       <c r="M185" t="n">
-        <v>7.646110170630689e-06</v>
+        <v>0.0004069329754449653</v>
       </c>
       <c r="N185" t="n">
-        <v>6.789877304858891e-11</v>
+        <v>0.9246924869711173</v>
       </c>
       <c r="O185" t="n">
-        <v>5.915822728998406e-07</v>
+        <v>0.0004439645818934421</v>
       </c>
       <c r="P185" t="n">
-        <v>0.995444718025</v>
+        <v>0.9246924869711173</v>
       </c>
       <c r="Q185" t="inlineStr">
         <is>
-          <t>f__Bacteroidaceae</t>
+          <t>f__UBA11471</t>
         </is>
       </c>
       <c r="R185" t="inlineStr">
         <is>
-          <t>f__Bacteroidaceae</t>
+          <t>f__UBA11471</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT80330.fa</t>
+          <t>even_MAG-GUT81646.fa</t>
         </is>
       </c>
       <c r="B186" t="n">
-        <v>0.0313901124721458</v>
+        <v>0.008452556254292512</v>
       </c>
       <c r="C186" t="n">
-        <v>0.1818442561732583</v>
+        <v>0.1133074035749197</v>
       </c>
       <c r="D186" t="n">
-        <v>0.01667430646108144</v>
+        <v>0.02235901970642369</v>
       </c>
       <c r="E186" t="n">
-        <v>0.0453728493212111</v>
+        <v>0.07769383516289624</v>
       </c>
       <c r="F186" t="n">
-        <v>1.703475859417774e-09</v>
+        <v>1.33171351709123e-08</v>
       </c>
       <c r="G186" t="n">
-        <v>0.2335488641386134</v>
+        <v>0.2076393632839013</v>
       </c>
       <c r="H186" t="n">
-        <v>0.002436484451395333</v>
+        <v>0.006786867175713331</v>
       </c>
       <c r="I186" t="n">
-        <v>4.189118965864903e-13</v>
+        <v>3.748041501573512e-13</v>
       </c>
       <c r="J186" t="n">
-        <v>0.01318842857920351</v>
+        <v>0.005245843984029457</v>
       </c>
       <c r="K186" t="n">
-        <v>0.0001174976938525945</v>
+        <v>6.959040763508517e-05</v>
       </c>
       <c r="L186" t="n">
-        <v>0.01670791716151915</v>
+        <v>0.01450908873483843</v>
       </c>
       <c r="M186" t="n">
-        <v>0.05818731268059138</v>
+        <v>0.02445615065016146</v>
       </c>
       <c r="N186" t="n">
-        <v>0.2872975696314521</v>
+        <v>0.3872616918479045</v>
       </c>
       <c r="O186" t="n">
-        <v>0.1132343995317809</v>
+        <v>0.1322185758997742</v>
       </c>
       <c r="P186" t="n">
-        <v>0.2872975696314521</v>
+        <v>0.3872616918479045</v>
       </c>
       <c r="Q186" t="inlineStr">
         <is>
@@ -11999,53 +11999,53 @@
     <row r="187">
       <c r="A187" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT81123.fa</t>
+          <t>even_MAG-GUT81936.fa</t>
         </is>
       </c>
       <c r="B187" t="n">
-        <v>0.0006589928306805318</v>
+        <v>0.002125107807685714</v>
       </c>
       <c r="C187" t="n">
-        <v>0.03375477282049167</v>
+        <v>0.02273021919038864</v>
       </c>
       <c r="D187" t="n">
-        <v>0.003016161825926859</v>
+        <v>0.009180283810681094</v>
       </c>
       <c r="E187" t="n">
-        <v>0.008125178878155852</v>
+        <v>0.02147518371354972</v>
       </c>
       <c r="F187" t="n">
-        <v>7.690161043483847e-11</v>
+        <v>3.99426562437141e-10</v>
       </c>
       <c r="G187" t="n">
-        <v>0.1025722557665139</v>
+        <v>0.04151825458625875</v>
       </c>
       <c r="H187" t="n">
-        <v>0.0001077593371441146</v>
+        <v>0.0005063676711038643</v>
       </c>
       <c r="I187" t="n">
-        <v>3.702801167832388e-14</v>
+        <v>6.248786563509992e-14</v>
       </c>
       <c r="J187" t="n">
-        <v>0.0006958131660074919</v>
+        <v>0.001525584425997096</v>
       </c>
       <c r="K187" t="n">
-        <v>2.27434861685262e-05</v>
+        <v>1.265160207306243e-05</v>
       </c>
       <c r="L187" t="n">
-        <v>0.001067815774328504</v>
+        <v>0.00163773086187084</v>
       </c>
       <c r="M187" t="n">
-        <v>0.00275721107168349</v>
+        <v>0.0005093869269754928</v>
       </c>
       <c r="N187" t="n">
-        <v>0.8295893723986577</v>
+        <v>0.8606475192182049</v>
       </c>
       <c r="O187" t="n">
-        <v>0.01763192256730266</v>
+        <v>0.03813170978572176</v>
       </c>
       <c r="P187" t="n">
-        <v>0.8295893723986577</v>
+        <v>0.8606475192182049</v>
       </c>
       <c r="Q187" t="inlineStr">
         <is>
@@ -12061,53 +12061,53 @@
     <row r="188">
       <c r="A188" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT81409.fa</t>
+          <t>even_MAG-GUT82089.fa</t>
         </is>
       </c>
       <c r="B188" t="n">
-        <v>0.0001239798798648826</v>
+        <v>0.0004216534612823978</v>
       </c>
       <c r="C188" t="n">
-        <v>0.04876275422066233</v>
+        <v>0.007070557411155028</v>
       </c>
       <c r="D188" t="n">
-        <v>0.0001255545166306586</v>
+        <v>0.003752919442165247</v>
       </c>
       <c r="E188" t="n">
-        <v>0.0002828992252391849</v>
+        <v>0.02596767283523593</v>
       </c>
       <c r="F188" t="n">
-        <v>5.995569343632672e-09</v>
+        <v>4.396766581940835e-10</v>
       </c>
       <c r="G188" t="n">
-        <v>0.02287989607758373</v>
+        <v>0.02698634969364368</v>
       </c>
       <c r="H188" t="n">
-        <v>1.826024605741327e-05</v>
+        <v>0.0002550575980529233</v>
       </c>
       <c r="I188" t="n">
-        <v>2.221292981324628e-14</v>
+        <v>2.220195608690232e-14</v>
       </c>
       <c r="J188" t="n">
-        <v>0.001617022646693551</v>
+        <v>0.0002256146586876647</v>
       </c>
       <c r="K188" t="n">
-        <v>1.010426266112989e-05</v>
+        <v>2.760969195401208e-06</v>
       </c>
       <c r="L188" t="n">
-        <v>0.000636138400559771</v>
+        <v>9.803837042811907e-05</v>
       </c>
       <c r="M188" t="n">
-        <v>0.0004069329754449653</v>
+        <v>0.001258349011882617</v>
       </c>
       <c r="N188" t="n">
-        <v>0.9246924869711173</v>
+        <v>0.9064790804840097</v>
       </c>
       <c r="O188" t="n">
-        <v>0.0004439645818934421</v>
+        <v>0.02748194562456236</v>
       </c>
       <c r="P188" t="n">
-        <v>0.9246924869711173</v>
+        <v>0.9064790804840097</v>
       </c>
       <c r="Q188" t="inlineStr">
         <is>
@@ -12123,53 +12123,53 @@
     <row r="189">
       <c r="A189" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT81646.fa</t>
+          <t>even_MAG-GUT82177.fa</t>
         </is>
       </c>
       <c r="B189" t="n">
-        <v>0.008452556254292512</v>
+        <v>0.01326200999200619</v>
       </c>
       <c r="C189" t="n">
-        <v>0.1133074035749197</v>
+        <v>0.1016290598930614</v>
       </c>
       <c r="D189" t="n">
-        <v>0.02235901970642369</v>
+        <v>0.04036457585264803</v>
       </c>
       <c r="E189" t="n">
-        <v>0.07769383516289624</v>
+        <v>0.03997906652793932</v>
       </c>
       <c r="F189" t="n">
-        <v>1.33171351709123e-08</v>
+        <v>6.023653782855265e-09</v>
       </c>
       <c r="G189" t="n">
-        <v>0.2076393632839013</v>
+        <v>0.1781254844762369</v>
       </c>
       <c r="H189" t="n">
-        <v>0.006786867175713331</v>
+        <v>0.009473857684077</v>
       </c>
       <c r="I189" t="n">
-        <v>3.748041501573512e-13</v>
+        <v>3.631783306721785e-13</v>
       </c>
       <c r="J189" t="n">
-        <v>0.005245843984029457</v>
+        <v>0.01160447690801453</v>
       </c>
       <c r="K189" t="n">
-        <v>6.959040763508517e-05</v>
+        <v>2.538575677121108e-05</v>
       </c>
       <c r="L189" t="n">
-        <v>0.01450908873483843</v>
+        <v>0.01152829810954642</v>
       </c>
       <c r="M189" t="n">
-        <v>0.02445615065016146</v>
+        <v>0.007403810655981002</v>
       </c>
       <c r="N189" t="n">
-        <v>0.3872616918479045</v>
+        <v>0.5374497843474972</v>
       </c>
       <c r="O189" t="n">
-        <v>0.1322185758997742</v>
+        <v>0.04915418377220392</v>
       </c>
       <c r="P189" t="n">
-        <v>0.3872616918479045</v>
+        <v>0.5374497843474972</v>
       </c>
       <c r="Q189" t="inlineStr">
         <is>
@@ -12185,53 +12185,53 @@
     <row r="190">
       <c r="A190" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT81936.fa</t>
+          <t>even_MAG-GUT82314.fa</t>
         </is>
       </c>
       <c r="B190" t="n">
-        <v>0.002125107807685714</v>
+        <v>0.0005993968213694415</v>
       </c>
       <c r="C190" t="n">
-        <v>0.02273021919038864</v>
+        <v>0.008085957675293434</v>
       </c>
       <c r="D190" t="n">
-        <v>0.009180283810681094</v>
+        <v>0.003092393446529858</v>
       </c>
       <c r="E190" t="n">
-        <v>0.02147518371354972</v>
+        <v>0.006705524445749437</v>
       </c>
       <c r="F190" t="n">
-        <v>3.99426562437141e-10</v>
+        <v>7.815333909668957e-10</v>
       </c>
       <c r="G190" t="n">
-        <v>0.04151825458625875</v>
+        <v>0.06420344732350036</v>
       </c>
       <c r="H190" t="n">
-        <v>0.0005063676711038643</v>
+        <v>4.138647423544777e-05</v>
       </c>
       <c r="I190" t="n">
-        <v>6.248786563509992e-14</v>
+        <v>2.221033434205742e-14</v>
       </c>
       <c r="J190" t="n">
-        <v>0.001525584425997096</v>
+        <v>0.0007355293500375445</v>
       </c>
       <c r="K190" t="n">
-        <v>1.265160207306243e-05</v>
+        <v>2.117450804095432e-06</v>
       </c>
       <c r="L190" t="n">
-        <v>0.00163773086187084</v>
+        <v>0.0002788864651450555</v>
       </c>
       <c r="M190" t="n">
-        <v>0.0005093869269754928</v>
+        <v>0.0009782817511189109</v>
       </c>
       <c r="N190" t="n">
-        <v>0.8606475192182049</v>
+        <v>0.8718267053293538</v>
       </c>
       <c r="O190" t="n">
-        <v>0.03813170978572176</v>
+        <v>0.04345037268530696</v>
       </c>
       <c r="P190" t="n">
-        <v>0.8606475192182049</v>
+        <v>0.8718267053293538</v>
       </c>
       <c r="Q190" t="inlineStr">
         <is>
@@ -12247,53 +12247,53 @@
     <row r="191">
       <c r="A191" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT82089.fa</t>
+          <t>even_MAG-GUT82472.fa</t>
         </is>
       </c>
       <c r="B191" t="n">
-        <v>0.0004216534612823978</v>
+        <v>0.001266355311053462</v>
       </c>
       <c r="C191" t="n">
-        <v>0.007070557411155028</v>
+        <v>0.02552455878810495</v>
       </c>
       <c r="D191" t="n">
-        <v>0.003752919442165247</v>
+        <v>0.003408264723085338</v>
       </c>
       <c r="E191" t="n">
-        <v>0.02596767283523593</v>
+        <v>0.009129551325654617</v>
       </c>
       <c r="F191" t="n">
-        <v>4.396766581940835e-10</v>
+        <v>1.110656735092991e-09</v>
       </c>
       <c r="G191" t="n">
-        <v>0.02698634969364368</v>
+        <v>0.06037114654049659</v>
       </c>
       <c r="H191" t="n">
-        <v>0.0002550575980529233</v>
+        <v>0.0001687125940953093</v>
       </c>
       <c r="I191" t="n">
-        <v>2.220195608690232e-14</v>
+        <v>4.111391168505043e-14</v>
       </c>
       <c r="J191" t="n">
-        <v>0.0002256146586876647</v>
+        <v>0.001924988032484816</v>
       </c>
       <c r="K191" t="n">
-        <v>2.760969195401208e-06</v>
+        <v>5.203040402816669e-06</v>
       </c>
       <c r="L191" t="n">
-        <v>9.803837042811907e-05</v>
+        <v>0.0009751880883436838</v>
       </c>
       <c r="M191" t="n">
-        <v>0.001258349011882617</v>
+        <v>0.002622436086464668</v>
       </c>
       <c r="N191" t="n">
-        <v>0.9064790804840097</v>
+        <v>0.8581104666748891</v>
       </c>
       <c r="O191" t="n">
-        <v>0.02748194562456236</v>
+        <v>0.03649312768422681</v>
       </c>
       <c r="P191" t="n">
-        <v>0.9064790804840097</v>
+        <v>0.8581104666748891</v>
       </c>
       <c r="Q191" t="inlineStr">
         <is>
@@ -12309,53 +12309,53 @@
     <row r="192">
       <c r="A192" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT82177.fa</t>
+          <t>even_MAG-GUT82505.fa</t>
         </is>
       </c>
       <c r="B192" t="n">
-        <v>0.01326200999200619</v>
+        <v>0.0003031008410901761</v>
       </c>
       <c r="C192" t="n">
-        <v>0.1016290598930614</v>
+        <v>0.02557452914685121</v>
       </c>
       <c r="D192" t="n">
-        <v>0.04036457585264803</v>
+        <v>0.002844857222478102</v>
       </c>
       <c r="E192" t="n">
-        <v>0.03997906652793932</v>
+        <v>0.01241075125879938</v>
       </c>
       <c r="F192" t="n">
-        <v>6.023653782855265e-09</v>
+        <v>7.431147019086375e-11</v>
       </c>
       <c r="G192" t="n">
-        <v>0.1781254844762369</v>
+        <v>0.03332029435847568</v>
       </c>
       <c r="H192" t="n">
-        <v>0.009473857684077</v>
+        <v>0.0002980810644996531</v>
       </c>
       <c r="I192" t="n">
-        <v>3.631783306721785e-13</v>
+        <v>2.701910484873175e-14</v>
       </c>
       <c r="J192" t="n">
-        <v>0.01160447690801453</v>
+        <v>0.0008393904862478623</v>
       </c>
       <c r="K192" t="n">
-        <v>2.538575677121108e-05</v>
+        <v>2.282553442224697e-05</v>
       </c>
       <c r="L192" t="n">
-        <v>0.01152829810954642</v>
+        <v>0.000724786827508632</v>
       </c>
       <c r="M192" t="n">
-        <v>0.007403810655981002</v>
+        <v>0.0005333478464766178</v>
       </c>
       <c r="N192" t="n">
-        <v>0.5374497843474972</v>
+        <v>0.9201187945341047</v>
       </c>
       <c r="O192" t="n">
-        <v>0.04915418377220392</v>
+        <v>0.003009240804707174</v>
       </c>
       <c r="P192" t="n">
-        <v>0.5374497843474972</v>
+        <v>0.9201187945341047</v>
       </c>
       <c r="Q192" t="inlineStr">
         <is>
@@ -12364,60 +12364,60 @@
       </c>
       <c r="R192" t="inlineStr">
         <is>
-          <t>f__UBA11471(reject)</t>
+          <t>f__UBA11471</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT82314.fa</t>
+          <t>even_MAG-GUT82571.fa</t>
         </is>
       </c>
       <c r="B193" t="n">
-        <v>0.0005993968213694415</v>
+        <v>0.05447594138086338</v>
       </c>
       <c r="C193" t="n">
-        <v>0.008085957675293434</v>
+        <v>0.1840341242862469</v>
       </c>
       <c r="D193" t="n">
-        <v>0.003092393446529858</v>
+        <v>0.02700705363141857</v>
       </c>
       <c r="E193" t="n">
-        <v>0.006705524445749437</v>
+        <v>0.07500756996661787</v>
       </c>
       <c r="F193" t="n">
-        <v>7.815333909668957e-10</v>
+        <v>1.109546040431621e-09</v>
       </c>
       <c r="G193" t="n">
-        <v>0.06420344732350036</v>
+        <v>0.2012525606674522</v>
       </c>
       <c r="H193" t="n">
-        <v>4.138647423544777e-05</v>
+        <v>0.003920431129445029</v>
       </c>
       <c r="I193" t="n">
-        <v>2.221033434205742e-14</v>
+        <v>4.815472678614764e-13</v>
       </c>
       <c r="J193" t="n">
-        <v>0.0007355293500375445</v>
+        <v>0.02978030430386374</v>
       </c>
       <c r="K193" t="n">
-        <v>2.117450804095432e-06</v>
+        <v>0.0003200175018453635</v>
       </c>
       <c r="L193" t="n">
-        <v>0.0002788864651450555</v>
+        <v>0.01696177105324987</v>
       </c>
       <c r="M193" t="n">
-        <v>0.0009782817511189109</v>
+        <v>0.02246414913977002</v>
       </c>
       <c r="N193" t="n">
-        <v>0.8718267053293538</v>
+        <v>0.2862952869961386</v>
       </c>
       <c r="O193" t="n">
-        <v>0.04345037268530696</v>
+        <v>0.09848078883306069</v>
       </c>
       <c r="P193" t="n">
-        <v>0.8718267053293538</v>
+        <v>0.2862952869961386</v>
       </c>
       <c r="Q193" t="inlineStr">
         <is>
@@ -12426,494 +12426,494 @@
       </c>
       <c r="R193" t="inlineStr">
         <is>
-          <t>f__UBA11471</t>
+          <t>f__UBA11471(reject)</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT82472.fa</t>
+          <t>even_MAG-GUT8267.fa</t>
         </is>
       </c>
       <c r="B194" t="n">
-        <v>0.001266355311053462</v>
+        <v>3.1716360628205e-05</v>
       </c>
       <c r="C194" t="n">
-        <v>0.02552455878810495</v>
+        <v>9.14277291158652e-08</v>
       </c>
       <c r="D194" t="n">
-        <v>0.003408264723085338</v>
+        <v>2.452602481545756e-08</v>
       </c>
       <c r="E194" t="n">
-        <v>0.009129551325654617</v>
+        <v>4.394658758704392e-13</v>
       </c>
       <c r="F194" t="n">
-        <v>1.110656735092991e-09</v>
+        <v>7.83496988223125e-11</v>
       </c>
       <c r="G194" t="n">
-        <v>0.06037114654049659</v>
+        <v>6.549168927148327e-08</v>
       </c>
       <c r="H194" t="n">
-        <v>0.0001687125940953093</v>
+        <v>0.1943299522144391</v>
       </c>
       <c r="I194" t="n">
-        <v>4.111391168505043e-14</v>
+        <v>2.219468252700993e-14</v>
       </c>
       <c r="J194" t="n">
-        <v>0.001924988032484816</v>
+        <v>8.688272104849123e-14</v>
       </c>
       <c r="K194" t="n">
-        <v>5.203040402816669e-06</v>
+        <v>1.10774239359798e-10</v>
       </c>
       <c r="L194" t="n">
-        <v>0.0009751880883436838</v>
+        <v>7.700240627588603e-05</v>
       </c>
       <c r="M194" t="n">
-        <v>0.002622436086464668</v>
+        <v>3.232395596623132e-06</v>
       </c>
       <c r="N194" t="n">
-        <v>0.8581104666748891</v>
+        <v>2.219468252700993e-14</v>
       </c>
       <c r="O194" t="n">
-        <v>0.03649312768422681</v>
+        <v>0.8055579149879224</v>
       </c>
       <c r="P194" t="n">
-        <v>0.8581104666748891</v>
+        <v>0.8055579149879224</v>
       </c>
       <c r="Q194" t="inlineStr">
         <is>
-          <t>f__UBA11471</t>
+          <t>f__UBA932</t>
         </is>
       </c>
       <c r="R194" t="inlineStr">
         <is>
-          <t>f__UBA11471</t>
+          <t>f__UBA932</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT82505.fa</t>
+          <t>even_MAG-GUT82998.fa</t>
         </is>
       </c>
       <c r="B195" t="n">
-        <v>0.0003031008410901761</v>
+        <v>0.1249925191554826</v>
       </c>
       <c r="C195" t="n">
-        <v>0.02557452914685121</v>
+        <v>0.1487186847508278</v>
       </c>
       <c r="D195" t="n">
-        <v>0.002844857222478102</v>
+        <v>0.02902140368027836</v>
       </c>
       <c r="E195" t="n">
-        <v>0.01241075125879938</v>
+        <v>0.006287388444826458</v>
       </c>
       <c r="F195" t="n">
-        <v>7.431147019086375e-11</v>
+        <v>5.172691462658575e-06</v>
       </c>
       <c r="G195" t="n">
-        <v>0.03332029435847568</v>
+        <v>0.2578441458404452</v>
       </c>
       <c r="H195" t="n">
-        <v>0.0002980810644996531</v>
+        <v>0.02197024397657806</v>
       </c>
       <c r="I195" t="n">
-        <v>2.701910484873175e-14</v>
+        <v>9.087233871756075e-13</v>
       </c>
       <c r="J195" t="n">
-        <v>0.0008393904862478623</v>
+        <v>0.0033158238634727</v>
       </c>
       <c r="K195" t="n">
-        <v>2.282553442224697e-05</v>
+        <v>1.889245940033701e-05</v>
       </c>
       <c r="L195" t="n">
-        <v>0.000724786827508632</v>
+        <v>0.02175172514814927</v>
       </c>
       <c r="M195" t="n">
-        <v>0.0005333478464766178</v>
+        <v>0.175954679079104</v>
       </c>
       <c r="N195" t="n">
-        <v>0.9201187945341047</v>
+        <v>0.08311207466606327</v>
       </c>
       <c r="O195" t="n">
-        <v>0.003009240804707174</v>
+        <v>0.1270072462430006</v>
       </c>
       <c r="P195" t="n">
-        <v>0.9201187945341047</v>
+        <v>0.2578441458404452</v>
       </c>
       <c r="Q195" t="inlineStr">
         <is>
-          <t>f__UBA11471</t>
+          <t>f__Marinifilaceae</t>
         </is>
       </c>
       <c r="R195" t="inlineStr">
         <is>
-          <t>f__UBA11471</t>
+          <t>f__Marinifilaceae(reject)</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT82571.fa</t>
+          <t>even_MAG-GUT83643.fa</t>
         </is>
       </c>
       <c r="B196" t="n">
-        <v>0.05447594138086338</v>
+        <v>0.002918624047485106</v>
       </c>
       <c r="C196" t="n">
-        <v>0.1840341242862469</v>
+        <v>1.507904921132241e-05</v>
       </c>
       <c r="D196" t="n">
-        <v>0.02700705363141857</v>
+        <v>8.147830632238068e-08</v>
       </c>
       <c r="E196" t="n">
-        <v>0.07500756996661787</v>
+        <v>7.124071330577094e-11</v>
       </c>
       <c r="F196" t="n">
-        <v>1.109546040431621e-09</v>
+        <v>2.372315180998492e-14</v>
       </c>
       <c r="G196" t="n">
-        <v>0.2012525606674522</v>
+        <v>1.061424150020436e-08</v>
       </c>
       <c r="H196" t="n">
-        <v>0.003920431129445029</v>
+        <v>0.0018012623927433</v>
       </c>
       <c r="I196" t="n">
-        <v>4.815472678614764e-13</v>
+        <v>2.220141784400223e-14</v>
       </c>
       <c r="J196" t="n">
-        <v>0.02978030430386374</v>
+        <v>2.220141784400223e-14</v>
       </c>
       <c r="K196" t="n">
-        <v>0.0003200175018453635</v>
+        <v>9.107900130000569e-12</v>
       </c>
       <c r="L196" t="n">
-        <v>0.01696177105324987</v>
+        <v>0.995228422625264</v>
       </c>
       <c r="M196" t="n">
-        <v>0.02246414913977002</v>
+        <v>3.625880972432679e-05</v>
       </c>
       <c r="N196" t="n">
-        <v>0.2862952869961386</v>
+        <v>1.776949227054682e-10</v>
       </c>
       <c r="O196" t="n">
-        <v>0.09848078883306069</v>
+        <v>2.607249125153884e-07</v>
       </c>
       <c r="P196" t="n">
-        <v>0.2862952869961386</v>
+        <v>0.995228422625264</v>
       </c>
       <c r="Q196" t="inlineStr">
         <is>
-          <t>f__UBA11471</t>
+          <t>f__Rikenellaceae</t>
         </is>
       </c>
       <c r="R196" t="inlineStr">
         <is>
-          <t>f__UBA11471(reject)</t>
+          <t>f__Rikenellaceae</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT8267.fa</t>
+          <t>even_MAG-GUT838.fa</t>
         </is>
       </c>
       <c r="B197" t="n">
-        <v>3.1716360628205e-05</v>
+        <v>0.105330792677145</v>
       </c>
       <c r="C197" t="n">
-        <v>9.14277291158652e-08</v>
+        <v>0.177629272520086</v>
       </c>
       <c r="D197" t="n">
-        <v>2.452602481545756e-08</v>
+        <v>0.06545611871828168</v>
       </c>
       <c r="E197" t="n">
-        <v>4.394658758704392e-13</v>
+        <v>0.06793957207196509</v>
       </c>
       <c r="F197" t="n">
-        <v>7.83496988223125e-11</v>
+        <v>7.167662715129867e-09</v>
       </c>
       <c r="G197" t="n">
-        <v>6.549168927148327e-08</v>
+        <v>0.1318319525576997</v>
       </c>
       <c r="H197" t="n">
-        <v>0.1943299522144391</v>
+        <v>0.006355244412243317</v>
       </c>
       <c r="I197" t="n">
-        <v>2.219468252700993e-14</v>
+        <v>1.125483806863387e-12</v>
       </c>
       <c r="J197" t="n">
-        <v>8.688272104849123e-14</v>
+        <v>0.05497199091530835</v>
       </c>
       <c r="K197" t="n">
-        <v>1.10774239359798e-10</v>
+        <v>0.0002760979951291283</v>
       </c>
       <c r="L197" t="n">
-        <v>7.700240627588603e-05</v>
+        <v>0.05573886624992457</v>
       </c>
       <c r="M197" t="n">
-        <v>3.232395596623132e-06</v>
+        <v>0.06463090228664888</v>
       </c>
       <c r="N197" t="n">
-        <v>2.219468252700993e-14</v>
+        <v>0.1974196762502013</v>
       </c>
       <c r="O197" t="n">
-        <v>0.8055579149879224</v>
+        <v>0.0724195061765787</v>
       </c>
       <c r="P197" t="n">
-        <v>0.8055579149879224</v>
+        <v>0.1974196762502013</v>
       </c>
       <c r="Q197" t="inlineStr">
         <is>
-          <t>f__UBA932</t>
+          <t>f__UBA11471</t>
         </is>
       </c>
       <c r="R197" t="inlineStr">
         <is>
-          <t>f__UBA932</t>
+          <t>f__UBA11471(reject)</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT82998.fa</t>
+          <t>even_MAG-GUT84166.fa</t>
         </is>
       </c>
       <c r="B198" t="n">
-        <v>0.1249925191554826</v>
+        <v>0.0002230133821226968</v>
       </c>
       <c r="C198" t="n">
-        <v>0.1487186847508278</v>
+        <v>0.003900396458837658</v>
       </c>
       <c r="D198" t="n">
-        <v>0.02902140368027836</v>
+        <v>0.0002181077138789588</v>
       </c>
       <c r="E198" t="n">
-        <v>0.006287388444826458</v>
+        <v>0.0001785290107035449</v>
       </c>
       <c r="F198" t="n">
-        <v>5.172691462658575e-06</v>
+        <v>1.171980525988195e-08</v>
       </c>
       <c r="G198" t="n">
-        <v>0.2578441458404452</v>
+        <v>0.07314175022644584</v>
       </c>
       <c r="H198" t="n">
-        <v>0.02197024397657806</v>
+        <v>1.903325398117255e-05</v>
       </c>
       <c r="I198" t="n">
-        <v>9.087233871756075e-13</v>
+        <v>2.219518111702006e-14</v>
       </c>
       <c r="J198" t="n">
-        <v>0.0033158238634727</v>
+        <v>0.0004709110659581832</v>
       </c>
       <c r="K198" t="n">
-        <v>1.889245940033701e-05</v>
+        <v>1.828630245502446e-05</v>
       </c>
       <c r="L198" t="n">
-        <v>0.02175172514814927</v>
+        <v>0.0004110344563067088</v>
       </c>
       <c r="M198" t="n">
-        <v>0.175954679079104</v>
+        <v>0.0002509717290041174</v>
       </c>
       <c r="N198" t="n">
-        <v>0.08311207466606327</v>
+        <v>0.9208250987949891</v>
       </c>
       <c r="O198" t="n">
-        <v>0.1270072462430006</v>
+        <v>0.0003428558854894791</v>
       </c>
       <c r="P198" t="n">
-        <v>0.2578441458404452</v>
+        <v>0.9208250987949891</v>
       </c>
       <c r="Q198" t="inlineStr">
         <is>
-          <t>f__Marinifilaceae</t>
+          <t>f__UBA11471</t>
         </is>
       </c>
       <c r="R198" t="inlineStr">
         <is>
-          <t>f__Marinifilaceae(reject)</t>
+          <t>f__UBA11471</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT83643.fa</t>
+          <t>even_MAG-GUT84304.fa</t>
         </is>
       </c>
       <c r="B199" t="n">
-        <v>0.002918624047485106</v>
+        <v>0.001041276994186997</v>
       </c>
       <c r="C199" t="n">
-        <v>1.507904921132241e-05</v>
+        <v>0.2984871619466777</v>
       </c>
       <c r="D199" t="n">
-        <v>8.147830632238068e-08</v>
+        <v>0.0005966193635043652</v>
       </c>
       <c r="E199" t="n">
-        <v>7.124071330577094e-11</v>
+        <v>0.0006181104717880311</v>
       </c>
       <c r="F199" t="n">
-        <v>2.372315180998492e-14</v>
+        <v>6.289038758286127e-08</v>
       </c>
       <c r="G199" t="n">
-        <v>1.061424150020436e-08</v>
+        <v>0.226118005839552</v>
       </c>
       <c r="H199" t="n">
-        <v>0.0018012623927433</v>
+        <v>0.002260076296452636</v>
       </c>
       <c r="I199" t="n">
-        <v>2.220141784400223e-14</v>
+        <v>4.270825225051095e-14</v>
       </c>
       <c r="J199" t="n">
-        <v>2.220141784400223e-14</v>
+        <v>0.0005376251656730393</v>
       </c>
       <c r="K199" t="n">
-        <v>9.107900130000569e-12</v>
+        <v>4.663228587500591e-05</v>
       </c>
       <c r="L199" t="n">
-        <v>0.995228422625264</v>
+        <v>0.003271741544509898</v>
       </c>
       <c r="M199" t="n">
-        <v>3.625880972432679e-05</v>
+        <v>0.009034177280086745</v>
       </c>
       <c r="N199" t="n">
-        <v>1.776949227054682e-10</v>
+        <v>0.452761605919961</v>
       </c>
       <c r="O199" t="n">
-        <v>2.607249125153884e-07</v>
+        <v>0.005226904001302143</v>
       </c>
       <c r="P199" t="n">
-        <v>0.995228422625264</v>
+        <v>0.452761605919961</v>
       </c>
       <c r="Q199" t="inlineStr">
         <is>
-          <t>f__Rikenellaceae</t>
+          <t>f__UBA11471</t>
         </is>
       </c>
       <c r="R199" t="inlineStr">
         <is>
-          <t>f__Rikenellaceae</t>
+          <t>f__UBA11471(reject)</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT838.fa</t>
+          <t>even_MAG-GUT85906.fa</t>
         </is>
       </c>
       <c r="B200" t="n">
-        <v>0.105330792677145</v>
+        <v>0.2447032560703034</v>
       </c>
       <c r="C200" t="n">
-        <v>0.177629272520086</v>
+        <v>5.689098259584331e-05</v>
       </c>
       <c r="D200" t="n">
-        <v>0.06545611871828168</v>
+        <v>2.130898816785944e-06</v>
       </c>
       <c r="E200" t="n">
-        <v>0.06793957207196509</v>
+        <v>1.932212302650481e-10</v>
       </c>
       <c r="F200" t="n">
-        <v>7.167662715129867e-09</v>
+        <v>1.042088441927873e-11</v>
       </c>
       <c r="G200" t="n">
-        <v>0.1318319525576997</v>
+        <v>2.733185969542341e-06</v>
       </c>
       <c r="H200" t="n">
-        <v>0.006355244412243317</v>
+        <v>0.00199085948521297</v>
       </c>
       <c r="I200" t="n">
-        <v>1.125483806863387e-12</v>
+        <v>5.988877325513487e-14</v>
       </c>
       <c r="J200" t="n">
-        <v>0.05497199091530835</v>
+        <v>3.832086209283457e-13</v>
       </c>
       <c r="K200" t="n">
-        <v>0.0002760979951291283</v>
+        <v>6.954679025159411e-12</v>
       </c>
       <c r="L200" t="n">
-        <v>0.05573886624992457</v>
+        <v>0.7522030248428196</v>
       </c>
       <c r="M200" t="n">
-        <v>0.06463090228664888</v>
+        <v>0.0007585945753713746</v>
       </c>
       <c r="N200" t="n">
-        <v>0.1974196762502013</v>
+        <v>5.988877325513659e-14</v>
       </c>
       <c r="O200" t="n">
-        <v>0.0724195061765787</v>
+        <v>0.0002825097478106194</v>
       </c>
       <c r="P200" t="n">
-        <v>0.1974196762502013</v>
+        <v>0.7522030248428196</v>
       </c>
       <c r="Q200" t="inlineStr">
         <is>
-          <t>f__UBA11471</t>
+          <t>f__Rikenellaceae</t>
         </is>
       </c>
       <c r="R200" t="inlineStr">
         <is>
-          <t>f__UBA11471(reject)</t>
+          <t>f__Rikenellaceae</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT84166.fa</t>
+          <t>even_MAG-GUT86112.fa</t>
         </is>
       </c>
       <c r="B201" t="n">
-        <v>0.0002230133821226968</v>
+        <v>8.670340994381582e-05</v>
       </c>
       <c r="C201" t="n">
-        <v>0.003900396458837658</v>
+        <v>0.0937175753128979</v>
       </c>
       <c r="D201" t="n">
-        <v>0.0002181077138789588</v>
+        <v>0.0002056286645071505</v>
       </c>
       <c r="E201" t="n">
-        <v>0.0001785290107035449</v>
+        <v>2.76657932133135e-05</v>
       </c>
       <c r="F201" t="n">
-        <v>1.171980525988195e-08</v>
+        <v>9.655378709392156e-11</v>
       </c>
       <c r="G201" t="n">
-        <v>0.07314175022644584</v>
+        <v>0.08144041274950037</v>
       </c>
       <c r="H201" t="n">
-        <v>1.903325398117255e-05</v>
+        <v>0.001590588866445538</v>
       </c>
       <c r="I201" t="n">
-        <v>2.219518111702006e-14</v>
+        <v>2.227075793097268e-14</v>
       </c>
       <c r="J201" t="n">
-        <v>0.0004709110659581832</v>
+        <v>1.912398083430371e-05</v>
       </c>
       <c r="K201" t="n">
-        <v>1.828630245502446e-05</v>
+        <v>1.713892739235163e-05</v>
       </c>
       <c r="L201" t="n">
-        <v>0.0004110344563067088</v>
+        <v>0.0005585944817277681</v>
       </c>
       <c r="M201" t="n">
-        <v>0.0002509717290041174</v>
+        <v>0.001590044154038231</v>
       </c>
       <c r="N201" t="n">
-        <v>0.9208250987949891</v>
+        <v>0.8206011398217086</v>
       </c>
       <c r="O201" t="n">
-        <v>0.0003428558854894791</v>
+        <v>0.0001453837412146777</v>
       </c>
       <c r="P201" t="n">
-        <v>0.9208250987949891</v>
+        <v>0.8206011398217086</v>
       </c>
       <c r="Q201" t="inlineStr">
         <is>
@@ -12929,177 +12929,177 @@
     <row r="202">
       <c r="A202" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT84304.fa</t>
+          <t>even_MAG-GUT86504.fa</t>
         </is>
       </c>
       <c r="B202" t="n">
-        <v>0.001041276994186997</v>
+        <v>0.001229511724056617</v>
       </c>
       <c r="C202" t="n">
-        <v>0.2984871619466777</v>
+        <v>0.000483028970498947</v>
       </c>
       <c r="D202" t="n">
-        <v>0.0005966193635043652</v>
+        <v>2.608064111704232e-05</v>
       </c>
       <c r="E202" t="n">
-        <v>0.0006181104717880311</v>
+        <v>1.852748563556912e-08</v>
       </c>
       <c r="F202" t="n">
-        <v>6.289038758286127e-08</v>
+        <v>6.629692409136851e-10</v>
       </c>
       <c r="G202" t="n">
-        <v>0.226118005839552</v>
+        <v>8.433678688241703e-06</v>
       </c>
       <c r="H202" t="n">
-        <v>0.002260076296452636</v>
+        <v>0.9939814864517509</v>
       </c>
       <c r="I202" t="n">
-        <v>4.270825225051095e-14</v>
+        <v>2.220141354904694e-14</v>
       </c>
       <c r="J202" t="n">
-        <v>0.0005376251656730393</v>
+        <v>1.786912614012008e-08</v>
       </c>
       <c r="K202" t="n">
-        <v>4.663228587500591e-05</v>
+        <v>1.328928738394043e-08</v>
       </c>
       <c r="L202" t="n">
-        <v>0.003271741544509898</v>
+        <v>0.004208801633064544</v>
       </c>
       <c r="M202" t="n">
-        <v>0.009034177280086745</v>
+        <v>1.22921810176254e-05</v>
       </c>
       <c r="N202" t="n">
-        <v>0.452761605919961</v>
+        <v>2.220141354904694e-14</v>
       </c>
       <c r="O202" t="n">
-        <v>0.005226904001302143</v>
+        <v>5.031437089308788e-05</v>
       </c>
       <c r="P202" t="n">
-        <v>0.452761605919961</v>
+        <v>0.9939814864517509</v>
       </c>
       <c r="Q202" t="inlineStr">
         <is>
-          <t>f__UBA11471</t>
+          <t>f__Muribaculaceae</t>
         </is>
       </c>
       <c r="R202" t="inlineStr">
         <is>
-          <t>f__UBA11471(reject)</t>
+          <t>f__Muribaculaceae</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT85906.fa</t>
+          <t>even_MAG-GUT89050.fa</t>
         </is>
       </c>
       <c r="B203" t="n">
-        <v>0.2447032560703034</v>
+        <v>0.01012528198905882</v>
       </c>
       <c r="C203" t="n">
-        <v>5.689098259584331e-05</v>
+        <v>0.0004528115800701964</v>
       </c>
       <c r="D203" t="n">
-        <v>2.130898816785944e-06</v>
+        <v>0.0006146743948482647</v>
       </c>
       <c r="E203" t="n">
-        <v>1.932212302650481e-10</v>
+        <v>0.3836630189192187</v>
       </c>
       <c r="F203" t="n">
-        <v>1.042088441927873e-11</v>
+        <v>5.320715423235215e-05</v>
       </c>
       <c r="G203" t="n">
-        <v>2.733185969542341e-06</v>
+        <v>0.01205993793710797</v>
       </c>
       <c r="H203" t="n">
-        <v>0.00199085948521297</v>
+        <v>2.678227573049183e-06</v>
       </c>
       <c r="I203" t="n">
-        <v>5.988877325513487e-14</v>
+        <v>2.222942829757078e-14</v>
       </c>
       <c r="J203" t="n">
-        <v>3.832086209283457e-13</v>
+        <v>0.004901831213097132</v>
       </c>
       <c r="K203" t="n">
-        <v>6.954679025159411e-12</v>
+        <v>5.598522716936169e-05</v>
       </c>
       <c r="L203" t="n">
-        <v>0.7522030248428196</v>
+        <v>0.000186995770208137</v>
       </c>
       <c r="M203" t="n">
-        <v>0.0007585945753713746</v>
+        <v>0.002068684552991337</v>
       </c>
       <c r="N203" t="n">
-        <v>5.988877325513659e-14</v>
+        <v>0.5251385321833897</v>
       </c>
       <c r="O203" t="n">
-        <v>0.0002825097478106194</v>
+        <v>0.06067636085101272</v>
       </c>
       <c r="P203" t="n">
-        <v>0.7522030248428196</v>
+        <v>0.5251385321833897</v>
       </c>
       <c r="Q203" t="inlineStr">
         <is>
-          <t>f__Rikenellaceae</t>
+          <t>f__UBA11471</t>
         </is>
       </c>
       <c r="R203" t="inlineStr">
         <is>
-          <t>f__Rikenellaceae</t>
+          <t>f__UBA11471(reject)</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT86112.fa</t>
+          <t>even_MAG-GUT89164.fa</t>
         </is>
       </c>
       <c r="B204" t="n">
-        <v>8.670340994381582e-05</v>
+        <v>0.01012528198905882</v>
       </c>
       <c r="C204" t="n">
-        <v>0.0937175753128979</v>
+        <v>0.0004528115800701964</v>
       </c>
       <c r="D204" t="n">
-        <v>0.0002056286645071505</v>
+        <v>0.0006146743948482647</v>
       </c>
       <c r="E204" t="n">
-        <v>2.76657932133135e-05</v>
+        <v>0.3836630189192187</v>
       </c>
       <c r="F204" t="n">
-        <v>9.655378709392156e-11</v>
+        <v>5.320715423235215e-05</v>
       </c>
       <c r="G204" t="n">
-        <v>0.08144041274950037</v>
+        <v>0.01205993793710797</v>
       </c>
       <c r="H204" t="n">
-        <v>0.001590588866445538</v>
+        <v>2.678227573049183e-06</v>
       </c>
       <c r="I204" t="n">
-        <v>2.227075793097268e-14</v>
+        <v>2.222942829757078e-14</v>
       </c>
       <c r="J204" t="n">
-        <v>1.912398083430371e-05</v>
+        <v>0.004901831213097132</v>
       </c>
       <c r="K204" t="n">
-        <v>1.713892739235163e-05</v>
+        <v>5.598522716936169e-05</v>
       </c>
       <c r="L204" t="n">
-        <v>0.0005585944817277681</v>
+        <v>0.000186995770208137</v>
       </c>
       <c r="M204" t="n">
-        <v>0.001590044154038231</v>
+        <v>0.002068684552991337</v>
       </c>
       <c r="N204" t="n">
-        <v>0.8206011398217086</v>
+        <v>0.5251385321833897</v>
       </c>
       <c r="O204" t="n">
-        <v>0.0001453837412146777</v>
+        <v>0.06067636085101272</v>
       </c>
       <c r="P204" t="n">
-        <v>0.8206011398217086</v>
+        <v>0.5251385321833897</v>
       </c>
       <c r="Q204" t="inlineStr">
         <is>
@@ -13108,69 +13108,503 @@
       </c>
       <c r="R204" t="inlineStr">
         <is>
-          <t>f__UBA11471</t>
+          <t>f__UBA11471(reject)</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT86504.fa</t>
+          <t>even_MAG-GUT89816.fa</t>
         </is>
       </c>
       <c r="B205" t="n">
-        <v>0.001229511724056617</v>
+        <v>0.01012528198905882</v>
       </c>
       <c r="C205" t="n">
-        <v>0.000483028970498947</v>
+        <v>0.0004528115800701964</v>
       </c>
       <c r="D205" t="n">
-        <v>2.608064111704232e-05</v>
+        <v>0.0006146743948482647</v>
       </c>
       <c r="E205" t="n">
-        <v>1.852748563556912e-08</v>
+        <v>0.3836630189192187</v>
       </c>
       <c r="F205" t="n">
-        <v>6.629692409136851e-10</v>
+        <v>5.320715423235215e-05</v>
       </c>
       <c r="G205" t="n">
-        <v>8.433678688241703e-06</v>
+        <v>0.01205993793710797</v>
       </c>
       <c r="H205" t="n">
-        <v>0.9939814864517509</v>
+        <v>2.678227573049183e-06</v>
       </c>
       <c r="I205" t="n">
-        <v>2.220141354904694e-14</v>
+        <v>2.222942829757078e-14</v>
       </c>
       <c r="J205" t="n">
-        <v>1.786912614012008e-08</v>
+        <v>0.004901831213097132</v>
       </c>
       <c r="K205" t="n">
-        <v>1.328928738394043e-08</v>
+        <v>5.598522716936169e-05</v>
       </c>
       <c r="L205" t="n">
-        <v>0.004208801633064544</v>
+        <v>0.000186995770208137</v>
       </c>
       <c r="M205" t="n">
-        <v>1.22921810176254e-05</v>
+        <v>0.002068684552991337</v>
       </c>
       <c r="N205" t="n">
-        <v>2.220141354904694e-14</v>
+        <v>0.5251385321833897</v>
       </c>
       <c r="O205" t="n">
-        <v>5.031437089308788e-05</v>
+        <v>0.06067636085101272</v>
       </c>
       <c r="P205" t="n">
-        <v>0.9939814864517509</v>
+        <v>0.5251385321833897</v>
       </c>
       <c r="Q205" t="inlineStr">
         <is>
-          <t>f__Muribaculaceae</t>
+          <t>f__UBA11471</t>
         </is>
       </c>
       <c r="R205" t="inlineStr">
         <is>
-          <t>f__Muribaculaceae</t>
+          <t>f__UBA11471(reject)</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT89851.fa</t>
+        </is>
+      </c>
+      <c r="B206" t="n">
+        <v>0.01012528198905882</v>
+      </c>
+      <c r="C206" t="n">
+        <v>0.0004528115800701964</v>
+      </c>
+      <c r="D206" t="n">
+        <v>0.0006146743948482647</v>
+      </c>
+      <c r="E206" t="n">
+        <v>0.3836630189192187</v>
+      </c>
+      <c r="F206" t="n">
+        <v>5.320715423235215e-05</v>
+      </c>
+      <c r="G206" t="n">
+        <v>0.01205993793710797</v>
+      </c>
+      <c r="H206" t="n">
+        <v>2.678227573049183e-06</v>
+      </c>
+      <c r="I206" t="n">
+        <v>2.222942829757078e-14</v>
+      </c>
+      <c r="J206" t="n">
+        <v>0.004901831213097132</v>
+      </c>
+      <c r="K206" t="n">
+        <v>5.598522716936169e-05</v>
+      </c>
+      <c r="L206" t="n">
+        <v>0.000186995770208137</v>
+      </c>
+      <c r="M206" t="n">
+        <v>0.002068684552991337</v>
+      </c>
+      <c r="N206" t="n">
+        <v>0.5251385321833897</v>
+      </c>
+      <c r="O206" t="n">
+        <v>0.06067636085101272</v>
+      </c>
+      <c r="P206" t="n">
+        <v>0.5251385321833897</v>
+      </c>
+      <c r="Q206" t="inlineStr">
+        <is>
+          <t>f__UBA11471</t>
+        </is>
+      </c>
+      <c r="R206" t="inlineStr">
+        <is>
+          <t>f__UBA11471(reject)</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT90143.fa</t>
+        </is>
+      </c>
+      <c r="B207" t="n">
+        <v>0.01012528198905882</v>
+      </c>
+      <c r="C207" t="n">
+        <v>0.0004528115800701964</v>
+      </c>
+      <c r="D207" t="n">
+        <v>0.0006146743948482647</v>
+      </c>
+      <c r="E207" t="n">
+        <v>0.3836630189192187</v>
+      </c>
+      <c r="F207" t="n">
+        <v>5.320715423235215e-05</v>
+      </c>
+      <c r="G207" t="n">
+        <v>0.01205993793710797</v>
+      </c>
+      <c r="H207" t="n">
+        <v>2.678227573049183e-06</v>
+      </c>
+      <c r="I207" t="n">
+        <v>2.222942829757078e-14</v>
+      </c>
+      <c r="J207" t="n">
+        <v>0.004901831213097132</v>
+      </c>
+      <c r="K207" t="n">
+        <v>5.598522716936169e-05</v>
+      </c>
+      <c r="L207" t="n">
+        <v>0.000186995770208137</v>
+      </c>
+      <c r="M207" t="n">
+        <v>0.002068684552991337</v>
+      </c>
+      <c r="N207" t="n">
+        <v>0.5251385321833897</v>
+      </c>
+      <c r="O207" t="n">
+        <v>0.06067636085101272</v>
+      </c>
+      <c r="P207" t="n">
+        <v>0.5251385321833897</v>
+      </c>
+      <c r="Q207" t="inlineStr">
+        <is>
+          <t>f__UBA11471</t>
+        </is>
+      </c>
+      <c r="R207" t="inlineStr">
+        <is>
+          <t>f__UBA11471(reject)</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT90408.fa</t>
+        </is>
+      </c>
+      <c r="B208" t="n">
+        <v>0.01012528198905882</v>
+      </c>
+      <c r="C208" t="n">
+        <v>0.0004528115800701964</v>
+      </c>
+      <c r="D208" t="n">
+        <v>0.0006146743948482647</v>
+      </c>
+      <c r="E208" t="n">
+        <v>0.3836630189192187</v>
+      </c>
+      <c r="F208" t="n">
+        <v>5.320715423235215e-05</v>
+      </c>
+      <c r="G208" t="n">
+        <v>0.01205993793710797</v>
+      </c>
+      <c r="H208" t="n">
+        <v>2.678227573049183e-06</v>
+      </c>
+      <c r="I208" t="n">
+        <v>2.222942829757078e-14</v>
+      </c>
+      <c r="J208" t="n">
+        <v>0.004901831213097132</v>
+      </c>
+      <c r="K208" t="n">
+        <v>5.598522716936169e-05</v>
+      </c>
+      <c r="L208" t="n">
+        <v>0.000186995770208137</v>
+      </c>
+      <c r="M208" t="n">
+        <v>0.002068684552991337</v>
+      </c>
+      <c r="N208" t="n">
+        <v>0.5251385321833897</v>
+      </c>
+      <c r="O208" t="n">
+        <v>0.06067636085101272</v>
+      </c>
+      <c r="P208" t="n">
+        <v>0.5251385321833897</v>
+      </c>
+      <c r="Q208" t="inlineStr">
+        <is>
+          <t>f__UBA11471</t>
+        </is>
+      </c>
+      <c r="R208" t="inlineStr">
+        <is>
+          <t>f__UBA11471(reject)</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT90615.fa</t>
+        </is>
+      </c>
+      <c r="B209" t="n">
+        <v>0.01012528198905882</v>
+      </c>
+      <c r="C209" t="n">
+        <v>0.0004528115800701964</v>
+      </c>
+      <c r="D209" t="n">
+        <v>0.0006146743948482647</v>
+      </c>
+      <c r="E209" t="n">
+        <v>0.3836630189192187</v>
+      </c>
+      <c r="F209" t="n">
+        <v>5.320715423235215e-05</v>
+      </c>
+      <c r="G209" t="n">
+        <v>0.01205993793710797</v>
+      </c>
+      <c r="H209" t="n">
+        <v>2.678227573049183e-06</v>
+      </c>
+      <c r="I209" t="n">
+        <v>2.222942829757078e-14</v>
+      </c>
+      <c r="J209" t="n">
+        <v>0.004901831213097132</v>
+      </c>
+      <c r="K209" t="n">
+        <v>5.598522716936169e-05</v>
+      </c>
+      <c r="L209" t="n">
+        <v>0.000186995770208137</v>
+      </c>
+      <c r="M209" t="n">
+        <v>0.002068684552991337</v>
+      </c>
+      <c r="N209" t="n">
+        <v>0.5251385321833897</v>
+      </c>
+      <c r="O209" t="n">
+        <v>0.06067636085101272</v>
+      </c>
+      <c r="P209" t="n">
+        <v>0.5251385321833897</v>
+      </c>
+      <c r="Q209" t="inlineStr">
+        <is>
+          <t>f__UBA11471</t>
+        </is>
+      </c>
+      <c r="R209" t="inlineStr">
+        <is>
+          <t>f__UBA11471(reject)</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT90683.fa</t>
+        </is>
+      </c>
+      <c r="B210" t="n">
+        <v>0.01012528198905882</v>
+      </c>
+      <c r="C210" t="n">
+        <v>0.0004528115800701964</v>
+      </c>
+      <c r="D210" t="n">
+        <v>0.0006146743948482647</v>
+      </c>
+      <c r="E210" t="n">
+        <v>0.3836630189192187</v>
+      </c>
+      <c r="F210" t="n">
+        <v>5.320715423235215e-05</v>
+      </c>
+      <c r="G210" t="n">
+        <v>0.01205993793710797</v>
+      </c>
+      <c r="H210" t="n">
+        <v>2.678227573049183e-06</v>
+      </c>
+      <c r="I210" t="n">
+        <v>2.222942829757078e-14</v>
+      </c>
+      <c r="J210" t="n">
+        <v>0.004901831213097132</v>
+      </c>
+      <c r="K210" t="n">
+        <v>5.598522716936169e-05</v>
+      </c>
+      <c r="L210" t="n">
+        <v>0.000186995770208137</v>
+      </c>
+      <c r="M210" t="n">
+        <v>0.002068684552991337</v>
+      </c>
+      <c r="N210" t="n">
+        <v>0.5251385321833897</v>
+      </c>
+      <c r="O210" t="n">
+        <v>0.06067636085101272</v>
+      </c>
+      <c r="P210" t="n">
+        <v>0.5251385321833897</v>
+      </c>
+      <c r="Q210" t="inlineStr">
+        <is>
+          <t>f__UBA11471</t>
+        </is>
+      </c>
+      <c r="R210" t="inlineStr">
+        <is>
+          <t>f__UBA11471(reject)</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT90996.fa</t>
+        </is>
+      </c>
+      <c r="B211" t="n">
+        <v>0.01012528198905882</v>
+      </c>
+      <c r="C211" t="n">
+        <v>0.0004528115800701964</v>
+      </c>
+      <c r="D211" t="n">
+        <v>0.0006146743948482647</v>
+      </c>
+      <c r="E211" t="n">
+        <v>0.3836630189192187</v>
+      </c>
+      <c r="F211" t="n">
+        <v>5.320715423235215e-05</v>
+      </c>
+      <c r="G211" t="n">
+        <v>0.01205993793710797</v>
+      </c>
+      <c r="H211" t="n">
+        <v>2.678227573049183e-06</v>
+      </c>
+      <c r="I211" t="n">
+        <v>2.222942829757078e-14</v>
+      </c>
+      <c r="J211" t="n">
+        <v>0.004901831213097132</v>
+      </c>
+      <c r="K211" t="n">
+        <v>5.598522716936169e-05</v>
+      </c>
+      <c r="L211" t="n">
+        <v>0.000186995770208137</v>
+      </c>
+      <c r="M211" t="n">
+        <v>0.002068684552991337</v>
+      </c>
+      <c r="N211" t="n">
+        <v>0.5251385321833897</v>
+      </c>
+      <c r="O211" t="n">
+        <v>0.06067636085101272</v>
+      </c>
+      <c r="P211" t="n">
+        <v>0.5251385321833897</v>
+      </c>
+      <c r="Q211" t="inlineStr">
+        <is>
+          <t>f__UBA11471</t>
+        </is>
+      </c>
+      <c r="R211" t="inlineStr">
+        <is>
+          <t>f__UBA11471(reject)</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT91012.fa</t>
+        </is>
+      </c>
+      <c r="B212" t="n">
+        <v>0.01012528198905882</v>
+      </c>
+      <c r="C212" t="n">
+        <v>0.0004528115800701964</v>
+      </c>
+      <c r="D212" t="n">
+        <v>0.0006146743948482647</v>
+      </c>
+      <c r="E212" t="n">
+        <v>0.3836630189192187</v>
+      </c>
+      <c r="F212" t="n">
+        <v>5.320715423235215e-05</v>
+      </c>
+      <c r="G212" t="n">
+        <v>0.01205993793710797</v>
+      </c>
+      <c r="H212" t="n">
+        <v>2.678227573049183e-06</v>
+      </c>
+      <c r="I212" t="n">
+        <v>2.222942829757078e-14</v>
+      </c>
+      <c r="J212" t="n">
+        <v>0.004901831213097132</v>
+      </c>
+      <c r="K212" t="n">
+        <v>5.598522716936169e-05</v>
+      </c>
+      <c r="L212" t="n">
+        <v>0.000186995770208137</v>
+      </c>
+      <c r="M212" t="n">
+        <v>0.002068684552991337</v>
+      </c>
+      <c r="N212" t="n">
+        <v>0.5251385321833897</v>
+      </c>
+      <c r="O212" t="n">
+        <v>0.06067636085101272</v>
+      </c>
+      <c r="P212" t="n">
+        <v>0.5251385321833897</v>
+      </c>
+      <c r="Q212" t="inlineStr">
+        <is>
+          <t>f__UBA11471</t>
+        </is>
+      </c>
+      <c r="R212" t="inlineStr">
+        <is>
+          <t>f__UBA11471(reject)</t>
         </is>
       </c>
     </row>
